--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -442,7 +442,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>valor</t>
+          <t>pp</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -452,7 +452,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>gap</t>
+          <t>exchange_rate_gap</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E226"/>
+  <dimension ref="A1:F226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,11 @@
           <t>exchange_rate_today_prices</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>precipitations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -472,10 +477,13 @@
         <v>86.8660262309</v>
       </c>
       <c r="D2" t="n">
-        <v>1.154716673938174</v>
+        <v>1.154716721464261</v>
       </c>
       <c r="E2" t="n">
         <v>827.75964487865</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1423.333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -489,10 +497,13 @@
         <v>87.9074492199</v>
       </c>
       <c r="D3" t="n">
-        <v>1.160476983310817</v>
+        <v>1.160476931260005</v>
       </c>
       <c r="E3" t="n">
         <v>805.7661980406689</v>
+      </c>
+      <c r="F3" t="n">
+        <v>969.6666666666666</v>
       </c>
     </row>
     <row r="4">
@@ -506,10 +517,13 @@
         <v>86.22652454919999</v>
       </c>
       <c r="D4" t="n">
-        <v>1.17006148461154</v>
+        <v>1.170061480488451</v>
       </c>
       <c r="E4" t="n">
         <v>794.9152948868785</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1730</v>
       </c>
     </row>
     <row r="5">
@@ -523,10 +537,13 @@
         <v>87.96444951710001</v>
       </c>
       <c r="D5" t="n">
-        <v>1.149007798666626</v>
+        <v>1.149007851051184</v>
       </c>
       <c r="E5" t="n">
         <v>797.0115799902567</v>
+      </c>
+      <c r="F5" t="n">
+        <v>620</v>
       </c>
     </row>
     <row r="6">
@@ -540,10 +557,13 @@
         <v>89.117151552</v>
       </c>
       <c r="D6" t="n">
-        <v>1.121608545423998</v>
+        <v>1.121608587667254</v>
       </c>
       <c r="E6" t="n">
         <v>789.3854678492585</v>
+      </c>
+      <c r="F6" t="n">
+        <v>54.66666666666666</v>
       </c>
     </row>
     <row r="7">
@@ -557,10 +577,13 @@
         <v>94.71839893090001</v>
       </c>
       <c r="D7" t="n">
-        <v>1.109963483300607</v>
+        <v>1.109963600602293</v>
       </c>
       <c r="E7" t="n">
         <v>778.751191968886</v>
+      </c>
+      <c r="F7" t="n">
+        <v>203</v>
       </c>
     </row>
     <row r="8">
@@ -574,10 +597,13 @@
         <v>92.2844463265</v>
       </c>
       <c r="D8" t="n">
-        <v>1.104104750808291</v>
+        <v>1.104104713658065</v>
       </c>
       <c r="E8" t="n">
         <v>768.8429726697418</v>
+      </c>
+      <c r="F8" t="n">
+        <v>346.3333333333333</v>
       </c>
     </row>
     <row r="9">
@@ -591,10 +617,13 @@
         <v>98.7654822592</v>
       </c>
       <c r="D9" t="n">
-        <v>1.108396266560367</v>
+        <v>1.108396229601597</v>
       </c>
       <c r="E9" t="n">
         <v>768.9291867500879</v>
+      </c>
+      <c r="F9" t="n">
+        <v>516.6666666666666</v>
       </c>
     </row>
     <row r="10">
@@ -608,10 +637,13 @@
         <v>97.55007141439999</v>
       </c>
       <c r="D10" t="n">
-        <v>1.112568446797684</v>
+        <v>1.112568434679834</v>
       </c>
       <c r="E10" t="n">
         <v>766.1432283468487</v>
+      </c>
+      <c r="F10" t="n">
+        <v>493.3333333333333</v>
       </c>
     </row>
     <row r="11">
@@ -625,10 +657,13 @@
         <v>100.2158808295</v>
       </c>
       <c r="D11" t="n">
-        <v>1.114354233710249</v>
+        <v>1.114354227016314</v>
       </c>
       <c r="E11" t="n">
         <v>776.549030446341</v>
+      </c>
+      <c r="F11" t="n">
+        <v>527.6666666666666</v>
       </c>
     </row>
     <row r="12">
@@ -642,10 +677,13 @@
         <v>98.57635495940001</v>
       </c>
       <c r="D12" t="n">
-        <v>1.108391907496939</v>
+        <v>1.108391868060511</v>
       </c>
       <c r="E12" t="n">
         <v>766.6656788095444</v>
+      </c>
+      <c r="F12" t="n">
+        <v>825.6666666666666</v>
       </c>
     </row>
     <row r="13">
@@ -659,10 +697,13 @@
         <v>118.9077642111</v>
       </c>
       <c r="D13" t="n">
-        <v>1.108932762343829</v>
+        <v>1.108932708148006</v>
       </c>
       <c r="E13" t="n">
         <v>770.5510362867485</v>
+      </c>
+      <c r="F13" t="n">
+        <v>582.6666666666666</v>
       </c>
     </row>
     <row r="14">
@@ -676,10 +717,13 @@
         <v>96.97922536740001</v>
       </c>
       <c r="D14" t="n">
-        <v>1.112615522321777</v>
+        <v>1.11261549429263</v>
       </c>
       <c r="E14" t="n">
         <v>769.6547440500194</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1680</v>
       </c>
     </row>
     <row r="15">
@@ -693,10 +737,13 @@
         <v>111.7391453039</v>
       </c>
       <c r="D15" t="n">
-        <v>1.096749317176806</v>
+        <v>1.096749229802299</v>
       </c>
       <c r="E15" t="n">
         <v>772.2365197481716</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1110.666666666667</v>
       </c>
     </row>
     <row r="16">
@@ -710,10 +757,13 @@
         <v>102.6816293286</v>
       </c>
       <c r="D16" t="n">
-        <v>1.093388003503033</v>
+        <v>1.093387925578673</v>
       </c>
       <c r="E16" t="n">
         <v>761.6471232608791</v>
+      </c>
+      <c r="F16" t="n">
+        <v>884.6666666666666</v>
       </c>
     </row>
     <row r="17">
@@ -727,10 +777,13 @@
         <v>96.8883507728</v>
       </c>
       <c r="D17" t="n">
-        <v>1.103752411229484</v>
+        <v>1.103752391537128</v>
       </c>
       <c r="E17" t="n">
         <v>742.3630431908006</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1609.666666666667</v>
       </c>
     </row>
     <row r="18">
@@ -744,10 +797,13 @@
         <v>105.6117573661</v>
       </c>
       <c r="D18" t="n">
-        <v>1.072605183867857</v>
+        <v>1.072605215958221</v>
       </c>
       <c r="E18" t="n">
         <v>747.9797962031328</v>
+      </c>
+      <c r="F18" t="n">
+        <v>29.66666666666667</v>
       </c>
     </row>
     <row r="19">
@@ -761,10 +817,13 @@
         <v>106.1998918611</v>
       </c>
       <c r="D19" t="n">
-        <v>1.08667368955318</v>
+        <v>1.086673681610881</v>
       </c>
       <c r="E19" t="n">
         <v>750.4611734517615</v>
+      </c>
+      <c r="F19" t="n">
+        <v>450</v>
       </c>
     </row>
     <row r="20">
@@ -778,10 +837,13 @@
         <v>110.733798123</v>
       </c>
       <c r="D20" t="n">
-        <v>1.071373261398013</v>
+        <v>1.071373224308062</v>
       </c>
       <c r="E20" t="n">
         <v>746.1230638677307</v>
+      </c>
+      <c r="F20" t="n">
+        <v>90.66666666666667</v>
       </c>
     </row>
     <row r="21">
@@ -795,10 +857,13 @@
         <v>115.034316759</v>
       </c>
       <c r="D21" t="n">
-        <v>1.078135078262273</v>
+        <v>1.078135094197441</v>
       </c>
       <c r="E21" t="n">
         <v>740.2588024880686</v>
+      </c>
+      <c r="F21" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="22">
@@ -812,10 +877,13 @@
         <v>108.731885118</v>
       </c>
       <c r="D22" t="n">
-        <v>1.065943144867953</v>
+        <v>1.065943107887092</v>
       </c>
       <c r="E22" t="n">
         <v>739.6325329612901</v>
+      </c>
+      <c r="F22" t="n">
+        <v>176.6666666666667</v>
       </c>
     </row>
     <row r="23">
@@ -829,10 +897,13 @@
         <v>114.3777850819</v>
       </c>
       <c r="D23" t="n">
-        <v>1.069429254715151</v>
+        <v>1.069429206883925</v>
       </c>
       <c r="E23" t="n">
         <v>733.0770334418909</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1593.333333333333</v>
       </c>
     </row>
     <row r="24">
@@ -846,10 +917,13 @@
         <v>126.1586112487</v>
       </c>
       <c r="D24" t="n">
-        <v>1.073521921059283</v>
+        <v>1.073521967716239</v>
       </c>
       <c r="E24" t="n">
         <v>722.4402526779559</v>
+      </c>
+      <c r="F24" t="n">
+        <v>915</v>
       </c>
     </row>
     <row r="25">
@@ -863,10 +937,13 @@
         <v>127.5636036694</v>
       </c>
       <c r="D25" t="n">
-        <v>1.055480802511718</v>
+        <v>1.055480747254855</v>
       </c>
       <c r="E25" t="n">
         <v>711.4633046387183</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1975.666666666667</v>
       </c>
     </row>
     <row r="26">
@@ -880,10 +957,13 @@
         <v>130.1704293814</v>
       </c>
       <c r="D26" t="n">
-        <v>1.059582009259517</v>
+        <v>1.059581963378814</v>
       </c>
       <c r="E26" t="n">
         <v>708.2042614561385</v>
+      </c>
+      <c r="F26" t="n">
+        <v>813.3333333333334</v>
       </c>
     </row>
     <row r="27">
@@ -897,10 +977,13 @@
         <v>131.1333276084</v>
       </c>
       <c r="D27" t="n">
-        <v>1.063216210078902</v>
+        <v>1.063216135602114</v>
       </c>
       <c r="E27" t="n">
         <v>705.8410388439504</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1903</v>
       </c>
     </row>
     <row r="28">
@@ -914,10 +997,13 @@
         <v>122.0962430102</v>
       </c>
       <c r="D28" t="n">
-        <v>1.05810723488543</v>
+        <v>1.058107280579988</v>
       </c>
       <c r="E28" t="n">
         <v>697.2768447103653</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3448</v>
       </c>
     </row>
     <row r="29">
@@ -931,10 +1017,13 @@
         <v>109.8044250782</v>
       </c>
       <c r="D29" t="n">
-        <v>1.041967953920122</v>
+        <v>1.041967952649182</v>
       </c>
       <c r="E29" t="n">
         <v>683.2975224673718</v>
+      </c>
+      <c r="F29" t="n">
+        <v>471.3333333333333</v>
       </c>
     </row>
     <row r="30">
@@ -948,10 +1037,13 @@
         <v>114.6213866563</v>
       </c>
       <c r="D30" t="n">
-        <v>1.044372293832568</v>
+        <v>1.044372239764431</v>
       </c>
       <c r="E30" t="n">
         <v>669.1853082600542</v>
+      </c>
+      <c r="F30" t="n">
+        <v>461</v>
       </c>
     </row>
     <row r="31">
@@ -965,10 +1057,13 @@
         <v>125.6741882655</v>
       </c>
       <c r="D31" t="n">
-        <v>1.045901829171154</v>
+        <v>1.045901825386781</v>
       </c>
       <c r="E31" t="n">
         <v>657.0634108347201</v>
+      </c>
+      <c r="F31" t="n">
+        <v>136.6666666666667</v>
       </c>
     </row>
     <row r="32">
@@ -982,10 +1077,13 @@
         <v>126.854771419</v>
       </c>
       <c r="D32" t="n">
-        <v>1.057596623633971</v>
+        <v>1.057596644953511</v>
       </c>
       <c r="E32" t="n">
         <v>650.7584737246715</v>
+      </c>
+      <c r="F32" t="n">
+        <v>16.66666666666667</v>
       </c>
     </row>
     <row r="33">
@@ -999,10 +1097,13 @@
         <v>121.611045056</v>
       </c>
       <c r="D33" t="n">
-        <v>1.06303961201888</v>
+        <v>1.063039627092685</v>
       </c>
       <c r="E33" t="n">
         <v>645.562716006971</v>
+      </c>
+      <c r="F33" t="n">
+        <v>56.66666666666666</v>
       </c>
     </row>
     <row r="34">
@@ -1016,10 +1117,13 @@
         <v>123.5341835251</v>
       </c>
       <c r="D34" t="n">
-        <v>1.084317099197221</v>
+        <v>1.084317053273673</v>
       </c>
       <c r="E34" t="n">
         <v>630.8247547113712</v>
+      </c>
+      <c r="F34" t="n">
+        <v>764</v>
       </c>
     </row>
     <row r="35">
@@ -1033,10 +1137,13 @@
         <v>140.5775407041</v>
       </c>
       <c r="D35" t="n">
-        <v>1.059182171860789</v>
+        <v>1.059182120291749</v>
       </c>
       <c r="E35" t="n">
         <v>624.1662626708247</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1136.666666666667</v>
       </c>
     </row>
     <row r="36">
@@ -1050,10 +1157,13 @@
         <v>142.291076219</v>
       </c>
       <c r="D36" t="n">
-        <v>1.064223491013615</v>
+        <v>1.064223483778122</v>
       </c>
       <c r="E36" t="n">
         <v>618.2703330487351</v>
+      </c>
+      <c r="F36" t="n">
+        <v>448.6666666666667</v>
       </c>
     </row>
     <row r="37">
@@ -1067,10 +1177,13 @@
         <v>181.8313830769</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056656754153313</v>
+        <v>1.056656732089259</v>
       </c>
       <c r="E37" t="n">
         <v>609.1530750244527</v>
+      </c>
+      <c r="F37" t="n">
+        <v>951.6666666666666</v>
       </c>
     </row>
     <row r="38">
@@ -1084,10 +1197,13 @@
         <v>193.7594736742</v>
       </c>
       <c r="D38" t="n">
-        <v>1.06303468332393</v>
+        <v>1.063034670547801</v>
       </c>
       <c r="E38" t="n">
         <v>601.8113355104108</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1094.666666666667</v>
       </c>
     </row>
     <row r="39">
@@ -1101,10 +1217,13 @@
         <v>186.3269792592</v>
       </c>
       <c r="D39" t="n">
-        <v>1.080684625825307</v>
+        <v>1.080684618705786</v>
       </c>
       <c r="E39" t="n">
         <v>592.8273803545146</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1236.666666666667</v>
       </c>
     </row>
     <row r="40">
@@ -1118,10 +1237,13 @@
         <v>186.3135470666</v>
       </c>
       <c r="D40" t="n">
-        <v>1.073551215281153</v>
+        <v>1.073551162767841</v>
       </c>
       <c r="E40" t="n">
         <v>573.476457496888</v>
+      </c>
+      <c r="F40" t="n">
+        <v>952.6666666666666</v>
       </c>
     </row>
     <row r="41">
@@ -1135,10 +1257,13 @@
         <v>160.0936050048</v>
       </c>
       <c r="D41" t="n">
-        <v>1.065682856179289</v>
+        <v>1.065682851054179</v>
       </c>
       <c r="E41" t="n">
         <v>558.3395691948141</v>
+      </c>
+      <c r="F41" t="n">
+        <v>243.3333333333333</v>
       </c>
     </row>
     <row r="42">
@@ -1152,10 +1277,13 @@
         <v>162.091197848</v>
       </c>
       <c r="D42" t="n">
-        <v>1.08458476014789</v>
+        <v>1.084584758985451</v>
       </c>
       <c r="E42" t="n">
         <v>547.7824289124079</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.6666666666666666</v>
       </c>
     </row>
     <row r="43">
@@ -1169,10 +1297,13 @@
         <v>163.8151971473</v>
       </c>
       <c r="D43" t="n">
-        <v>1.106238466578923</v>
+        <v>1.106238463613817</v>
       </c>
       <c r="E43" t="n">
         <v>518.6747964593649</v>
+      </c>
+      <c r="F43" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="44">
@@ -1186,10 +1317,13 @@
         <v>170.9034233732</v>
       </c>
       <c r="D44" t="n">
-        <v>1.089097332906818</v>
+        <v>1.089097313521713</v>
       </c>
       <c r="E44" t="n">
         <v>506.4099203834671</v>
+      </c>
+      <c r="F44" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="45">
@@ -1203,10 +1337,13 @@
         <v>172.0475861919</v>
       </c>
       <c r="D45" t="n">
-        <v>1.096584415226114</v>
+        <v>1.096584313098211</v>
       </c>
       <c r="E45" t="n">
         <v>502.1344235626525</v>
+      </c>
+      <c r="F45" t="n">
+        <v>20.66666666666667</v>
       </c>
     </row>
     <row r="46">
@@ -1220,10 +1357,13 @@
         <v>182.348990435</v>
       </c>
       <c r="D46" t="n">
-        <v>1.059245727945827</v>
+        <v>1.05924567138982</v>
       </c>
       <c r="E46" t="n">
         <v>501.7156542694204</v>
+      </c>
+      <c r="F46" t="n">
+        <v>324.3333333333333</v>
       </c>
     </row>
     <row r="47">
@@ -1237,10 +1377,13 @@
         <v>180.263107876</v>
       </c>
       <c r="D47" t="n">
-        <v>1.098891558494744</v>
+        <v>1.098891561549431</v>
       </c>
       <c r="E47" t="n">
         <v>523.1245623767115</v>
+      </c>
+      <c r="F47" t="n">
+        <v>673.3333333333334</v>
       </c>
     </row>
     <row r="48">
@@ -1254,10 +1397,13 @@
         <v>161.6463439008</v>
       </c>
       <c r="D48" t="n">
-        <v>1.160269243478423</v>
+        <v>1.160269272668475</v>
       </c>
       <c r="E48" t="n">
         <v>533.5633031210981</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1310</v>
       </c>
     </row>
     <row r="49">
@@ -1271,10 +1417,13 @@
         <v>140.1905482232</v>
       </c>
       <c r="D49" t="n">
-        <v>1.071520810855984</v>
+        <v>1.071520727630094</v>
       </c>
       <c r="E49" t="n">
         <v>544.2545164642304</v>
+      </c>
+      <c r="F49" t="n">
+        <v>421.6666666666667</v>
       </c>
     </row>
     <row r="50">
@@ -1288,10 +1437,13 @@
         <v>135.7287678555</v>
       </c>
       <c r="D50" t="n">
-        <v>1.074079380531226</v>
+        <v>1.074079316251702</v>
       </c>
       <c r="E50" t="n">
         <v>545.3719995798655</v>
+      </c>
+      <c r="F50" t="n">
+        <v>874.3333333333334</v>
       </c>
     </row>
     <row r="51">
@@ -1305,10 +1457,13 @@
         <v>139.3616701555</v>
       </c>
       <c r="D51" t="n">
-        <v>1.093387269727925</v>
+        <v>1.093387188251337</v>
       </c>
       <c r="E51" t="n">
         <v>550.9911386361804</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1680</v>
       </c>
     </row>
     <row r="52">
@@ -1322,10 +1477,13 @@
         <v>139.209561989</v>
       </c>
       <c r="D52" t="n">
-        <v>1.079955445705823</v>
+        <v>1.079955396327815</v>
       </c>
       <c r="E52" t="n">
         <v>564.9545185165541</v>
+      </c>
+      <c r="F52" t="n">
+        <v>936.6666666666666</v>
       </c>
     </row>
     <row r="53">
@@ -1339,10 +1497,13 @@
         <v>137.2859506667</v>
       </c>
       <c r="D53" t="n">
-        <v>1.054132512716673</v>
+        <v>1.054132479622278</v>
       </c>
       <c r="E53" t="n">
         <v>562.42902785329</v>
+      </c>
+      <c r="F53" t="n">
+        <v>602.6666666666666</v>
       </c>
     </row>
     <row r="54">
@@ -1356,10 +1517,13 @@
         <v>140.9123768498</v>
       </c>
       <c r="D54" t="n">
-        <v>1.037250823565973</v>
+        <v>1.037250795920921</v>
       </c>
       <c r="E54" t="n">
         <v>562.020637146578</v>
+      </c>
+      <c r="F54" t="n">
+        <v>171.3333333333333</v>
       </c>
     </row>
     <row r="55">
@@ -1373,10 +1537,13 @@
         <v>152.0016724835</v>
       </c>
       <c r="D55" t="n">
-        <v>1.051440903564502</v>
+        <v>1.051440884333553</v>
       </c>
       <c r="E55" t="n">
         <v>565.8014193409705</v>
+      </c>
+      <c r="F55" t="n">
+        <v>8.666666666666666</v>
       </c>
     </row>
     <row r="56">
@@ -1390,10 +1557,13 @@
         <v>151.3248427489</v>
       </c>
       <c r="D56" t="n">
-        <v>1.048700366331034</v>
+        <v>1.048700356641092</v>
       </c>
       <c r="E56" t="n">
         <v>568.0498861048809</v>
+      </c>
+      <c r="F56" t="n">
+        <v>706</v>
       </c>
     </row>
     <row r="57">
@@ -1407,10 +1577,13 @@
         <v>157.0883425098</v>
       </c>
       <c r="D57" t="n">
-        <v>1.023084373057356</v>
+        <v>1.02308430465393</v>
       </c>
       <c r="E57" t="n">
         <v>563.8086251919267</v>
+      </c>
+      <c r="F57" t="n">
+        <v>75.33333333333333</v>
       </c>
     </row>
     <row r="58">
@@ -1424,10 +1597,13 @@
         <v>153.5868147414</v>
       </c>
       <c r="D58" t="n">
-        <v>1.026395077372467</v>
+        <v>1.026395037264663</v>
       </c>
       <c r="E58" t="n">
         <v>555.9619102879626</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1230.666666666667</v>
       </c>
     </row>
     <row r="59">
@@ -1441,10 +1617,13 @@
         <v>155.9215642752</v>
       </c>
       <c r="D59" t="n">
-        <v>1.010279896617748</v>
+        <v>1.010279896799989</v>
       </c>
       <c r="E59" t="n">
         <v>547.4368851730549</v>
+      </c>
+      <c r="F59" t="n">
+        <v>776</v>
       </c>
     </row>
     <row r="60">
@@ -1458,10 +1637,13 @@
         <v>150.7288020775</v>
       </c>
       <c r="D60" t="n">
-        <v>1.013453363333374</v>
+        <v>1.013453366458127</v>
       </c>
       <c r="E60" t="n">
         <v>538.7510675985881</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1781.333333333333</v>
       </c>
     </row>
     <row r="61">
@@ -1475,10 +1657,13 @@
         <v>173.9496336473</v>
       </c>
       <c r="D61" t="n">
-        <v>1.012415231809998</v>
+        <v>1.012415246317199</v>
       </c>
       <c r="E61" t="n">
         <v>525.9510093336593</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2542.666666666667</v>
       </c>
     </row>
     <row r="62">
@@ -1492,10 +1677,13 @@
         <v>170.5791316535</v>
       </c>
       <c r="D62" t="n">
-        <v>1.022767992926073</v>
+        <v>1.022768036172569</v>
       </c>
       <c r="E62" t="n">
         <v>514.7387677979538</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1805.666666666667</v>
       </c>
     </row>
     <row r="63">
@@ -1509,10 +1697,13 @@
         <v>165.6938072878</v>
       </c>
       <c r="D63" t="n">
-        <v>1.023452792458008</v>
+        <v>1.02345272900989</v>
       </c>
       <c r="E63" t="n">
         <v>504.5660563947691</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2460.333333333333</v>
       </c>
     </row>
     <row r="64">
@@ -1526,10 +1717,13 @@
         <v>171.8897310688</v>
       </c>
       <c r="D64" t="n">
-        <v>1.024214133391593</v>
+        <v>1.024214137105286</v>
       </c>
       <c r="E64" t="n">
         <v>492.9789126965372</v>
+      </c>
+      <c r="F64" t="n">
+        <v>723</v>
       </c>
     </row>
     <row r="65">
@@ -1543,10 +1737,13 @@
         <v>148.918618936</v>
       </c>
       <c r="D65" t="n">
-        <v>1.021786122334901</v>
+        <v>1.021786131828011</v>
       </c>
       <c r="E65" t="n">
         <v>485.2002426752821</v>
+      </c>
+      <c r="F65" t="n">
+        <v>815.6666666666666</v>
       </c>
     </row>
     <row r="66">
@@ -1560,10 +1757,13 @@
         <v>149.5174582884</v>
       </c>
       <c r="D66" t="n">
-        <v>1.027826191710288</v>
+        <v>1.027826240124295</v>
       </c>
       <c r="E66" t="n">
         <v>481.2517910120188</v>
+      </c>
+      <c r="F66" t="n">
+        <v>743.3333333333334</v>
       </c>
     </row>
     <row r="67">
@@ -1577,10 +1777,13 @@
         <v>145.7698352989</v>
       </c>
       <c r="D67" t="n">
-        <v>1.032163351225774</v>
+        <v>1.032163366033282</v>
       </c>
       <c r="E67" t="n">
         <v>479.8703160945579</v>
+      </c>
+      <c r="F67" t="n">
+        <v>158.6666666666667</v>
       </c>
     </row>
     <row r="68">
@@ -1594,10 +1797,13 @@
         <v>146.1466382102</v>
       </c>
       <c r="D68" t="n">
-        <v>1.021732102149251</v>
+        <v>1.021732161202176</v>
       </c>
       <c r="E68" t="n">
         <v>472.5815507600856</v>
+      </c>
+      <c r="F68" t="n">
+        <v>203.3333333333333</v>
       </c>
     </row>
     <row r="69">
@@ -1611,10 +1817,13 @@
         <v>153.5047454401</v>
       </c>
       <c r="D69" t="n">
-        <v>1.01832883615401</v>
+        <v>1.018328790775713</v>
       </c>
       <c r="E69" t="n">
         <v>467.7335454488931</v>
+      </c>
+      <c r="F69" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="70">
@@ -1628,10 +1837,13 @@
         <v>155.5545464904</v>
       </c>
       <c r="D70" t="n">
-        <v>1.020789349778793</v>
+        <v>1.02078936361187</v>
       </c>
       <c r="E70" t="n">
         <v>463.2294737523575</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1018.333333333333</v>
       </c>
     </row>
     <row r="71">
@@ -1645,10 +1857,13 @@
         <v>166.7440428783</v>
       </c>
       <c r="D71" t="n">
-        <v>1.010748562410888</v>
+        <v>1.010748560165463</v>
       </c>
       <c r="E71" t="n">
         <v>451.9025067893435</v>
+      </c>
+      <c r="F71" t="n">
+        <v>498.3333333333333</v>
       </c>
     </row>
     <row r="72">
@@ -1662,10 +1877,13 @@
         <v>181.82029647</v>
       </c>
       <c r="D72" t="n">
-        <v>1.018925320190869</v>
+        <v>1.018925298570821</v>
       </c>
       <c r="E72" t="n">
         <v>444.7256884045578</v>
+      </c>
+      <c r="F72" t="n">
+        <v>338.3333333333333</v>
       </c>
     </row>
     <row r="73">
@@ -1679,10 +1897,13 @@
         <v>197.4006931978</v>
       </c>
       <c r="D73" t="n">
-        <v>1.032053990103808</v>
+        <v>1.032054007761882</v>
       </c>
       <c r="E73" t="n">
         <v>438.9058001179923</v>
+      </c>
+      <c r="F73" t="n">
+        <v>990.6666666666666</v>
       </c>
     </row>
     <row r="74">
@@ -1696,10 +1917,13 @@
         <v>206.4129766154</v>
       </c>
       <c r="D74" t="n">
-        <v>1.042770689434429</v>
+        <v>1.042770711602794</v>
       </c>
       <c r="E74" t="n">
         <v>431.8615028537862</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1615.666666666667</v>
       </c>
     </row>
     <row r="75">
@@ -1713,10 +1937,13 @@
         <v>202.3160778605</v>
       </c>
       <c r="D75" t="n">
-        <v>1.055036908906848</v>
+        <v>1.055036934743852</v>
       </c>
       <c r="E75" t="n">
         <v>431.9483962177875</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1497</v>
       </c>
     </row>
     <row r="76">
@@ -1730,10 +1957,13 @@
         <v>214.2470565257</v>
       </c>
       <c r="D76" t="n">
-        <v>1.070818935846125</v>
+        <v>1.070818889862594</v>
       </c>
       <c r="E76" t="n">
         <v>423.8552017444736</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1014</v>
       </c>
     </row>
     <row r="77">
@@ -1747,10 +1977,13 @@
         <v>210.1541345613</v>
       </c>
       <c r="D77" t="n">
-        <v>1.071047777541778</v>
+        <v>1.071047767644823</v>
       </c>
       <c r="E77" t="n">
         <v>416.7426791846766</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1227</v>
       </c>
     </row>
     <row r="78">
@@ -1764,10 +1997,13 @@
         <v>210.1285295704</v>
       </c>
       <c r="D78" t="n">
-        <v>1.07948708389107</v>
+        <v>1.079487100015388</v>
       </c>
       <c r="E78" t="n">
         <v>412.8296565719826</v>
+      </c>
+      <c r="F78" t="n">
+        <v>706</v>
       </c>
     </row>
     <row r="79">
@@ -1781,10 +2017,13 @@
         <v>215.6139099863</v>
       </c>
       <c r="D79" t="n">
-        <v>1.063861896065127</v>
+        <v>1.063861910293381</v>
       </c>
       <c r="E79" t="n">
         <v>408.105189908835</v>
+      </c>
+      <c r="F79" t="n">
+        <v>278.3333333333333</v>
       </c>
     </row>
     <row r="80">
@@ -1798,10 +2037,13 @@
         <v>205.3831595192</v>
       </c>
       <c r="D80" t="n">
-        <v>1.037955195186896</v>
+        <v>1.037955182107491</v>
       </c>
       <c r="E80" t="n">
         <v>404.0963276967405</v>
+      </c>
+      <c r="F80" t="n">
+        <v>153.3333333333333</v>
       </c>
     </row>
     <row r="81">
@@ -1815,10 +2057,13 @@
         <v>207.8154605439</v>
       </c>
       <c r="D81" t="n">
-        <v>1.059850220711247</v>
+        <v>1.05985021450766</v>
       </c>
       <c r="E81" t="n">
         <v>399.9676177748471</v>
+      </c>
+      <c r="F81" t="n">
+        <v>46.66666666666666</v>
       </c>
     </row>
     <row r="82">
@@ -1832,10 +2077,13 @@
         <v>201.31178869</v>
       </c>
       <c r="D82" t="n">
-        <v>1.100928728264445</v>
+        <v>1.100928749262837</v>
       </c>
       <c r="E82" t="n">
         <v>397.7657333181857</v>
+      </c>
+      <c r="F82" t="n">
+        <v>236.6666666666667</v>
       </c>
     </row>
     <row r="83">
@@ -1849,10 +2097,13 @@
         <v>195.0626635955</v>
       </c>
       <c r="D83" t="n">
-        <v>1.125739422923184</v>
+        <v>1.125739426288569</v>
       </c>
       <c r="E83" t="n">
         <v>392.791976593322</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1406.666666666667</v>
       </c>
     </row>
     <row r="84">
@@ -1866,10 +2117,13 @@
         <v>201.3676376636</v>
       </c>
       <c r="D84" t="n">
-        <v>1.120103203349765</v>
+        <v>1.120103162369871</v>
       </c>
       <c r="E84" t="n">
         <v>392.1245231693302</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1060.666666666667</v>
       </c>
     </row>
     <row r="85">
@@ -1883,10 +2137,13 @@
         <v>198.2565221236</v>
       </c>
       <c r="D85" t="n">
-        <v>1.10871989563503</v>
+        <v>1.108719855713648</v>
       </c>
       <c r="E85" t="n">
         <v>387.5513372926274</v>
+      </c>
+      <c r="F85" t="n">
+        <v>276.3333333333333</v>
       </c>
     </row>
     <row r="86">
@@ -1900,10 +2157,13 @@
         <v>186.6769349668</v>
       </c>
       <c r="D86" t="n">
-        <v>1.085177831344219</v>
+        <v>1.085177823647517</v>
       </c>
       <c r="E86" t="n">
         <v>384.3975649751846</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1246</v>
       </c>
     </row>
     <row r="87">
@@ -1917,10 +2177,13 @@
         <v>195.1447175334</v>
       </c>
       <c r="D87" t="n">
-        <v>1.098405944255902</v>
+        <v>1.098405971420783</v>
       </c>
       <c r="E87" t="n">
         <v>381.3432729788826</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1918.666666666667</v>
       </c>
     </row>
     <row r="88">
@@ -1934,10 +2197,13 @@
         <v>205.225927747</v>
       </c>
       <c r="D88" t="n">
-        <v>1.153341547180228</v>
+        <v>1.153341532745297</v>
       </c>
       <c r="E88" t="n">
         <v>371.1240607203744</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1236.333333333333</v>
       </c>
     </row>
     <row r="89">
@@ -1951,10 +2217,13 @@
         <v>199.7228356079</v>
       </c>
       <c r="D89" t="n">
-        <v>1.246216519787838</v>
+        <v>1.246216532851895</v>
       </c>
       <c r="E89" t="n">
         <v>365.9712733958178</v>
+      </c>
+      <c r="F89" t="n">
+        <v>328</v>
       </c>
     </row>
     <row r="90">
@@ -1968,10 +2237,13 @@
         <v>192.5124765237</v>
       </c>
       <c r="D90" t="n">
-        <v>1.316152911470897</v>
+        <v>1.316152936454994</v>
       </c>
       <c r="E90" t="n">
         <v>364.6287983487944</v>
+      </c>
+      <c r="F90" t="n">
+        <v>911.6666666666666</v>
       </c>
     </row>
     <row r="91">
@@ -1985,10 +2257,13 @@
         <v>196.989803776</v>
       </c>
       <c r="D91" t="n">
-        <v>1.454609213098477</v>
+        <v>1.45460918887001</v>
       </c>
       <c r="E91" t="n">
         <v>362.9808236131435</v>
+      </c>
+      <c r="F91" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="92">
@@ -2002,10 +2277,13 @@
         <v>203.3923255862</v>
       </c>
       <c r="D92" t="n">
-        <v>1.494916655026662</v>
+        <v>1.494916663684819</v>
       </c>
       <c r="E92" t="n">
         <v>361.7485945582551</v>
+      </c>
+      <c r="F92" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="93">
@@ -2019,10 +2297,13 @@
         <v>205.7533664017</v>
       </c>
       <c r="D93" t="n">
-        <v>1.427120866495599</v>
+        <v>1.427120861221551</v>
       </c>
       <c r="E93" t="n">
         <v>361.1585495820009</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1329.666666666667</v>
       </c>
     </row>
     <row r="94">
@@ -2036,10 +2317,13 @@
         <v>199.634599845</v>
       </c>
       <c r="D94" t="n">
-        <v>1.361939394751849</v>
+        <v>1.361939348695949</v>
       </c>
       <c r="E94" t="n">
         <v>360.3194189322811</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1256</v>
       </c>
     </row>
     <row r="95">
@@ -2053,10 +2337,13 @@
         <v>204.0337772185</v>
       </c>
       <c r="D95" t="n">
-        <v>1.350810110865519</v>
+        <v>1.350810097136748</v>
       </c>
       <c r="E95" t="n">
         <v>358.9878088559767</v>
+      </c>
+      <c r="F95" t="n">
+        <v>3063.333333333333</v>
       </c>
     </row>
     <row r="96">
@@ -2070,10 +2357,13 @@
         <v>217.4668054759</v>
       </c>
       <c r="D96" t="n">
-        <v>1.435442171235051</v>
+        <v>1.435442239152058</v>
       </c>
       <c r="E96" t="n">
         <v>356.9350978245217</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1191.333333333333</v>
       </c>
     </row>
     <row r="97">
@@ -2087,10 +2377,13 @@
         <v>208.3937509702</v>
       </c>
       <c r="D97" t="n">
-        <v>1.371101381808491</v>
+        <v>1.371101340105533</v>
       </c>
       <c r="E97" t="n">
         <v>357.2040171348104</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2283</v>
       </c>
     </row>
     <row r="98">
@@ -2104,10 +2397,13 @@
         <v>202.2938870138</v>
       </c>
       <c r="D98" t="n">
-        <v>1.466709624007379</v>
+        <v>1.466709585373915</v>
       </c>
       <c r="E98" t="n">
         <v>354.6052756986052</v>
+      </c>
+      <c r="F98" t="n">
+        <v>472</v>
       </c>
     </row>
     <row r="99">
@@ -2121,10 +2417,13 @@
         <v>209.8478633025</v>
       </c>
       <c r="D99" t="n">
-        <v>1.553735734412327</v>
+        <v>1.553735649625988</v>
       </c>
       <c r="E99" t="n">
         <v>353.0464884695269</v>
+      </c>
+      <c r="F99" t="n">
+        <v>973.6666666666666</v>
       </c>
     </row>
     <row r="100">
@@ -2138,10 +2437,13 @@
         <v>223.2510257908</v>
       </c>
       <c r="D100" t="n">
-        <v>1.617659059021296</v>
+        <v>1.617659029627384</v>
       </c>
       <c r="E100" t="n">
         <v>352.464120303095</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1739.333333333333</v>
       </c>
     </row>
     <row r="101">
@@ -2155,10 +2457,13 @@
         <v>217.1188734551</v>
       </c>
       <c r="D101" t="n">
-        <v>1.69674224554362</v>
+        <v>1.696742264982894</v>
       </c>
       <c r="E101" t="n">
         <v>350.1366591274978</v>
+      </c>
+      <c r="F101" t="n">
+        <v>487.6666666666667</v>
       </c>
     </row>
     <row r="102">
@@ -2172,10 +2477,13 @@
         <v>214.9418045847</v>
       </c>
       <c r="D102" t="n">
-        <v>1.699782416502133</v>
+        <v>1.699782417301465</v>
       </c>
       <c r="E102" t="n">
         <v>350.1099313012716</v>
+      </c>
+      <c r="F102" t="n">
+        <v>939.3333333333334</v>
       </c>
     </row>
     <row r="103">
@@ -2189,10 +2497,13 @@
         <v>216.7153917889</v>
       </c>
       <c r="D103" t="n">
-        <v>1.520951111869391</v>
+        <v>1.520951127565234</v>
       </c>
       <c r="E103" t="n">
         <v>349.562384501665</v>
+      </c>
+      <c r="F103" t="n">
+        <v>183</v>
       </c>
     </row>
     <row r="104">
@@ -2206,10 +2517,13 @@
         <v>208.6258878321</v>
       </c>
       <c r="D104" t="n">
-        <v>1.5019020327323</v>
+        <v>1.501902016926496</v>
       </c>
       <c r="E104" t="n">
         <v>347.6517747527005</v>
+      </c>
+      <c r="F104" t="n">
+        <v>240.3333333333333</v>
       </c>
     </row>
     <row r="105">
@@ -2223,10 +2537,13 @@
         <v>193.9720525022</v>
       </c>
       <c r="D105" t="n">
-        <v>1.531467387496809</v>
+        <v>1.53146740807599</v>
       </c>
       <c r="E105" t="n">
         <v>350.0352475969843</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -2240,10 +2557,13 @@
         <v>186.1840016099</v>
       </c>
       <c r="D106" t="n">
-        <v>1.581378283586852</v>
+        <v>1.581378243104121</v>
       </c>
       <c r="E106" t="n">
         <v>352.7183689502377</v>
+      </c>
+      <c r="F106" t="n">
+        <v>249.3333333333333</v>
       </c>
     </row>
     <row r="107">
@@ -2257,10 +2577,13 @@
         <v>177.8676005644</v>
       </c>
       <c r="D107" t="n">
-        <v>1.568470253410553</v>
+        <v>1.568470266946591</v>
       </c>
       <c r="E107" t="n">
         <v>350.5353832716416</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1614</v>
       </c>
     </row>
     <row r="108">
@@ -2274,10 +2597,13 @@
         <v>181.6202811635</v>
       </c>
       <c r="D108" t="n">
-        <v>1.510148467677214</v>
+        <v>1.510148512971468</v>
       </c>
       <c r="E108" t="n">
         <v>351.7647452316163</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1580.666666666667</v>
       </c>
     </row>
     <row r="109">
@@ -2291,10 +2617,13 @@
         <v>184.8007431052</v>
       </c>
       <c r="D109" t="n">
-        <v>1.345348590616327</v>
+        <v>1.345348592478409</v>
       </c>
       <c r="E109" t="n">
         <v>359.1024601990819</v>
+      </c>
+      <c r="F109" t="n">
+        <v>716</v>
       </c>
     </row>
     <row r="110">
@@ -2308,10 +2637,13 @@
         <v>179.4711352326</v>
       </c>
       <c r="D110" t="n">
-        <v>1.445928613005136</v>
+        <v>1.445928594156136</v>
       </c>
       <c r="E110" t="n">
         <v>381.2626018289006</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1158.666666666667</v>
       </c>
     </row>
     <row r="111">
@@ -2325,10 +2657,13 @@
         <v>192.6927251224</v>
       </c>
       <c r="D111" t="n">
-        <v>1.400354867228155</v>
+        <v>1.40035484581954</v>
       </c>
       <c r="E111" t="n">
         <v>405.7865336234468</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2211.666666666667</v>
       </c>
     </row>
     <row r="112">
@@ -2342,10 +2677,13 @@
         <v>182.3746205986</v>
       </c>
       <c r="D112" t="n">
-        <v>1.297151619770047</v>
+        <v>1.297151639095191</v>
       </c>
       <c r="E112" t="n">
         <v>394.5723599398195</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1320.666666666667</v>
       </c>
     </row>
     <row r="113">
@@ -2359,10 +2697,13 @@
         <v>190.9524303839</v>
       </c>
       <c r="D113" t="n">
-        <v>1.225791878657406</v>
+        <v>1.225791913564234</v>
       </c>
       <c r="E113" t="n">
         <v>388.4788493130631</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1242.333333333333</v>
       </c>
     </row>
     <row r="114">
@@ -2376,10 +2717,13 @@
         <v>190.3609835637</v>
       </c>
       <c r="D114" t="n">
-        <v>1.291950891708223</v>
+        <v>1.29195088034771</v>
       </c>
       <c r="E114" t="n">
         <v>380.8923321651226</v>
+      </c>
+      <c r="F114" t="n">
+        <v>564</v>
       </c>
     </row>
     <row r="115">
@@ -2393,10 +2737,13 @@
         <v>192.0342965118</v>
       </c>
       <c r="D115" t="n">
-        <v>1.283811870050464</v>
+        <v>1.28381187740593</v>
       </c>
       <c r="E115" t="n">
         <v>377.090733837341</v>
+      </c>
+      <c r="F115" t="n">
+        <v>312</v>
       </c>
     </row>
     <row r="116">
@@ -2410,10 +2757,13 @@
         <v>189.3483572091</v>
       </c>
       <c r="D116" t="n">
-        <v>1.223521838627076</v>
+        <v>1.223521829951733</v>
       </c>
       <c r="E116" t="n">
         <v>370.0668711625977</v>
+      </c>
+      <c r="F116" t="n">
+        <v>334.6666666666667</v>
       </c>
     </row>
     <row r="117">
@@ -2427,10 +2777,13 @@
         <v>179.0354774472</v>
       </c>
       <c r="D117" t="n">
-        <v>1.382146652787877</v>
+        <v>1.382146654952377</v>
       </c>
       <c r="E117" t="n">
         <v>368.0691002343173</v>
+      </c>
+      <c r="F117" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="118">
@@ -2444,10 +2797,13 @@
         <v>168.3321748327</v>
       </c>
       <c r="D118" t="n">
-        <v>1.632849591318016</v>
+        <v>1.632849597269977</v>
       </c>
       <c r="E118" t="n">
         <v>363.1454796871697</v>
+      </c>
+      <c r="F118" t="n">
+        <v>680.3333333333334</v>
       </c>
     </row>
     <row r="119">
@@ -2461,10 +2817,13 @@
         <v>155.6499815001</v>
       </c>
       <c r="D119" t="n">
-        <v>1.60790683086285</v>
+        <v>1.60790683614515</v>
       </c>
       <c r="E119" t="n">
         <v>359.5034200754655</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1220.333333333333</v>
       </c>
     </row>
     <row r="120">
@@ -2478,10 +2837,13 @@
         <v>159.1792616867</v>
       </c>
       <c r="D120" t="n">
-        <v>1.449248427796082</v>
+        <v>1.449248418464737</v>
       </c>
       <c r="E120" t="n">
         <v>354.7643415768212</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1697.333333333333</v>
       </c>
     </row>
     <row r="121">
@@ -2495,10 +2857,13 @@
         <v>173.8419494353</v>
       </c>
       <c r="D121" t="n">
-        <v>1.344211758100748</v>
+        <v>1.344211722447934</v>
       </c>
       <c r="E121" t="n">
         <v>350.8724082149479</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1282.333333333333</v>
       </c>
     </row>
     <row r="122">
@@ -2512,10 +2877,13 @@
         <v>164.429179767</v>
       </c>
       <c r="D122" t="n">
-        <v>1.42023883272453</v>
+        <v>1.420238819966404</v>
       </c>
       <c r="E122" t="n">
         <v>346.4330034037985</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1696.666666666667</v>
       </c>
     </row>
     <row r="123">
@@ -2529,10 +2897,13 @@
         <v>166.4927851362</v>
       </c>
       <c r="D123" t="n">
-        <v>1.393717605196788</v>
+        <v>1.393717640926336</v>
       </c>
       <c r="E123" t="n">
         <v>344.2294777543905</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1144.666666666667</v>
       </c>
     </row>
     <row r="124">
@@ -2546,10 +2917,13 @@
         <v>160.910353397</v>
       </c>
       <c r="D124" t="n">
-        <v>1.357857154618364</v>
+        <v>1.357857131890408</v>
       </c>
       <c r="E124" t="n">
         <v>341.5911084661728</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1142.333333333333</v>
       </c>
     </row>
     <row r="125">
@@ -2563,10 +2937,13 @@
         <v>150.7878201931</v>
       </c>
       <c r="D125" t="n">
-        <v>1.346757323039809</v>
+        <v>1.346757319590134</v>
       </c>
       <c r="E125" t="n">
         <v>337.6717758039961</v>
+      </c>
+      <c r="F125" t="n">
+        <v>806.6666666666666</v>
       </c>
     </row>
     <row r="126">
@@ -2580,10 +2957,13 @@
         <v>144.593989716</v>
       </c>
       <c r="D126" t="n">
-        <v>1.325631548379323</v>
+        <v>1.325631562894396</v>
       </c>
       <c r="E126" t="n">
         <v>334.520513563616</v>
+      </c>
+      <c r="F126" t="n">
+        <v>918</v>
       </c>
     </row>
     <row r="127">
@@ -2597,10 +2977,13 @@
         <v>147.2275263778</v>
       </c>
       <c r="D127" t="n">
-        <v>1.334619072083842</v>
+        <v>1.334619090691568</v>
       </c>
       <c r="E127" t="n">
         <v>333.9345866945798</v>
+      </c>
+      <c r="F127" t="n">
+        <v>97.66666666666667</v>
       </c>
     </row>
     <row r="128">
@@ -2614,10 +2997,13 @@
         <v>146.1874820377</v>
       </c>
       <c r="D128" t="n">
-        <v>1.454057899717426</v>
+        <v>1.454057927038541</v>
       </c>
       <c r="E128" t="n">
         <v>330.3784709467117</v>
+      </c>
+      <c r="F128" t="n">
+        <v>661.3333333333334</v>
       </c>
     </row>
     <row r="129">
@@ -2631,10 +3017,13 @@
         <v>145.4336405534</v>
       </c>
       <c r="D129" t="n">
-        <v>1.461033506068207</v>
+        <v>1.461033508461941</v>
       </c>
       <c r="E129" t="n">
         <v>327.4510058870054</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1395</v>
       </c>
     </row>
     <row r="130">
@@ -2648,10 +3037,13 @@
         <v>141.9609696684</v>
       </c>
       <c r="D130" t="n">
-        <v>1.488373117864452</v>
+        <v>1.488373154935151</v>
       </c>
       <c r="E130" t="n">
         <v>325.088720870087</v>
+      </c>
+      <c r="F130" t="n">
+        <v>323.3333333333333</v>
       </c>
     </row>
     <row r="131">
@@ -2665,10 +3057,13 @@
         <v>135.0582479053</v>
       </c>
       <c r="D131" t="n">
-        <v>1.456060939926752</v>
+        <v>1.456060941602176</v>
       </c>
       <c r="E131" t="n">
         <v>323.7867058006855</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1031</v>
       </c>
     </row>
     <row r="132">
@@ -2682,10 +3077,13 @@
         <v>134.5039515598</v>
       </c>
       <c r="D132" t="n">
-        <v>1.493575213089465</v>
+        <v>1.493575228409688</v>
       </c>
       <c r="E132" t="n">
         <v>320.4656635208707</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1511.666666666667</v>
       </c>
     </row>
     <row r="133">
@@ -2699,10 +3097,13 @@
         <v>143.2464592038</v>
       </c>
       <c r="D133" t="n">
-        <v>1.325777144787322</v>
+        <v>1.325777148173949</v>
       </c>
       <c r="E133" t="n">
         <v>355.0448342915815</v>
+      </c>
+      <c r="F133" t="n">
+        <v>926.6666666666666</v>
       </c>
     </row>
     <row r="134">
@@ -2716,10 +3117,13 @@
         <v>135.384765279</v>
       </c>
       <c r="D134" t="n">
-        <v>1.034795563796869</v>
+        <v>1.034795560338205</v>
       </c>
       <c r="E134" t="n">
         <v>414.5451318700268</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="135">
@@ -2733,10 +3137,13 @@
         <v>141.0584776788</v>
       </c>
       <c r="D135" t="n">
-        <v>1.018633928431115</v>
+        <v>1.018633945229564</v>
       </c>
       <c r="E135" t="n">
         <v>433.4126368971382</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2699.333333333333</v>
       </c>
     </row>
     <row r="136">
@@ -2750,10 +3157,13 @@
         <v>139.191245193</v>
       </c>
       <c r="D136" t="n">
-        <v>0.9957191430548475</v>
+        <v>0.995719155478991</v>
       </c>
       <c r="E136" t="n">
         <v>428.2954219895062</v>
+      </c>
+      <c r="F136" t="n">
+        <v>347.3333333333333</v>
       </c>
     </row>
     <row r="137">
@@ -2767,10 +3177,13 @@
         <v>135.7639907085</v>
       </c>
       <c r="D137" t="n">
-        <v>0.9979249728530354</v>
+        <v>0.9979249628224599</v>
       </c>
       <c r="E137" t="n">
         <v>390.9002872513411</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2075.333333333333</v>
       </c>
     </row>
     <row r="138">
@@ -2784,10 +3197,13 @@
         <v>135.9112065112</v>
       </c>
       <c r="D138" t="n">
-        <v>0.9927711341263767</v>
+        <v>0.9927711215854426</v>
       </c>
       <c r="E138" t="n">
         <v>367.6813112883348</v>
+      </c>
+      <c r="F138" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="139">
@@ -2801,10 +3217,13 @@
         <v>140.9096978835</v>
       </c>
       <c r="D139" t="n">
-        <v>1.003430221371264</v>
+        <v>1.003430217755786</v>
       </c>
       <c r="E139" t="n">
         <v>358.0668061347932</v>
+      </c>
+      <c r="F139" t="n">
+        <v>651.6666666666666</v>
       </c>
     </row>
     <row r="140">
@@ -2818,10 +3237,13 @@
         <v>146.5101138363</v>
       </c>
       <c r="D140" t="n">
-        <v>1.005425859488856</v>
+        <v>1.005425843957403</v>
       </c>
       <c r="E140" t="n">
         <v>369.2591332758582</v>
+      </c>
+      <c r="F140" t="n">
+        <v>209.3333333333333</v>
       </c>
     </row>
     <row r="141">
@@ -2835,10 +3257,13 @@
         <v>144.8282905041</v>
       </c>
       <c r="D141" t="n">
-        <v>1.002527943969547</v>
+        <v>1.002527944603927</v>
       </c>
       <c r="E141" t="n">
         <v>365.8310329628155</v>
+      </c>
+      <c r="F141" t="n">
+        <v>144.6666666666667</v>
       </c>
     </row>
     <row r="142">
@@ -2852,10 +3277,13 @@
         <v>145.4147278355</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9993728633165193</v>
+        <v>0.9993728621321819</v>
       </c>
       <c r="E142" t="n">
         <v>367.5290150458704</v>
+      </c>
+      <c r="F142" t="n">
+        <v>276</v>
       </c>
     </row>
     <row r="143">
@@ -2869,10 +3297,13 @@
         <v>145.1147911978</v>
       </c>
       <c r="D143" t="n">
-        <v>0.9983107286702793</v>
+        <v>0.9983107377114238</v>
       </c>
       <c r="E143" t="n">
         <v>359.9867002675209</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1333</v>
       </c>
     </row>
     <row r="144">
@@ -2886,10 +3317,13 @@
         <v>145.2758828247</v>
       </c>
       <c r="D144" t="n">
-        <v>1.002838739548027</v>
+        <v>1.002838757119814</v>
       </c>
       <c r="E144" t="n">
         <v>357.324971681949</v>
+      </c>
+      <c r="F144" t="n">
+        <v>524.3333333333334</v>
       </c>
     </row>
     <row r="145">
@@ -2903,10 +3337,13 @@
         <v>146.9539622034</v>
       </c>
       <c r="D145" t="n">
-        <v>1.00274346102037</v>
+        <v>1.002743468163663</v>
       </c>
       <c r="E145" t="n">
         <v>365.1831796757126</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2232.333333333333</v>
       </c>
     </row>
     <row r="146">
@@ -2920,10 +3357,13 @@
         <v>138.6435212068</v>
       </c>
       <c r="D146" t="n">
-        <v>0.9945184335071078</v>
+        <v>0.9945184574576771</v>
       </c>
       <c r="E146" t="n">
         <v>360.7193460991386</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1750</v>
       </c>
     </row>
     <row r="147">
@@ -2937,10 +3377,13 @@
         <v>142.1039497685</v>
       </c>
       <c r="D147" t="n">
-        <v>1.000379015468885</v>
+        <v>1.000379009320433</v>
       </c>
       <c r="E147" t="n">
         <v>346.4592126988864</v>
+      </c>
+      <c r="F147" t="n">
+        <v>980</v>
       </c>
     </row>
     <row r="148">
@@ -2954,10 +3397,13 @@
         <v>144.5186187189</v>
       </c>
       <c r="D148" t="n">
-        <v>0.9980930799709781</v>
+        <v>0.9980930781957633</v>
       </c>
       <c r="E148" t="n">
         <v>336.951576618306</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1150</v>
       </c>
     </row>
     <row r="149">
@@ -2971,10 +3417,13 @@
         <v>148.4342171896</v>
       </c>
       <c r="D149" t="n">
-        <v>1.002453213108251</v>
+        <v>1.002453222139891</v>
       </c>
       <c r="E149" t="n">
         <v>324.0244744667826</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="150">
@@ -2988,10 +3437,13 @@
         <v>146.8521451495</v>
       </c>
       <c r="D150" t="n">
-        <v>1.004218889467775</v>
+        <v>1.004218881794071</v>
       </c>
       <c r="E150" t="n">
         <v>326.8243166537289</v>
+      </c>
+      <c r="F150" t="n">
+        <v>556.6666666666666</v>
       </c>
     </row>
     <row r="151">
@@ -3005,10 +3457,13 @@
         <v>145.8596257195</v>
       </c>
       <c r="D151" t="n">
-        <v>1.002279392243931</v>
+        <v>1.002279400777786</v>
       </c>
       <c r="E151" t="n">
         <v>331.5175254077674</v>
+      </c>
+      <c r="F151" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="152">
@@ -3022,10 +3477,13 @@
         <v>138.3825487929</v>
       </c>
       <c r="D152" t="n">
-        <v>1.000660338190305</v>
+        <v>1.00066036165352</v>
       </c>
       <c r="E152" t="n">
         <v>347.0213889264592</v>
+      </c>
+      <c r="F152" t="n">
+        <v>253.3333333333333</v>
       </c>
     </row>
     <row r="153">
@@ -3039,10 +3497,13 @@
         <v>134.8387506883</v>
       </c>
       <c r="D153" t="n">
-        <v>0.999638554301414</v>
+        <v>0.9996385541979377</v>
       </c>
       <c r="E153" t="n">
         <v>347.7117407618358</v>
+      </c>
+      <c r="F153" t="n">
+        <v>416.6666666666667</v>
       </c>
     </row>
     <row r="154">
@@ -3056,10 +3517,13 @@
         <v>136.7435899261</v>
       </c>
       <c r="D154" t="n">
-        <v>0.9977816066580123</v>
+        <v>0.9977816000997043</v>
       </c>
       <c r="E154" t="n">
         <v>338.0854671138705</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1376.666666666667</v>
       </c>
     </row>
     <row r="155">
@@ -3073,10 +3537,13 @@
         <v>131.660335037</v>
       </c>
       <c r="D155" t="n">
-        <v>0.9992004440495318</v>
+        <v>0.9992004295683748</v>
       </c>
       <c r="E155" t="n">
         <v>336.7373405739151</v>
+      </c>
+      <c r="F155" t="n">
+        <v>590</v>
       </c>
     </row>
     <row r="156">
@@ -3090,10 +3557,13 @@
         <v>136.4020915938</v>
       </c>
       <c r="D156" t="n">
-        <v>0.9985325816952912</v>
+        <v>0.9985325809499186</v>
       </c>
       <c r="E156" t="n">
         <v>333.2542277261889</v>
+      </c>
+      <c r="F156" t="n">
+        <v>526.6666666666666</v>
       </c>
     </row>
     <row r="157">
@@ -3107,10 +3577,13 @@
         <v>143.081828575</v>
       </c>
       <c r="D157" t="n">
-        <v>1.000156777914693</v>
+        <v>1.000156771342838</v>
       </c>
       <c r="E157" t="n">
         <v>325.61280606357</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1190</v>
       </c>
     </row>
     <row r="158">
@@ -3124,10 +3597,13 @@
         <v>138.0737630058</v>
       </c>
       <c r="D158" t="n">
-        <v>1.007674995153075</v>
+        <v>1.007675002244596</v>
       </c>
       <c r="E158" t="n">
         <v>344.2940610151575</v>
+      </c>
+      <c r="F158" t="n">
+        <v>360</v>
       </c>
     </row>
     <row r="159">
@@ -3141,10 +3617,13 @@
         <v>142.8112412456</v>
       </c>
       <c r="D159" t="n">
-        <v>1.00607662697321</v>
+        <v>1.00607662994354</v>
       </c>
       <c r="E159" t="n">
         <v>351.1174087962999</v>
+      </c>
+      <c r="F159" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="160">
@@ -3158,10 +3637,13 @@
         <v>154.4534755755</v>
       </c>
       <c r="D160" t="n">
-        <v>1.000544847697806</v>
+        <v>1.000544856793919</v>
       </c>
       <c r="E160" t="n">
         <v>350.0745988833639</v>
+      </c>
+      <c r="F160" t="n">
+        <v>413.3333333333333</v>
       </c>
     </row>
     <row r="161">
@@ -3175,10 +3657,13 @@
         <v>161.0560932758</v>
       </c>
       <c r="D161" t="n">
-        <v>1.002859349868578</v>
+        <v>1.002859335586453</v>
       </c>
       <c r="E161" t="n">
         <v>340.6470299908273</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2130</v>
       </c>
     </row>
     <row r="162">
@@ -3192,10 +3677,13 @@
         <v>168.3956005254</v>
       </c>
       <c r="D162" t="n">
-        <v>1.016139011432763</v>
+        <v>1.016138997459754</v>
       </c>
       <c r="E162" t="n">
         <v>386.1305283153117</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1456.666666666667</v>
       </c>
     </row>
     <row r="163">
@@ -3209,10 +3697,13 @@
         <v>160.4010901351</v>
       </c>
       <c r="D163" t="n">
-        <v>1.013449211760284</v>
+        <v>1.013449223081685</v>
       </c>
       <c r="E163" t="n">
         <v>421.3897218306379</v>
+      </c>
+      <c r="F163" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="164">
@@ -3226,10 +3717,13 @@
         <v>160.9645839535</v>
       </c>
       <c r="D164" t="n">
-        <v>0.9978790798350635</v>
+        <v>0.9978790767173188</v>
       </c>
       <c r="E164" t="n">
         <v>427.0859513385635</v>
+      </c>
+      <c r="F164" t="n">
+        <v>176.6666666666667</v>
       </c>
     </row>
     <row r="165">
@@ -3243,10 +3737,13 @@
         <v>152.7292424133</v>
       </c>
       <c r="D165" t="n">
-        <v>1.016975495656017</v>
+        <v>1.016975503598063</v>
       </c>
       <c r="E165" t="n">
         <v>442.4755941546487</v>
+      </c>
+      <c r="F165" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="166">
@@ -3260,10 +3757,13 @@
         <v>142.4662516407</v>
       </c>
       <c r="D166" t="n">
-        <v>1.010134000184917</v>
+        <v>1.010134010801955</v>
       </c>
       <c r="E166" t="n">
         <v>535.7341231588624</v>
+      </c>
+      <c r="F166" t="n">
+        <v>483.3333333333333</v>
       </c>
     </row>
     <row r="167">
@@ -3277,10 +3777,13 @@
         <v>135.3153848131</v>
       </c>
       <c r="D167" t="n">
-        <v>0.9972617610158687</v>
+        <v>0.9972617526348376</v>
       </c>
       <c r="E167" t="n">
         <v>493.3678873943958</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1010</v>
       </c>
     </row>
     <row r="168">
@@ -3294,10 +3797,13 @@
         <v>144.3228187149</v>
       </c>
       <c r="D168" t="n">
-        <v>1.002426875806023</v>
+        <v>1.002426862324923</v>
       </c>
       <c r="E168" t="n">
         <v>466.6583545056073</v>
+      </c>
+      <c r="F168" t="n">
+        <v>2053.333333333333</v>
       </c>
     </row>
     <row r="169">
@@ -3311,10 +3817,13 @@
         <v>146.6972182925</v>
       </c>
       <c r="D169" t="n">
-        <v>0.9996173925546673</v>
+        <v>0.99961739500598</v>
       </c>
       <c r="E169" t="n">
         <v>472.8862707598195</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1680</v>
       </c>
     </row>
     <row r="170">
@@ -3328,10 +3837,13 @@
         <v>147.5788426014</v>
       </c>
       <c r="D170" t="n">
-        <v>0.9966633936182704</v>
+        <v>0.9966633881506149</v>
       </c>
       <c r="E170" t="n">
         <v>454.8341239389438</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2053.333333333333</v>
       </c>
     </row>
     <row r="171">
@@ -3345,10 +3857,13 @@
         <v>157.6376691142</v>
       </c>
       <c r="D171" t="n">
-        <v>1.004607282241327</v>
+        <v>1.004607299694222</v>
       </c>
       <c r="E171" t="n">
         <v>448.7249913482054</v>
+      </c>
+      <c r="F171" t="n">
+        <v>920</v>
       </c>
     </row>
     <row r="172">
@@ -3362,10 +3877,13 @@
         <v>151.5566061869</v>
       </c>
       <c r="D172" t="n">
-        <v>1.007429704641769</v>
+        <v>1.007429691528866</v>
       </c>
       <c r="E172" t="n">
         <v>460.0096399254276</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1170</v>
       </c>
     </row>
     <row r="173">
@@ -3379,10 +3897,13 @@
         <v>147.4577264255</v>
       </c>
       <c r="D173" t="n">
-        <v>1.007527451907138</v>
+        <v>1.007527446243888</v>
       </c>
       <c r="E173" t="n">
         <v>464.7875963556147</v>
+      </c>
+      <c r="F173" t="n">
+        <v>823.3333333333334</v>
       </c>
     </row>
     <row r="174">
@@ -3396,10 +3917,13 @@
         <v>137.9552341849</v>
       </c>
       <c r="D174" t="n">
-        <v>1.004766183219923</v>
+        <v>1.004766168817047</v>
       </c>
       <c r="E174" t="n">
         <v>470.6966247764573</v>
+      </c>
+      <c r="F174" t="n">
+        <v>493.3333333333333</v>
       </c>
     </row>
     <row r="175">
@@ -3413,10 +3937,13 @@
         <v>144.6137047243</v>
       </c>
       <c r="D175" t="n">
-        <v>0.9969879742506078</v>
+        <v>0.9969879867089685</v>
       </c>
       <c r="E175" t="n">
         <v>447.6046202848125</v>
+      </c>
+      <c r="F175" t="n">
+        <v>416.6666666666667</v>
       </c>
     </row>
     <row r="176">
@@ -3430,10 +3957,13 @@
         <v>137.8984423664</v>
       </c>
       <c r="D176" t="n">
-        <v>1.002584024041498</v>
+        <v>1.002584039158853</v>
       </c>
       <c r="E176" t="n">
         <v>424.2409989741437</v>
+      </c>
+      <c r="F176" t="n">
+        <v>170</v>
       </c>
     </row>
     <row r="177">
@@ -3447,10 +3977,13 @@
         <v>135.910187801</v>
       </c>
       <c r="D177" t="n">
-        <v>1.032925784997099</v>
+        <v>1.032925777956627</v>
       </c>
       <c r="E177" t="n">
         <v>499.9593411353765</v>
+      </c>
+      <c r="F177" t="n">
+        <v>23.33333333333333</v>
       </c>
     </row>
     <row r="178">
@@ -3464,10 +3997,13 @@
         <v>136.3940916863</v>
       </c>
       <c r="D178" t="n">
-        <v>1.167496823933125</v>
+        <v>1.16749682181014</v>
       </c>
       <c r="E178" t="n">
         <v>514.4704796792096</v>
+      </c>
+      <c r="F178" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="179">
@@ -3481,10 +4017,13 @@
         <v>132.1430445459</v>
       </c>
       <c r="D179" t="n">
-        <v>1.237304988395168</v>
+        <v>1.237304995192239</v>
       </c>
       <c r="E179" t="n">
         <v>513.119234938259</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1386.666666666667</v>
       </c>
     </row>
     <row r="180">
@@ -3498,10 +4037,13 @@
         <v>133.9497205002</v>
       </c>
       <c r="D180" t="n">
-        <v>1.282764980298283</v>
+        <v>1.282764986644545</v>
       </c>
       <c r="E180" t="n">
         <v>503.1673423650483</v>
+      </c>
+      <c r="F180" t="n">
+        <v>820</v>
       </c>
     </row>
     <row r="181">
@@ -3515,10 +4057,13 @@
         <v>137.8112859093</v>
       </c>
       <c r="D181" t="n">
-        <v>1.250252538003289</v>
+        <v>1.250252550720409</v>
       </c>
       <c r="E181" t="n">
         <v>486.158910158095</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1426.666666666667</v>
       </c>
     </row>
     <row r="182">
@@ -3532,10 +4077,13 @@
         <v>141.0690453268</v>
       </c>
       <c r="D182" t="n">
-        <v>1.350418587863391</v>
+        <v>1.350418586207221</v>
       </c>
       <c r="E182" t="n">
         <v>476.4561754044082</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1226.666666666667</v>
       </c>
     </row>
     <row r="183">
@@ -3549,10 +4097,13 @@
         <v>145.3492343534</v>
       </c>
       <c r="D183" t="n">
-        <v>1.351050215160396</v>
+        <v>1.35105023522872</v>
       </c>
       <c r="E183" t="n">
         <v>477.3435296398897</v>
+      </c>
+      <c r="F183" t="n">
+        <v>980</v>
       </c>
     </row>
     <row r="184">
@@ -3566,10 +4117,13 @@
         <v>147.7953486541</v>
       </c>
       <c r="D184" t="n">
-        <v>1.380389026784156</v>
+        <v>1.380389002440955</v>
       </c>
       <c r="E184" t="n">
         <v>475.4137125724454</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1640</v>
       </c>
     </row>
     <row r="185">
@@ -3583,10 +4137,13 @@
         <v>143.3339504532</v>
       </c>
       <c r="D185" t="n">
-        <v>1.577503107365407</v>
+        <v>1.577503125983616</v>
       </c>
       <c r="E185" t="n">
         <v>486.5639003997288</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1010</v>
       </c>
     </row>
     <row r="186">
@@ -3600,10 +4157,13 @@
         <v>139.8446663251</v>
       </c>
       <c r="D186" t="n">
-        <v>1.749446720280519</v>
+        <v>1.749446720209706</v>
       </c>
       <c r="E186" t="n">
         <v>494.4829712518206</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -3617,10 +4177,13 @@
         <v>139.9656151425</v>
       </c>
       <c r="D187" t="n">
-        <v>1.619996877383609</v>
+        <v>1.619996882119591</v>
       </c>
       <c r="E187" t="n">
         <v>496.7483309819882</v>
+      </c>
+      <c r="F187" t="n">
+        <v>143.3333333333333</v>
       </c>
     </row>
     <row r="188">
@@ -3634,10 +4197,13 @@
         <v>140.0184415818</v>
       </c>
       <c r="D188" t="n">
-        <v>1.598982822976736</v>
+        <v>1.598982806728749</v>
       </c>
       <c r="E188" t="n">
         <v>500.7002921423674</v>
+      </c>
+      <c r="F188" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="189">
@@ -3651,10 +4217,13 @@
         <v>137.8217048395</v>
       </c>
       <c r="D189" t="n">
-        <v>1.749410654227077</v>
+        <v>1.74941064888037</v>
       </c>
       <c r="E189" t="n">
         <v>500.2876170198682</v>
+      </c>
+      <c r="F189" t="n">
+        <v>136.6666666666667</v>
       </c>
     </row>
     <row r="190">
@@ -3668,10 +4237,13 @@
         <v>137.3766968074</v>
       </c>
       <c r="D190" t="n">
-        <v>1.783289944805623</v>
+        <v>1.783289932304092</v>
       </c>
       <c r="E190" t="n">
         <v>499.159361360917</v>
+      </c>
+      <c r="F190" t="n">
+        <v>760</v>
       </c>
     </row>
     <row r="191">
@@ -3685,10 +4257,13 @@
         <v>135.562238574</v>
       </c>
       <c r="D191" t="n">
-        <v>2.08273183360153</v>
+        <v>2.082731826370667</v>
       </c>
       <c r="E191" t="n">
         <v>496.2689777854507</v>
+      </c>
+      <c r="F191" t="n">
+        <v>876.6666666666666</v>
       </c>
     </row>
     <row r="192">
@@ -3702,10 +4277,13 @@
         <v>148.0460658394</v>
       </c>
       <c r="D192" t="n">
-        <v>1.875373800993385</v>
+        <v>1.875373785831776</v>
       </c>
       <c r="E192" t="n">
         <v>495.3176965299291</v>
+      </c>
+      <c r="F192" t="n">
+        <v>666.6666666666666</v>
       </c>
     </row>
     <row r="193">
@@ -3719,10 +4297,13 @@
         <v>142.0730640543</v>
       </c>
       <c r="D193" t="n">
-        <v>1.727369122385848</v>
+        <v>1.72736916509811</v>
       </c>
       <c r="E193" t="n">
         <v>492.8531431491116</v>
+      </c>
+      <c r="F193" t="n">
+        <v>620</v>
       </c>
     </row>
     <row r="194">
@@ -3736,10 +4317,13 @@
         <v>155.6473941279</v>
       </c>
       <c r="D194" t="n">
-        <v>1.758838318335249</v>
+        <v>1.758838306423065</v>
       </c>
       <c r="E194" t="n">
         <v>492.1663312440962</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1576.666666666667</v>
       </c>
     </row>
     <row r="195">
@@ -3753,10 +4337,13 @@
         <v>156.7003385134</v>
       </c>
       <c r="D195" t="n">
-        <v>1.683175158717196</v>
+        <v>1.68317518032621</v>
       </c>
       <c r="E195" t="n">
         <v>490.466494331784</v>
+      </c>
+      <c r="F195" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="196">
@@ -3770,10 +4357,13 @@
         <v>164.1088884474</v>
       </c>
       <c r="D196" t="n">
-        <v>1.635245331346445</v>
+        <v>1.635245316781133</v>
       </c>
       <c r="E196" t="n">
         <v>480.9168244469323</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1173.333333333333</v>
       </c>
     </row>
     <row r="197">
@@ -3787,10 +4377,13 @@
         <v>174.9677390726</v>
       </c>
       <c r="D197" t="n">
-        <v>1.62634843561919</v>
+        <v>1.626348424553727</v>
       </c>
       <c r="E197" t="n">
         <v>470.602334878832</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1600</v>
       </c>
     </row>
     <row r="198">
@@ -3804,10 +4397,13 @@
         <v>185.3644718773</v>
       </c>
       <c r="D198" t="n">
-        <v>1.701072943865933</v>
+        <v>1.701072928642598</v>
       </c>
       <c r="E198" t="n">
         <v>462.2299030352855</v>
+      </c>
+      <c r="F198" t="n">
+        <v>566.6666666666666</v>
       </c>
     </row>
     <row r="199">
@@ -3821,10 +4417,13 @@
         <v>184.6540613205</v>
       </c>
       <c r="D199" t="n">
-        <v>1.745681927115172</v>
+        <v>1.745681907258749</v>
       </c>
       <c r="E199" t="n">
         <v>453.506759157495</v>
+      </c>
+      <c r="F199" t="n">
+        <v>13.33333333333333</v>
       </c>
     </row>
     <row r="200">
@@ -3838,10 +4437,13 @@
         <v>185.7836870682</v>
       </c>
       <c r="D200" t="n">
-        <v>1.831654576909976</v>
+        <v>1.831654548312204</v>
       </c>
       <c r="E200" t="n">
         <v>444.8679117618808</v>
+      </c>
+      <c r="F200" t="n">
+        <v>233.3333333333333</v>
       </c>
     </row>
     <row r="201">
@@ -3855,10 +4457,13 @@
         <v>187.1827594212</v>
       </c>
       <c r="D201" t="n">
-        <v>1.822719142384895</v>
+        <v>1.822719114719638</v>
       </c>
       <c r="E201" t="n">
         <v>438.6095151936342</v>
+      </c>
+      <c r="F201" t="n">
+        <v>193.3333333333333</v>
       </c>
     </row>
     <row r="202">
@@ -3872,10 +4477,13 @@
         <v>188.1599264358</v>
       </c>
       <c r="D202" t="n">
-        <v>1.86407697782048</v>
+        <v>1.864076982372585</v>
       </c>
       <c r="E202" t="n">
         <v>428.1713117924115</v>
+      </c>
+      <c r="F202" t="n">
+        <v>590</v>
       </c>
     </row>
     <row r="203">
@@ -3889,10 +4497,13 @@
         <v>188.1761753641</v>
       </c>
       <c r="D203" t="n">
-        <v>1.978365918901387</v>
+        <v>1.978365908927807</v>
       </c>
       <c r="E203" t="n">
         <v>417.600642945397</v>
+      </c>
+      <c r="F203" t="n">
+        <v>530</v>
       </c>
     </row>
     <row r="204">
@@ -3906,10 +4517,13 @@
         <v>190.5256523428</v>
       </c>
       <c r="D204" t="n">
-        <v>2.147896024151245</v>
+        <v>2.147896023391025</v>
       </c>
       <c r="E204" t="n">
         <v>411.9624211958607</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1256.666666666667</v>
       </c>
     </row>
     <row r="205">
@@ -3923,10 +4537,13 @@
         <v>187.4100832948</v>
       </c>
       <c r="D205" t="n">
-        <v>2.048525182646594</v>
+        <v>2.048525188440228</v>
       </c>
       <c r="E205" t="n">
         <v>402.882580618492</v>
+      </c>
+      <c r="F205" t="n">
+        <v>256.6666666666667</v>
       </c>
     </row>
     <row r="206">
@@ -3940,10 +4557,13 @@
         <v>194.3915969711</v>
       </c>
       <c r="D206" t="n">
-        <v>2.063874776751268</v>
+        <v>2.063874788934404</v>
       </c>
       <c r="E206" t="n">
         <v>395.4912875436022</v>
+      </c>
+      <c r="F206" t="n">
+        <v>876.6666666666666</v>
       </c>
     </row>
     <row r="207">
@@ -3957,10 +4577,13 @@
         <v>193.1383497149</v>
       </c>
       <c r="D207" t="n">
-        <v>1.994770747016831</v>
+        <v>1.994770765117843</v>
       </c>
       <c r="E207" t="n">
         <v>386.552559170627</v>
+      </c>
+      <c r="F207" t="n">
+        <v>946.6666666666666</v>
       </c>
     </row>
     <row r="208">
@@ -3974,10 +4597,13 @@
         <v>199.228030608</v>
       </c>
       <c r="D208" t="n">
-        <v>1.79399017129914</v>
+        <v>1.793990140378492</v>
       </c>
       <c r="E208" t="n">
         <v>372.6726540245202</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1330</v>
       </c>
     </row>
     <row r="209">
@@ -3991,10 +4617,13 @@
         <v>206.5923030757</v>
       </c>
       <c r="D209" t="n">
-        <v>1.727361346715564</v>
+        <v>1.727361302220139</v>
       </c>
       <c r="E209" t="n">
         <v>363.7727747954779</v>
+      </c>
+      <c r="F209" t="n">
+        <v>606.6666666666666</v>
       </c>
     </row>
     <row r="210">
@@ -4008,10 +4637,13 @@
         <v>209.2338967548</v>
       </c>
       <c r="D210" t="n">
-        <v>1.779156403376914</v>
+        <v>1.779156429225645</v>
       </c>
       <c r="E210" t="n">
         <v>359.9804030306876</v>
+      </c>
+      <c r="F210" t="n">
+        <v>53.33333333333334</v>
       </c>
     </row>
     <row r="211">
@@ -4025,10 +4657,13 @@
         <v>212.8626334362</v>
       </c>
       <c r="D211" t="n">
-        <v>1.885824344325488</v>
+        <v>1.885824360933724</v>
       </c>
       <c r="E211" t="n">
         <v>356.2150589224042</v>
+      </c>
+      <c r="F211" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="212">
@@ -4042,10 +4677,13 @@
         <v>208.8677346172</v>
       </c>
       <c r="D212" t="n">
-        <v>2.355275981539175</v>
+        <v>2.355275952498482</v>
       </c>
       <c r="E212" t="n">
         <v>346.5236294323954</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -4059,10 +4697,13 @@
         <v>200.9592956371</v>
       </c>
       <c r="D213" t="n">
-        <v>2.149003400316718</v>
+        <v>2.149003355784924</v>
       </c>
       <c r="E213" t="n">
         <v>341.4498281168909</v>
+      </c>
+      <c r="F213" t="n">
+        <v>146.6666666666667</v>
       </c>
     </row>
     <row r="214">
@@ -4076,10 +4717,13 @@
         <v>204.8835771</v>
       </c>
       <c r="D214" t="n">
-        <v>2.071032494755451</v>
+        <v>2.071032554687605</v>
       </c>
       <c r="E214" t="n">
         <v>340.484955711179</v>
+      </c>
+      <c r="F214" t="n">
+        <v>106.6666666666667</v>
       </c>
     </row>
     <row r="215">
@@ -4093,10 +4737,13 @@
         <v>205.8768221955</v>
       </c>
       <c r="D215" t="n">
-        <v>2.022583739491584</v>
+        <v>2.022583746985898</v>
       </c>
       <c r="E215" t="n">
         <v>340.2168276810844</v>
+      </c>
+      <c r="F215" t="n">
+        <v>543.3333333333334</v>
       </c>
     </row>
     <row r="216">
@@ -4110,10 +4757,13 @@
         <v>203.93846421</v>
       </c>
       <c r="D216" t="n">
-        <v>1.958167512914935</v>
+        <v>1.958167556829184</v>
       </c>
       <c r="E216" t="n">
         <v>345.2883733089809</v>
+      </c>
+      <c r="F216" t="n">
+        <v>670</v>
       </c>
     </row>
     <row r="217">
@@ -4127,10 +4777,13 @@
         <v>197.8467812295</v>
       </c>
       <c r="D217" t="n">
-        <v>1.937934747793845</v>
+        <v>1.937934760095841</v>
       </c>
       <c r="E217" t="n">
         <v>349.5730368290824</v>
+      </c>
+      <c r="F217" t="n">
+        <v>356.6666666666667</v>
       </c>
     </row>
     <row r="218">
@@ -4144,10 +4797,13 @@
         <v>201.9736410755</v>
       </c>
       <c r="D218" t="n">
-        <v>1.936749452853858</v>
+        <v>1.936749458155872</v>
       </c>
       <c r="E218" t="n">
         <v>348.2323057777231</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1106.666666666667</v>
       </c>
     </row>
     <row r="219">
@@ -4161,10 +4817,13 @@
         <v>198.2450262127</v>
       </c>
       <c r="D219" t="n">
-        <v>1.916996645445941</v>
+        <v>1.916996642715633</v>
       </c>
       <c r="E219" t="n">
         <v>343.9769295713716</v>
+      </c>
+      <c r="F219" t="n">
+        <v>263.3333333333333</v>
       </c>
     </row>
     <row r="220">
@@ -4178,10 +4837,13 @@
         <v>209.3447244532</v>
       </c>
       <c r="D220" t="n">
-        <v>1.922943210299356</v>
+        <v>1.922943216305357</v>
       </c>
       <c r="E220" t="n">
         <v>337.9115815664688</v>
+      </c>
+      <c r="F220" t="n">
+        <v>920</v>
       </c>
     </row>
     <row r="221">
@@ -4195,10 +4857,13 @@
         <v>208.1155570891</v>
       </c>
       <c r="D221" t="n">
-        <v>1.971763929429094</v>
+        <v>1.971763896762767</v>
       </c>
       <c r="E221" t="n">
         <v>331.4847999305424</v>
+      </c>
+      <c r="F221" t="n">
+        <v>286.6666666666667</v>
       </c>
     </row>
     <row r="222">
@@ -4212,10 +4877,13 @@
         <v>200.2367213736</v>
       </c>
       <c r="D222" t="n">
-        <v>2.056723880648598</v>
+        <v>2.056723855421994</v>
       </c>
       <c r="E222" t="n">
         <v>329.1367174893364</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1063.333333333333</v>
       </c>
     </row>
     <row r="223">
@@ -4229,10 +4897,13 @@
         <v>203.8257464652</v>
       </c>
       <c r="D223" t="n">
-        <v>2.034506148123501</v>
+        <v>2.034506144145559</v>
       </c>
       <c r="E223" t="n">
         <v>334.335871150043</v>
+      </c>
+      <c r="F223" t="n">
+        <v>23.33333333333333</v>
       </c>
     </row>
     <row r="224">
@@ -4246,10 +4917,13 @@
         <v>189.7389362718</v>
       </c>
       <c r="D224" t="n">
-        <v>2.0082567168728</v>
+        <v>2.008256720864314</v>
       </c>
       <c r="E224" t="n">
         <v>336.2349093699295</v>
+      </c>
+      <c r="F224" t="n">
+        <v>320</v>
       </c>
     </row>
     <row r="225">
@@ -4268,6 +4942,9 @@
       <c r="E225" t="n">
         <v>360.7244098241261</v>
       </c>
+      <c r="F225" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -4284,6 +4961,9 @@
       </c>
       <c r="E226" t="n">
         <v>350.0268394833519</v>
+      </c>
+      <c r="F226" t="n">
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -447,22 +447,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>primary_products_price_index</t>
+          <t>pi</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>exchange_rate_gap</t>
+          <t>gap</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>exchange_rate_today_prices</t>
+          <t>er_cp</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>precipitations</t>
+          <t>pre</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <v>38383</v>
       </c>
       <c r="B2" t="n">
-        <v>508020737.4</v>
+        <v>508.0207374</v>
       </c>
       <c r="C2" t="n">
         <v>86.8660262309</v>
@@ -491,7 +491,7 @@
         <v>38411</v>
       </c>
       <c r="B3" t="n">
-        <v>500539941.36</v>
+        <v>500.53994136</v>
       </c>
       <c r="C3" t="n">
         <v>87.9074492199</v>
@@ -511,7 +511,7 @@
         <v>38442</v>
       </c>
       <c r="B4" t="n">
-        <v>656181802.29</v>
+        <v>656.18180229</v>
       </c>
       <c r="C4" t="n">
         <v>86.22652454919999</v>
@@ -531,7 +531,7 @@
         <v>38472</v>
       </c>
       <c r="B5" t="n">
-        <v>939064906.89</v>
+        <v>939.06490689</v>
       </c>
       <c r="C5" t="n">
         <v>87.96444951710001</v>
@@ -551,7 +551,7 @@
         <v>38503</v>
       </c>
       <c r="B6" t="n">
-        <v>1028823820.1</v>
+        <v>1028.8238201</v>
       </c>
       <c r="C6" t="n">
         <v>89.117151552</v>
@@ -571,7 +571,7 @@
         <v>38533</v>
       </c>
       <c r="B7" t="n">
-        <v>789549108.3099999</v>
+        <v>789.54910831</v>
       </c>
       <c r="C7" t="n">
         <v>94.71839893090001</v>
@@ -591,7 +591,7 @@
         <v>38564</v>
       </c>
       <c r="B8" t="n">
-        <v>831763218.02</v>
+        <v>831.76321802</v>
       </c>
       <c r="C8" t="n">
         <v>92.2844463265</v>
@@ -611,7 +611,7 @@
         <v>38595</v>
       </c>
       <c r="B9" t="n">
-        <v>771052814.66</v>
+        <v>771.05281466</v>
       </c>
       <c r="C9" t="n">
         <v>98.7654822592</v>
@@ -631,7 +631,7 @@
         <v>38625</v>
       </c>
       <c r="B10" t="n">
-        <v>577047006.9299999</v>
+        <v>577.04700693</v>
       </c>
       <c r="C10" t="n">
         <v>97.55007141439999</v>
@@ -651,7 +651,7 @@
         <v>38656</v>
       </c>
       <c r="B11" t="n">
-        <v>433101676.53</v>
+        <v>433.10167653</v>
       </c>
       <c r="C11" t="n">
         <v>100.2158808295</v>
@@ -671,7 +671,7 @@
         <v>38686</v>
       </c>
       <c r="B12" t="n">
-        <v>363846843.87</v>
+        <v>363.84684387</v>
       </c>
       <c r="C12" t="n">
         <v>98.57635495940001</v>
@@ -691,7 +691,7 @@
         <v>38717</v>
       </c>
       <c r="B13" t="n">
-        <v>711260924.62</v>
+        <v>711.26092462</v>
       </c>
       <c r="C13" t="n">
         <v>118.9077642111</v>
@@ -711,7 +711,7 @@
         <v>38748</v>
       </c>
       <c r="B14" t="n">
-        <v>575222070.25</v>
+        <v>575.22207025</v>
       </c>
       <c r="C14" t="n">
         <v>96.97922536740001</v>
@@ -731,7 +731,7 @@
         <v>38776</v>
       </c>
       <c r="B15" t="n">
-        <v>566794332.35</v>
+        <v>566.79433235</v>
       </c>
       <c r="C15" t="n">
         <v>111.7391453039</v>
@@ -751,7 +751,7 @@
         <v>38807</v>
       </c>
       <c r="B16" t="n">
-        <v>704605050.74</v>
+        <v>704.60505074</v>
       </c>
       <c r="C16" t="n">
         <v>102.6816293286</v>
@@ -771,7 +771,7 @@
         <v>38837</v>
       </c>
       <c r="B17" t="n">
-        <v>971140948.62</v>
+        <v>971.14094862</v>
       </c>
       <c r="C17" t="n">
         <v>96.8883507728</v>
@@ -791,7 +791,7 @@
         <v>38868</v>
       </c>
       <c r="B18" t="n">
-        <v>919805311.45</v>
+        <v>919.8053114500001</v>
       </c>
       <c r="C18" t="n">
         <v>105.6117573661</v>
@@ -811,7 +811,7 @@
         <v>38898</v>
       </c>
       <c r="B19" t="n">
-        <v>760266698.1</v>
+        <v>760.2666981</v>
       </c>
       <c r="C19" t="n">
         <v>106.1998918611</v>
@@ -831,7 +831,7 @@
         <v>38929</v>
       </c>
       <c r="B20" t="n">
-        <v>629395930.73</v>
+        <v>629.39593073</v>
       </c>
       <c r="C20" t="n">
         <v>110.733798123</v>
@@ -851,7 +851,7 @@
         <v>38960</v>
       </c>
       <c r="B21" t="n">
-        <v>808958682.75</v>
+        <v>808.95868275</v>
       </c>
       <c r="C21" t="n">
         <v>115.034316759</v>
@@ -871,7 +871,7 @@
         <v>38990</v>
       </c>
       <c r="B22" t="n">
-        <v>606158239.0700001</v>
+        <v>606.15823907</v>
       </c>
       <c r="C22" t="n">
         <v>108.731885118</v>
@@ -891,7 +891,7 @@
         <v>39021</v>
       </c>
       <c r="B23" t="n">
-        <v>709996617.21</v>
+        <v>709.9966172100001</v>
       </c>
       <c r="C23" t="n">
         <v>114.3777850819</v>
@@ -911,7 +911,7 @@
         <v>39051</v>
       </c>
       <c r="B24" t="n">
-        <v>685784366.66</v>
+        <v>685.7843666599999</v>
       </c>
       <c r="C24" t="n">
         <v>126.1586112487</v>
@@ -931,7 +931,7 @@
         <v>39082</v>
       </c>
       <c r="B25" t="n">
-        <v>686993642.33</v>
+        <v>686.9936423300001</v>
       </c>
       <c r="C25" t="n">
         <v>127.5636036694</v>
@@ -951,7 +951,7 @@
         <v>39113</v>
       </c>
       <c r="B26" t="n">
-        <v>608585972.39</v>
+        <v>608.5859723899999</v>
       </c>
       <c r="C26" t="n">
         <v>130.1704293814</v>
@@ -971,7 +971,7 @@
         <v>39141</v>
       </c>
       <c r="B27" t="n">
-        <v>640862915.0599999</v>
+        <v>640.86291506</v>
       </c>
       <c r="C27" t="n">
         <v>131.1333276084</v>
@@ -991,7 +991,7 @@
         <v>39172</v>
       </c>
       <c r="B28" t="n">
-        <v>905289614.78</v>
+        <v>905.28961478</v>
       </c>
       <c r="C28" t="n">
         <v>122.0962430102</v>
@@ -1011,7 +1011,7 @@
         <v>39202</v>
       </c>
       <c r="B29" t="n">
-        <v>1166636569.4</v>
+        <v>1166.6365694</v>
       </c>
       <c r="C29" t="n">
         <v>109.8044250782</v>
@@ -1031,7 +1031,7 @@
         <v>39233</v>
       </c>
       <c r="B30" t="n">
-        <v>1261293128.1</v>
+        <v>1261.2931281</v>
       </c>
       <c r="C30" t="n">
         <v>114.6213866563</v>
@@ -1051,7 +1051,7 @@
         <v>39263</v>
       </c>
       <c r="B31" t="n">
-        <v>1106306217.7</v>
+        <v>1106.3062177</v>
       </c>
       <c r="C31" t="n">
         <v>125.6741882655</v>
@@ -1071,7 +1071,7 @@
         <v>39294</v>
       </c>
       <c r="B32" t="n">
-        <v>1123549888.5</v>
+        <v>1123.5498885</v>
       </c>
       <c r="C32" t="n">
         <v>126.854771419</v>
@@ -1091,7 +1091,7 @@
         <v>39325</v>
       </c>
       <c r="B33" t="n">
-        <v>1156177441.6</v>
+        <v>1156.1774416</v>
       </c>
       <c r="C33" t="n">
         <v>121.611045056</v>
@@ -1111,7 +1111,7 @@
         <v>39355</v>
       </c>
       <c r="B34" t="n">
-        <v>1092069190.9</v>
+        <v>1092.0691909</v>
       </c>
       <c r="C34" t="n">
         <v>123.5341835251</v>
@@ -1131,7 +1131,7 @@
         <v>39386</v>
       </c>
       <c r="B35" t="n">
-        <v>1196787391.1</v>
+        <v>1196.7873911</v>
       </c>
       <c r="C35" t="n">
         <v>140.5775407041</v>
@@ -1151,7 +1151,7 @@
         <v>39416</v>
       </c>
       <c r="B36" t="n">
-        <v>1002396388.4</v>
+        <v>1002.3963884</v>
       </c>
       <c r="C36" t="n">
         <v>142.291076219</v>
@@ -1171,7 +1171,7 @@
         <v>39447</v>
       </c>
       <c r="B37" t="n">
-        <v>1225072803.7</v>
+        <v>1225.0728037</v>
       </c>
       <c r="C37" t="n">
         <v>181.8313830769</v>
@@ -1191,7 +1191,7 @@
         <v>39478</v>
       </c>
       <c r="B38" t="n">
-        <v>1612594010.9</v>
+        <v>1612.5940109</v>
       </c>
       <c r="C38" t="n">
         <v>193.7594736742</v>
@@ -1211,7 +1211,7 @@
         <v>39507</v>
       </c>
       <c r="B39" t="n">
-        <v>1181705717.2</v>
+        <v>1181.7057172</v>
       </c>
       <c r="C39" t="n">
         <v>186.3269792592</v>
@@ -1231,7 +1231,7 @@
         <v>39538</v>
       </c>
       <c r="B40" t="n">
-        <v>1034224825</v>
+        <v>1034.224825</v>
       </c>
       <c r="C40" t="n">
         <v>186.3135470666</v>
@@ -1251,7 +1251,7 @@
         <v>39568</v>
       </c>
       <c r="B41" t="n">
-        <v>1553891942.6</v>
+        <v>1553.8919426</v>
       </c>
       <c r="C41" t="n">
         <v>160.0936050048</v>
@@ -1271,7 +1271,7 @@
         <v>39599</v>
       </c>
       <c r="B42" t="n">
-        <v>1652406669.9</v>
+        <v>1652.4066699</v>
       </c>
       <c r="C42" t="n">
         <v>162.091197848</v>
@@ -1291,7 +1291,7 @@
         <v>39629</v>
       </c>
       <c r="B43" t="n">
-        <v>1443351944.3</v>
+        <v>1443.3519443</v>
       </c>
       <c r="C43" t="n">
         <v>163.8151971473</v>
@@ -1311,7 +1311,7 @@
         <v>39660</v>
       </c>
       <c r="B44" t="n">
-        <v>2096313617.5</v>
+        <v>2096.3136175</v>
       </c>
       <c r="C44" t="n">
         <v>170.9034233732</v>
@@ -1331,7 +1331,7 @@
         <v>39691</v>
       </c>
       <c r="B45" t="n">
-        <v>1723167458</v>
+        <v>1723.167458</v>
       </c>
       <c r="C45" t="n">
         <v>172.0475861919</v>
@@ -1351,7 +1351,7 @@
         <v>39721</v>
       </c>
       <c r="B46" t="n">
-        <v>1434875756.9</v>
+        <v>1434.8757569</v>
       </c>
       <c r="C46" t="n">
         <v>182.348990435</v>
@@ -1371,7 +1371,7 @@
         <v>39752</v>
       </c>
       <c r="B47" t="n">
-        <v>1114987855.6</v>
+        <v>1114.9878556</v>
       </c>
       <c r="C47" t="n">
         <v>180.263107876</v>
@@ -1391,7 +1391,7 @@
         <v>39782</v>
       </c>
       <c r="B48" t="n">
-        <v>700756041.54</v>
+        <v>700.75604154</v>
       </c>
       <c r="C48" t="n">
         <v>161.6463439008</v>
@@ -1411,7 +1411,7 @@
         <v>39813</v>
       </c>
       <c r="B49" t="n">
-        <v>653161890.08</v>
+        <v>653.16189008</v>
       </c>
       <c r="C49" t="n">
         <v>140.1905482232</v>
@@ -1431,7 +1431,7 @@
         <v>39844</v>
       </c>
       <c r="B50" t="n">
-        <v>708213894.21</v>
+        <v>708.21389421</v>
       </c>
       <c r="C50" t="n">
         <v>135.7287678555</v>
@@ -1451,7 +1451,7 @@
         <v>39872</v>
       </c>
       <c r="B51" t="n">
-        <v>687539608.52</v>
+        <v>687.53960852</v>
       </c>
       <c r="C51" t="n">
         <v>139.3616701555</v>
@@ -1471,7 +1471,7 @@
         <v>39903</v>
       </c>
       <c r="B52" t="n">
-        <v>842279507.79</v>
+        <v>842.2795077899999</v>
       </c>
       <c r="C52" t="n">
         <v>139.209561989</v>
@@ -1491,7 +1491,7 @@
         <v>39933</v>
       </c>
       <c r="B53" t="n">
-        <v>1170981416.2</v>
+        <v>1170.9814162</v>
       </c>
       <c r="C53" t="n">
         <v>137.2859506667</v>
@@ -1511,7 +1511,7 @@
         <v>39964</v>
       </c>
       <c r="B54" t="n">
-        <v>1047225983.9</v>
+        <v>1047.2259839</v>
       </c>
       <c r="C54" t="n">
         <v>140.9123768498</v>
@@ -1531,7 +1531,7 @@
         <v>39994</v>
       </c>
       <c r="B55" t="n">
-        <v>810942694.9299999</v>
+        <v>810.9426949299999</v>
       </c>
       <c r="C55" t="n">
         <v>152.0016724835</v>
@@ -1551,7 +1551,7 @@
         <v>40025</v>
       </c>
       <c r="B56" t="n">
-        <v>804427782.28</v>
+        <v>804.42778228</v>
       </c>
       <c r="C56" t="n">
         <v>151.3248427489</v>
@@ -1571,7 +1571,7 @@
         <v>40056</v>
       </c>
       <c r="B57" t="n">
-        <v>832282667.55</v>
+        <v>832.2826675499999</v>
       </c>
       <c r="C57" t="n">
         <v>157.0883425098</v>
@@ -1591,7 +1591,7 @@
         <v>40086</v>
       </c>
       <c r="B58" t="n">
-        <v>553963523.41</v>
+        <v>553.96352341</v>
       </c>
       <c r="C58" t="n">
         <v>153.5868147414</v>
@@ -1611,7 +1611,7 @@
         <v>40117</v>
       </c>
       <c r="B59" t="n">
-        <v>497739330.87</v>
+        <v>497.73933087</v>
       </c>
       <c r="C59" t="n">
         <v>155.9215642752</v>
@@ -1631,7 +1631,7 @@
         <v>40147</v>
       </c>
       <c r="B60" t="n">
-        <v>545173009.65</v>
+        <v>545.1730096499999</v>
       </c>
       <c r="C60" t="n">
         <v>150.7288020775</v>
@@ -1651,7 +1651,7 @@
         <v>40178</v>
       </c>
       <c r="B61" t="n">
-        <v>756101664.6</v>
+        <v>756.1016646</v>
       </c>
       <c r="C61" t="n">
         <v>173.9496336473</v>
@@ -1671,7 +1671,7 @@
         <v>40209</v>
       </c>
       <c r="B62" t="n">
-        <v>799508210.35</v>
+        <v>799.50821035</v>
       </c>
       <c r="C62" t="n">
         <v>170.5791316535</v>
@@ -1691,7 +1691,7 @@
         <v>40237</v>
       </c>
       <c r="B63" t="n">
-        <v>544726250.42</v>
+        <v>544.7262504199999</v>
       </c>
       <c r="C63" t="n">
         <v>165.6938072878</v>
@@ -1711,7 +1711,7 @@
         <v>40268</v>
       </c>
       <c r="B64" t="n">
-        <v>920240007.5700001</v>
+        <v>920.2400075700001</v>
       </c>
       <c r="C64" t="n">
         <v>171.8897310688</v>
@@ -1731,7 +1731,7 @@
         <v>40298</v>
       </c>
       <c r="B65" t="n">
-        <v>1781885847.2</v>
+        <v>1781.8858472</v>
       </c>
       <c r="C65" t="n">
         <v>148.918618936</v>
@@ -1751,7 +1751,7 @@
         <v>40329</v>
       </c>
       <c r="B66" t="n">
-        <v>2042030677.3</v>
+        <v>2042.0306773</v>
       </c>
       <c r="C66" t="n">
         <v>149.5174582884</v>
@@ -1771,7 +1771,7 @@
         <v>40359</v>
       </c>
       <c r="B67" t="n">
-        <v>1901632510.2</v>
+        <v>1901.6325102</v>
       </c>
       <c r="C67" t="n">
         <v>145.7698352989</v>
@@ -1791,7 +1791,7 @@
         <v>40390</v>
       </c>
       <c r="B68" t="n">
-        <v>1489768284.5</v>
+        <v>1489.7682845</v>
       </c>
       <c r="C68" t="n">
         <v>146.1466382102</v>
@@ -1811,7 +1811,7 @@
         <v>40421</v>
       </c>
       <c r="B69" t="n">
-        <v>1844030014.2</v>
+        <v>1844.0300142</v>
       </c>
       <c r="C69" t="n">
         <v>153.5047454401</v>
@@ -1831,7 +1831,7 @@
         <v>40451</v>
       </c>
       <c r="B70" t="n">
-        <v>1256418003.3</v>
+        <v>1256.4180033</v>
       </c>
       <c r="C70" t="n">
         <v>155.5545464904</v>
@@ -1851,7 +1851,7 @@
         <v>40482</v>
       </c>
       <c r="B71" t="n">
-        <v>903992966.9299999</v>
+        <v>903.99296693</v>
       </c>
       <c r="C71" t="n">
         <v>166.7440428783</v>
@@ -1871,7 +1871,7 @@
         <v>40512</v>
       </c>
       <c r="B72" t="n">
-        <v>777801345.88</v>
+        <v>777.80134588</v>
       </c>
       <c r="C72" t="n">
         <v>181.82029647</v>
@@ -1891,7 +1891,7 @@
         <v>40543</v>
       </c>
       <c r="B73" t="n">
-        <v>886525982.84</v>
+        <v>886.52598284</v>
       </c>
       <c r="C73" t="n">
         <v>197.4006931978</v>
@@ -1911,7 +1911,7 @@
         <v>40574</v>
       </c>
       <c r="B74" t="n">
-        <v>1039334380.7</v>
+        <v>1039.3343807</v>
       </c>
       <c r="C74" t="n">
         <v>206.4129766154</v>
@@ -1931,7 +1931,7 @@
         <v>40602</v>
       </c>
       <c r="B75" t="n">
-        <v>1080578203.1</v>
+        <v>1080.5782031</v>
       </c>
       <c r="C75" t="n">
         <v>202.3160778605</v>
@@ -1951,7 +1951,7 @@
         <v>40633</v>
       </c>
       <c r="B76" t="n">
-        <v>1487916059.4</v>
+        <v>1487.9160594</v>
       </c>
       <c r="C76" t="n">
         <v>214.2470565257</v>
@@ -1971,7 +1971,7 @@
         <v>40663</v>
       </c>
       <c r="B77" t="n">
-        <v>1739840295.3</v>
+        <v>1739.8402953</v>
       </c>
       <c r="C77" t="n">
         <v>210.1541345613</v>
@@ -1991,7 +1991,7 @@
         <v>40694</v>
       </c>
       <c r="B78" t="n">
-        <v>2238128466.5</v>
+        <v>2238.1284665</v>
       </c>
       <c r="C78" t="n">
         <v>210.1285295704</v>
@@ -2011,7 +2011,7 @@
         <v>40724</v>
       </c>
       <c r="B79" t="n">
-        <v>2154409936.3</v>
+        <v>2154.4099363</v>
       </c>
       <c r="C79" t="n">
         <v>215.6139099863</v>
@@ -2031,7 +2031,7 @@
         <v>40755</v>
       </c>
       <c r="B80" t="n">
-        <v>1903232498.3</v>
+        <v>1903.2324983</v>
       </c>
       <c r="C80" t="n">
         <v>205.3831595192</v>
@@ -2051,7 +2051,7 @@
         <v>40786</v>
       </c>
       <c r="B81" t="n">
-        <v>2241677824.9</v>
+        <v>2241.6778249</v>
       </c>
       <c r="C81" t="n">
         <v>207.8154605439</v>
@@ -2071,7 +2071,7 @@
         <v>40816</v>
       </c>
       <c r="B82" t="n">
-        <v>2049483758.4</v>
+        <v>2049.4837584</v>
       </c>
       <c r="C82" t="n">
         <v>201.31178869</v>
@@ -2091,7 +2091,7 @@
         <v>40847</v>
       </c>
       <c r="B83" t="n">
-        <v>1591798464.8</v>
+        <v>1591.7984648</v>
       </c>
       <c r="C83" t="n">
         <v>195.0626635955</v>
@@ -2111,7 +2111,7 @@
         <v>40877</v>
       </c>
       <c r="B84" t="n">
-        <v>1186255252.2</v>
+        <v>1186.2552522</v>
       </c>
       <c r="C84" t="n">
         <v>201.3676376636</v>
@@ -2131,7 +2131,7 @@
         <v>40908</v>
       </c>
       <c r="B85" t="n">
-        <v>1120665261.4</v>
+        <v>1120.6652614</v>
       </c>
       <c r="C85" t="n">
         <v>198.2565221236</v>
@@ -2151,7 +2151,7 @@
         <v>40939</v>
       </c>
       <c r="B86" t="n">
-        <v>1113036003.5</v>
+        <v>1113.0360035</v>
       </c>
       <c r="C86" t="n">
         <v>186.6769349668</v>
@@ -2171,7 +2171,7 @@
         <v>40968</v>
       </c>
       <c r="B87" t="n">
-        <v>1490584176.5</v>
+        <v>1490.5841765</v>
       </c>
       <c r="C87" t="n">
         <v>195.1447175334</v>
@@ -2191,7 +2191,7 @@
         <v>40999</v>
       </c>
       <c r="B88" t="n">
-        <v>1505331531.6</v>
+        <v>1505.3315316</v>
       </c>
       <c r="C88" t="n">
         <v>205.225927747</v>
@@ -2211,7 +2211,7 @@
         <v>41029</v>
       </c>
       <c r="B89" t="n">
-        <v>1692178671.4</v>
+        <v>1692.1786714</v>
       </c>
       <c r="C89" t="n">
         <v>199.7228356079</v>
@@ -2231,7 +2231,7 @@
         <v>41060</v>
       </c>
       <c r="B90" t="n">
-        <v>1891841986.8</v>
+        <v>1891.8419868</v>
       </c>
       <c r="C90" t="n">
         <v>192.5124765237</v>
@@ -2251,7 +2251,7 @@
         <v>41090</v>
       </c>
       <c r="B91" t="n">
-        <v>1789072304.7</v>
+        <v>1789.0723047</v>
       </c>
       <c r="C91" t="n">
         <v>196.989803776</v>
@@ -2271,7 +2271,7 @@
         <v>41121</v>
       </c>
       <c r="B92" t="n">
-        <v>2259996190.4</v>
+        <v>2259.9961904</v>
       </c>
       <c r="C92" t="n">
         <v>203.3923255862</v>
@@ -2291,7 +2291,7 @@
         <v>41152</v>
       </c>
       <c r="B93" t="n">
-        <v>1952785682.6</v>
+        <v>1952.7856826</v>
       </c>
       <c r="C93" t="n">
         <v>205.7533664017</v>
@@ -2311,7 +2311,7 @@
         <v>41182</v>
       </c>
       <c r="B94" t="n">
-        <v>1474109584.5</v>
+        <v>1474.1095845</v>
       </c>
       <c r="C94" t="n">
         <v>199.634599845</v>
@@ -2331,7 +2331,7 @@
         <v>41213</v>
       </c>
       <c r="B95" t="n">
-        <v>1339262620.6</v>
+        <v>1339.2626206</v>
       </c>
       <c r="C95" t="n">
         <v>204.0337772185</v>
@@ -2351,7 +2351,7 @@
         <v>41243</v>
       </c>
       <c r="B96" t="n">
-        <v>1255781506.2</v>
+        <v>1255.7815062</v>
       </c>
       <c r="C96" t="n">
         <v>217.4668054759</v>
@@ -2371,7 +2371,7 @@
         <v>41274</v>
       </c>
       <c r="B97" t="n">
-        <v>1275856286.1</v>
+        <v>1275.8562861</v>
       </c>
       <c r="C97" t="n">
         <v>208.3937509702</v>
@@ -2391,7 +2391,7 @@
         <v>41305</v>
       </c>
       <c r="B98" t="n">
-        <v>1243011899.4</v>
+        <v>1243.0118994</v>
       </c>
       <c r="C98" t="n">
         <v>202.2938870138</v>
@@ -2411,7 +2411,7 @@
         <v>41333</v>
       </c>
       <c r="B99" t="n">
-        <v>1201505436.7</v>
+        <v>1201.5054367</v>
       </c>
       <c r="C99" t="n">
         <v>209.8478633025</v>
@@ -2431,7 +2431,7 @@
         <v>41364</v>
       </c>
       <c r="B100" t="n">
-        <v>1702132171.3</v>
+        <v>1702.1321713</v>
       </c>
       <c r="C100" t="n">
         <v>223.2510257908</v>
@@ -2451,7 +2451,7 @@
         <v>41394</v>
       </c>
       <c r="B101" t="n">
-        <v>2172407028.3</v>
+        <v>2172.4070283</v>
       </c>
       <c r="C101" t="n">
         <v>217.1188734551</v>
@@ -2471,7 +2471,7 @@
         <v>41425</v>
       </c>
       <c r="B102" t="n">
-        <v>2394862852.7</v>
+        <v>2394.8628527</v>
       </c>
       <c r="C102" t="n">
         <v>214.9418045847</v>
@@ -2491,7 +2491,7 @@
         <v>41455</v>
       </c>
       <c r="B103" t="n">
-        <v>2090220923.1</v>
+        <v>2090.2209231</v>
       </c>
       <c r="C103" t="n">
         <v>216.7153917889</v>
@@ -2511,7 +2511,7 @@
         <v>41486</v>
       </c>
       <c r="B104" t="n">
-        <v>1875680012.1</v>
+        <v>1875.6800121</v>
       </c>
       <c r="C104" t="n">
         <v>208.6258878321</v>
@@ -2531,7 +2531,7 @@
         <v>41517</v>
       </c>
       <c r="B105" t="n">
-        <v>1844608335.1</v>
+        <v>1844.6083351</v>
       </c>
       <c r="C105" t="n">
         <v>193.9720525022</v>
@@ -2551,7 +2551,7 @@
         <v>41547</v>
       </c>
       <c r="B106" t="n">
-        <v>1296777135</v>
+        <v>1296.777135</v>
       </c>
       <c r="C106" t="n">
         <v>186.1840016099</v>
@@ -2571,7 +2571,7 @@
         <v>41578</v>
       </c>
       <c r="B107" t="n">
-        <v>883581922.15</v>
+        <v>883.58192215</v>
       </c>
       <c r="C107" t="n">
         <v>177.8676005644</v>
@@ -2591,7 +2591,7 @@
         <v>41608</v>
       </c>
       <c r="B108" t="n">
-        <v>439568470.62</v>
+        <v>439.56847062</v>
       </c>
       <c r="C108" t="n">
         <v>181.6202811635</v>
@@ -2611,7 +2611,7 @@
         <v>41639</v>
       </c>
       <c r="B109" t="n">
-        <v>621534814.4</v>
+        <v>621.5348144</v>
       </c>
       <c r="C109" t="n">
         <v>184.8007431052</v>
@@ -2631,7 +2631,7 @@
         <v>41670</v>
       </c>
       <c r="B110" t="n">
-        <v>643870313.73</v>
+        <v>643.87031373</v>
       </c>
       <c r="C110" t="n">
         <v>179.4711352326</v>
@@ -2651,7 +2651,7 @@
         <v>41698</v>
       </c>
       <c r="B111" t="n">
-        <v>797991474.6</v>
+        <v>797.9914746000001</v>
       </c>
       <c r="C111" t="n">
         <v>192.6927251224</v>
@@ -2671,7 +2671,7 @@
         <v>41729</v>
       </c>
       <c r="B112" t="n">
-        <v>902236683.05</v>
+        <v>902.2366830499999</v>
       </c>
       <c r="C112" t="n">
         <v>182.3746205986</v>
@@ -2691,7 +2691,7 @@
         <v>41759</v>
       </c>
       <c r="B113" t="n">
-        <v>1581244814.1</v>
+        <v>1581.2448141</v>
       </c>
       <c r="C113" t="n">
         <v>190.9524303839</v>
@@ -2711,7 +2711,7 @@
         <v>41790</v>
       </c>
       <c r="B114" t="n">
-        <v>1672231617.5</v>
+        <v>1672.2316175</v>
       </c>
       <c r="C114" t="n">
         <v>190.3609835637</v>
@@ -2731,7 +2731,7 @@
         <v>41820</v>
       </c>
       <c r="B115" t="n">
-        <v>1743379828</v>
+        <v>1743.379828</v>
       </c>
       <c r="C115" t="n">
         <v>192.0342965118</v>
@@ -2751,7 +2751,7 @@
         <v>41851</v>
       </c>
       <c r="B116" t="n">
-        <v>1837511034.2</v>
+        <v>1837.5110342</v>
       </c>
       <c r="C116" t="n">
         <v>189.3483572091</v>
@@ -2771,7 +2771,7 @@
         <v>41882</v>
       </c>
       <c r="B117" t="n">
-        <v>1719946922.5</v>
+        <v>1719.9469225</v>
       </c>
       <c r="C117" t="n">
         <v>179.0354774472</v>
@@ -2791,7 +2791,7 @@
         <v>41912</v>
       </c>
       <c r="B118" t="n">
-        <v>983789744.27</v>
+        <v>983.78974427</v>
       </c>
       <c r="C118" t="n">
         <v>168.3321748327</v>
@@ -2811,7 +2811,7 @@
         <v>41943</v>
       </c>
       <c r="B119" t="n">
-        <v>1021390670.9</v>
+        <v>1021.3906709</v>
       </c>
       <c r="C119" t="n">
         <v>155.6499815001</v>
@@ -2831,7 +2831,7 @@
         <v>41973</v>
       </c>
       <c r="B120" t="n">
-        <v>680298848.23</v>
+        <v>680.29884823</v>
       </c>
       <c r="C120" t="n">
         <v>159.1792616867</v>
@@ -2851,7 +2851,7 @@
         <v>42004</v>
       </c>
       <c r="B121" t="n">
-        <v>633946667.7</v>
+        <v>633.9466677</v>
       </c>
       <c r="C121" t="n">
         <v>173.8419494353</v>
@@ -2871,7 +2871,7 @@
         <v>42035</v>
       </c>
       <c r="B122" t="n">
-        <v>798427958.28</v>
+        <v>798.42795828</v>
       </c>
       <c r="C122" t="n">
         <v>164.429179767</v>
@@ -2891,7 +2891,7 @@
         <v>42063</v>
       </c>
       <c r="B123" t="n">
-        <v>685307143.99</v>
+        <v>685.30714399</v>
       </c>
       <c r="C123" t="n">
         <v>166.4927851362</v>
@@ -2911,7 +2911,7 @@
         <v>42094</v>
       </c>
       <c r="B124" t="n">
-        <v>891390042.36</v>
+        <v>891.3900423600001</v>
       </c>
       <c r="C124" t="n">
         <v>160.910353397</v>
@@ -2931,7 +2931,7 @@
         <v>42124</v>
       </c>
       <c r="B125" t="n">
-        <v>1409102182.6</v>
+        <v>1409.1021826</v>
       </c>
       <c r="C125" t="n">
         <v>150.7878201931</v>
@@ -2951,7 +2951,7 @@
         <v>42155</v>
       </c>
       <c r="B126" t="n">
-        <v>1640259407.6</v>
+        <v>1640.2594076</v>
       </c>
       <c r="C126" t="n">
         <v>144.593989716</v>
@@ -2971,7 +2971,7 @@
         <v>42185</v>
       </c>
       <c r="B127" t="n">
-        <v>1765764635</v>
+        <v>1765.764635</v>
       </c>
       <c r="C127" t="n">
         <v>147.2275263778</v>
@@ -2991,7 +2991,7 @@
         <v>42216</v>
       </c>
       <c r="B128" t="n">
-        <v>1412401579.9</v>
+        <v>1412.4015799</v>
       </c>
       <c r="C128" t="n">
         <v>146.1874820377</v>
@@ -3011,7 +3011,7 @@
         <v>42247</v>
       </c>
       <c r="B129" t="n">
-        <v>1270471939.4</v>
+        <v>1270.4719394</v>
       </c>
       <c r="C129" t="n">
         <v>145.4336405534</v>
@@ -3031,7 +3031,7 @@
         <v>42277</v>
       </c>
       <c r="B130" t="n">
-        <v>1266167410.6</v>
+        <v>1266.1674106</v>
       </c>
       <c r="C130" t="n">
         <v>141.9609696684</v>
@@ -3051,7 +3051,7 @@
         <v>42308</v>
       </c>
       <c r="B131" t="n">
-        <v>1093170364.7</v>
+        <v>1093.1703647</v>
       </c>
       <c r="C131" t="n">
         <v>135.0582479053</v>
@@ -3071,7 +3071,7 @@
         <v>42338</v>
       </c>
       <c r="B132" t="n">
-        <v>616335202.78</v>
+        <v>616.3352027799999</v>
       </c>
       <c r="C132" t="n">
         <v>134.5039515598</v>
@@ -3091,7 +3091,7 @@
         <v>42369</v>
       </c>
       <c r="B133" t="n">
-        <v>452490414.45</v>
+        <v>452.49041445</v>
       </c>
       <c r="C133" t="n">
         <v>143.2464592038</v>
@@ -3111,7 +3111,7 @@
         <v>42400</v>
       </c>
       <c r="B134" t="n">
-        <v>915482826.78</v>
+        <v>915.48282678</v>
       </c>
       <c r="C134" t="n">
         <v>135.384765279</v>
@@ -3131,7 +3131,7 @@
         <v>42429</v>
       </c>
       <c r="B135" t="n">
-        <v>1104054465.9</v>
+        <v>1104.0544659</v>
       </c>
       <c r="C135" t="n">
         <v>141.0584776788</v>
@@ -3151,7 +3151,7 @@
         <v>42460</v>
       </c>
       <c r="B136" t="n">
-        <v>1293574489.1</v>
+        <v>1293.5744891</v>
       </c>
       <c r="C136" t="n">
         <v>139.191245193</v>
@@ -3171,7 +3171,7 @@
         <v>42490</v>
       </c>
       <c r="B137" t="n">
-        <v>1343068897.3</v>
+        <v>1343.0688973</v>
       </c>
       <c r="C137" t="n">
         <v>135.7639907085</v>
@@ -3191,7 +3191,7 @@
         <v>42521</v>
       </c>
       <c r="B138" t="n">
-        <v>1669728313.8</v>
+        <v>1669.7283138</v>
       </c>
       <c r="C138" t="n">
         <v>135.9112065112</v>
@@ -3211,7 +3211,7 @@
         <v>42551</v>
       </c>
       <c r="B139" t="n">
-        <v>1617609544.9</v>
+        <v>1617.6095449</v>
       </c>
       <c r="C139" t="n">
         <v>140.9096978835</v>
@@ -3231,7 +3231,7 @@
         <v>42582</v>
       </c>
       <c r="B140" t="n">
-        <v>1552774186.3</v>
+        <v>1552.7741863</v>
       </c>
       <c r="C140" t="n">
         <v>146.5101138363</v>
@@ -3251,7 +3251,7 @@
         <v>42613</v>
       </c>
       <c r="B141" t="n">
-        <v>1920842631.5</v>
+        <v>1920.8426315</v>
       </c>
       <c r="C141" t="n">
         <v>144.8282905041</v>
@@ -3271,7 +3271,7 @@
         <v>42643</v>
       </c>
       <c r="B142" t="n">
-        <v>1291428434</v>
+        <v>1291.428434</v>
       </c>
       <c r="C142" t="n">
         <v>145.4147278355</v>
@@ -3291,7 +3291,7 @@
         <v>42674</v>
       </c>
       <c r="B143" t="n">
-        <v>1104362620.2</v>
+        <v>1104.3626202</v>
       </c>
       <c r="C143" t="n">
         <v>145.1147911978</v>
@@ -3311,7 +3311,7 @@
         <v>42704</v>
       </c>
       <c r="B144" t="n">
-        <v>891456589.29</v>
+        <v>891.45658929</v>
       </c>
       <c r="C144" t="n">
         <v>145.2758828247</v>
@@ -3331,7 +3331,7 @@
         <v>42735</v>
       </c>
       <c r="B145" t="n">
-        <v>989151743.1</v>
+        <v>989.1517431</v>
       </c>
       <c r="C145" t="n">
         <v>146.9539622034</v>
@@ -3351,7 +3351,7 @@
         <v>42766</v>
       </c>
       <c r="B146" t="n">
-        <v>1072943575.2</v>
+        <v>1072.9435752</v>
       </c>
       <c r="C146" t="n">
         <v>138.6435212068</v>
@@ -3371,7 +3371,7 @@
         <v>42794</v>
       </c>
       <c r="B147" t="n">
-        <v>944767395.41</v>
+        <v>944.7673954099999</v>
       </c>
       <c r="C147" t="n">
         <v>142.1039497685</v>
@@ -3391,7 +3391,7 @@
         <v>42825</v>
       </c>
       <c r="B148" t="n">
-        <v>1062868082.4</v>
+        <v>1062.8680824</v>
       </c>
       <c r="C148" t="n">
         <v>144.5186187189</v>
@@ -3411,7 +3411,7 @@
         <v>42855</v>
       </c>
       <c r="B149" t="n">
-        <v>1342225315.4</v>
+        <v>1342.2253154</v>
       </c>
       <c r="C149" t="n">
         <v>148.4342171896</v>
@@ -3431,7 +3431,7 @@
         <v>42886</v>
       </c>
       <c r="B150" t="n">
-        <v>1575771272.7</v>
+        <v>1575.7712727</v>
       </c>
       <c r="C150" t="n">
         <v>146.8521451495</v>
@@ -3451,7 +3451,7 @@
         <v>42916</v>
       </c>
       <c r="B151" t="n">
-        <v>1538774397.5</v>
+        <v>1538.7743975</v>
       </c>
       <c r="C151" t="n">
         <v>145.8596257195</v>
@@ -3471,7 +3471,7 @@
         <v>42947</v>
       </c>
       <c r="B152" t="n">
-        <v>1400496808.6</v>
+        <v>1400.4968086</v>
       </c>
       <c r="C152" t="n">
         <v>138.3825487929</v>
@@ -3491,7 +3491,7 @@
         <v>42978</v>
       </c>
       <c r="B153" t="n">
-        <v>1368823158.8</v>
+        <v>1368.8231588</v>
       </c>
       <c r="C153" t="n">
         <v>134.8387506883</v>
@@ -3511,7 +3511,7 @@
         <v>43008</v>
       </c>
       <c r="B154" t="n">
-        <v>1384241887</v>
+        <v>1384.241887</v>
       </c>
       <c r="C154" t="n">
         <v>136.7435899261</v>
@@ -3531,7 +3531,7 @@
         <v>43039</v>
       </c>
       <c r="B155" t="n">
-        <v>1150902454.2</v>
+        <v>1150.9024542</v>
       </c>
       <c r="C155" t="n">
         <v>131.660335037</v>
@@ -3551,7 +3551,7 @@
         <v>43069</v>
       </c>
       <c r="B156" t="n">
-        <v>892031599.7</v>
+        <v>892.0315997</v>
       </c>
       <c r="C156" t="n">
         <v>136.4020915938</v>
@@ -3571,7 +3571,7 @@
         <v>43100</v>
       </c>
       <c r="B157" t="n">
-        <v>1079679852.5</v>
+        <v>1079.6798525</v>
       </c>
       <c r="C157" t="n">
         <v>143.081828575</v>
@@ -3591,7 +3591,7 @@
         <v>43131</v>
       </c>
       <c r="B158" t="n">
-        <v>1202236067.5</v>
+        <v>1202.2360675</v>
       </c>
       <c r="C158" t="n">
         <v>138.0737630058</v>
@@ -3611,7 +3611,7 @@
         <v>43159</v>
       </c>
       <c r="B159" t="n">
-        <v>1069541788.8</v>
+        <v>1069.5417888</v>
       </c>
       <c r="C159" t="n">
         <v>142.8112412456</v>
@@ -3631,7 +3631,7 @@
         <v>43190</v>
       </c>
       <c r="B160" t="n">
-        <v>1369415970</v>
+        <v>1369.41597</v>
       </c>
       <c r="C160" t="n">
         <v>154.4534755755</v>
@@ -3651,7 +3651,7 @@
         <v>43220</v>
       </c>
       <c r="B161" t="n">
-        <v>1188585856.6</v>
+        <v>1188.5858566</v>
       </c>
       <c r="C161" t="n">
         <v>161.0560932758</v>
@@ -3671,7 +3671,7 @@
         <v>43251</v>
       </c>
       <c r="B162" t="n">
-        <v>1142646157.6</v>
+        <v>1142.6461576</v>
       </c>
       <c r="C162" t="n">
         <v>168.3956005254</v>
@@ -3691,7 +3691,7 @@
         <v>43281</v>
       </c>
       <c r="B163" t="n">
-        <v>1170900846.7</v>
+        <v>1170.9008467</v>
       </c>
       <c r="C163" t="n">
         <v>160.4010901351</v>
@@ -3711,7 +3711,7 @@
         <v>43312</v>
       </c>
       <c r="B164" t="n">
-        <v>1106018142.2</v>
+        <v>1106.0181422</v>
       </c>
       <c r="C164" t="n">
         <v>160.9645839535</v>
@@ -3731,7 +3731,7 @@
         <v>43343</v>
       </c>
       <c r="B165" t="n">
-        <v>1095867471.9</v>
+        <v>1095.8674719</v>
       </c>
       <c r="C165" t="n">
         <v>152.7292424133</v>
@@ -3751,7 +3751,7 @@
         <v>43373</v>
       </c>
       <c r="B166" t="n">
-        <v>942740224.77</v>
+        <v>942.7402247699999</v>
       </c>
       <c r="C166" t="n">
         <v>142.4662516407</v>
@@ -3771,7 +3771,7 @@
         <v>43404</v>
       </c>
       <c r="B167" t="n">
-        <v>1107727869.7</v>
+        <v>1107.7278697</v>
       </c>
       <c r="C167" t="n">
         <v>135.3153848131</v>
@@ -3791,7 +3791,7 @@
         <v>43434</v>
       </c>
       <c r="B168" t="n">
-        <v>1151946915.2</v>
+        <v>1151.9469152</v>
       </c>
       <c r="C168" t="n">
         <v>144.3228187149</v>
@@ -3811,7 +3811,7 @@
         <v>43465</v>
       </c>
       <c r="B169" t="n">
-        <v>1473462442.6</v>
+        <v>1473.4624426</v>
       </c>
       <c r="C169" t="n">
         <v>146.6972182925</v>
@@ -3831,7 +3831,7 @@
         <v>43496</v>
       </c>
       <c r="B170" t="n">
-        <v>1335568602.7</v>
+        <v>1335.5686027</v>
       </c>
       <c r="C170" t="n">
         <v>147.5788426014</v>
@@ -3851,7 +3851,7 @@
         <v>43524</v>
       </c>
       <c r="B171" t="n">
-        <v>1082247531.9</v>
+        <v>1082.2475319</v>
       </c>
       <c r="C171" t="n">
         <v>157.6376691142</v>
@@ -3871,7 +3871,7 @@
         <v>43555</v>
       </c>
       <c r="B172" t="n">
-        <v>1348362771.8</v>
+        <v>1348.3627718</v>
       </c>
       <c r="C172" t="n">
         <v>151.5566061869</v>
@@ -3891,7 +3891,7 @@
         <v>43585</v>
       </c>
       <c r="B173" t="n">
-        <v>1411906758.1</v>
+        <v>1411.9067581</v>
       </c>
       <c r="C173" t="n">
         <v>147.4577264255</v>
@@ -3911,7 +3911,7 @@
         <v>43616</v>
       </c>
       <c r="B174" t="n">
-        <v>1830109321.6</v>
+        <v>1830.1093216</v>
       </c>
       <c r="C174" t="n">
         <v>137.9552341849</v>
@@ -3931,7 +3931,7 @@
         <v>43646</v>
       </c>
       <c r="B175" t="n">
-        <v>1168521526.5</v>
+        <v>1168.5215265</v>
       </c>
       <c r="C175" t="n">
         <v>144.6137047243</v>
@@ -3951,7 +3951,7 @@
         <v>43677</v>
       </c>
       <c r="B176" t="n">
-        <v>1702573006.5</v>
+        <v>1702.5730065</v>
       </c>
       <c r="C176" t="n">
         <v>137.8984423664</v>
@@ -3971,7 +3971,7 @@
         <v>43708</v>
       </c>
       <c r="B177" t="n">
-        <v>1504909954.4</v>
+        <v>1504.9099544</v>
       </c>
       <c r="C177" t="n">
         <v>135.910187801</v>
@@ -3991,7 +3991,7 @@
         <v>43738</v>
       </c>
       <c r="B178" t="n">
-        <v>1584003252.1</v>
+        <v>1584.0032521</v>
       </c>
       <c r="C178" t="n">
         <v>136.3940916863</v>
@@ -4011,7 +4011,7 @@
         <v>43769</v>
       </c>
       <c r="B179" t="n">
-        <v>1606593129.4</v>
+        <v>1606.5931294</v>
       </c>
       <c r="C179" t="n">
         <v>132.1430445459</v>
@@ -4031,7 +4031,7 @@
         <v>43799</v>
       </c>
       <c r="B180" t="n">
-        <v>1573370216.3</v>
+        <v>1573.3702163</v>
       </c>
       <c r="C180" t="n">
         <v>133.9497205002</v>
@@ -4051,7 +4051,7 @@
         <v>43830</v>
       </c>
       <c r="B181" t="n">
-        <v>1372259199.4</v>
+        <v>1372.2591994</v>
       </c>
       <c r="C181" t="n">
         <v>137.8112859093</v>
@@ -4071,7 +4071,7 @@
         <v>43861</v>
       </c>
       <c r="B182" t="n">
-        <v>1541387984.4</v>
+        <v>1541.3879844</v>
       </c>
       <c r="C182" t="n">
         <v>141.0690453268</v>
@@ -4091,7 +4091,7 @@
         <v>43890</v>
       </c>
       <c r="B183" t="n">
-        <v>1209357839.4</v>
+        <v>1209.3578394</v>
       </c>
       <c r="C183" t="n">
         <v>145.3492343534</v>
@@ -4111,7 +4111,7 @@
         <v>43921</v>
       </c>
       <c r="B184" t="n">
-        <v>1340062890.9</v>
+        <v>1340.0628909</v>
       </c>
       <c r="C184" t="n">
         <v>147.7953486541</v>
@@ -4131,7 +4131,7 @@
         <v>43951</v>
       </c>
       <c r="B185" t="n">
-        <v>1566525613</v>
+        <v>1566.525613</v>
       </c>
       <c r="C185" t="n">
         <v>143.3339504532</v>
@@ -4151,7 +4151,7 @@
         <v>43982</v>
       </c>
       <c r="B186" t="n">
-        <v>1997798504.8</v>
+        <v>1997.7985048</v>
       </c>
       <c r="C186" t="n">
         <v>139.8446663251</v>
@@ -4171,7 +4171,7 @@
         <v>44012</v>
       </c>
       <c r="B187" t="n">
-        <v>1706368036.3</v>
+        <v>1706.3680363</v>
       </c>
       <c r="C187" t="n">
         <v>139.9656151425</v>
@@ -4191,7 +4191,7 @@
         <v>44043</v>
       </c>
       <c r="B188" t="n">
-        <v>1537988794.8</v>
+        <v>1537.9887948</v>
       </c>
       <c r="C188" t="n">
         <v>140.0184415818</v>
@@ -4211,7 +4211,7 @@
         <v>44074</v>
       </c>
       <c r="B189" t="n">
-        <v>1641966787.1</v>
+        <v>1641.9667871</v>
       </c>
       <c r="C189" t="n">
         <v>137.8217048395</v>
@@ -4231,7 +4231,7 @@
         <v>44104</v>
       </c>
       <c r="B190" t="n">
-        <v>1113715271.5</v>
+        <v>1113.7152715</v>
       </c>
       <c r="C190" t="n">
         <v>137.3766968074</v>
@@ -4251,7 +4251,7 @@
         <v>44135</v>
       </c>
       <c r="B191" t="n">
-        <v>1055086593.9</v>
+        <v>1055.0865939</v>
       </c>
       <c r="C191" t="n">
         <v>135.562238574</v>
@@ -4271,7 +4271,7 @@
         <v>44165</v>
       </c>
       <c r="B192" t="n">
-        <v>755108216.67</v>
+        <v>755.1082166699999</v>
       </c>
       <c r="C192" t="n">
         <v>148.0460658394</v>
@@ -4291,7 +4291,7 @@
         <v>44196</v>
       </c>
       <c r="B193" t="n">
-        <v>741319782.88</v>
+        <v>741.31978288</v>
       </c>
       <c r="C193" t="n">
         <v>142.0730640543</v>
@@ -4311,7 +4311,7 @@
         <v>44227</v>
       </c>
       <c r="B194" t="n">
-        <v>1072574103.3</v>
+        <v>1072.5741033</v>
       </c>
       <c r="C194" t="n">
         <v>155.6473941279</v>
@@ -4331,7 +4331,7 @@
         <v>44255</v>
       </c>
       <c r="B195" t="n">
-        <v>1079049726.2</v>
+        <v>1079.0497262</v>
       </c>
       <c r="C195" t="n">
         <v>156.7003385134</v>
@@ -4351,7 +4351,7 @@
         <v>44286</v>
       </c>
       <c r="B196" t="n">
-        <v>1538544034.6</v>
+        <v>1538.5440346</v>
       </c>
       <c r="C196" t="n">
         <v>164.1088884474</v>
@@ -4371,7 +4371,7 @@
         <v>44316</v>
       </c>
       <c r="B197" t="n">
-        <v>1823510907.5</v>
+        <v>1823.5109075</v>
       </c>
       <c r="C197" t="n">
         <v>174.9677390726</v>
@@ -4391,7 +4391,7 @@
         <v>44347</v>
       </c>
       <c r="B198" t="n">
-        <v>1961373533.3</v>
+        <v>1961.3735333</v>
       </c>
       <c r="C198" t="n">
         <v>185.3644718773</v>
@@ -4411,7 +4411,7 @@
         <v>44377</v>
       </c>
       <c r="B199" t="n">
-        <v>2020014984.3</v>
+        <v>2020.0149843</v>
       </c>
       <c r="C199" t="n">
         <v>184.6540613205</v>
@@ -4431,7 +4431,7 @@
         <v>44408</v>
       </c>
       <c r="B200" t="n">
-        <v>2360283752.9</v>
+        <v>2360.2837529</v>
       </c>
       <c r="C200" t="n">
         <v>185.7836870682</v>
@@ -4451,7 +4451,7 @@
         <v>44439</v>
       </c>
       <c r="B201" t="n">
-        <v>2766352297.9</v>
+        <v>2766.3522979</v>
       </c>
       <c r="C201" t="n">
         <v>187.1827594212</v>
@@ -4471,7 +4471,7 @@
         <v>44469</v>
       </c>
       <c r="B202" t="n">
-        <v>2289911793.2</v>
+        <v>2289.9117932</v>
       </c>
       <c r="C202" t="n">
         <v>188.1599264358</v>
@@ -4491,7 +4491,7 @@
         <v>44500</v>
       </c>
       <c r="B203" t="n">
-        <v>1826193733.3</v>
+        <v>1826.1937333</v>
       </c>
       <c r="C203" t="n">
         <v>188.1761753641</v>
@@ -4511,7 +4511,7 @@
         <v>44530</v>
       </c>
       <c r="B204" t="n">
-        <v>1318290928.8</v>
+        <v>1318.2909288</v>
       </c>
       <c r="C204" t="n">
         <v>190.5256523428</v>
@@ -4531,7 +4531,7 @@
         <v>44561</v>
       </c>
       <c r="B205" t="n">
-        <v>1752424177.5</v>
+        <v>1752.4241775</v>
       </c>
       <c r="C205" t="n">
         <v>187.4100832948</v>
@@ -4551,7 +4551,7 @@
         <v>44592</v>
       </c>
       <c r="B206" t="n">
-        <v>1882054864.3</v>
+        <v>1882.0548643</v>
       </c>
       <c r="C206" t="n">
         <v>194.3915969711</v>
@@ -4571,7 +4571,7 @@
         <v>44620</v>
       </c>
       <c r="B207" t="n">
-        <v>1831709007.2</v>
+        <v>1831.7090072</v>
       </c>
       <c r="C207" t="n">
         <v>193.1383497149</v>
@@ -4591,7 +4591,7 @@
         <v>44651</v>
       </c>
       <c r="B208" t="n">
-        <v>2082785822.2</v>
+        <v>2082.7858222</v>
       </c>
       <c r="C208" t="n">
         <v>199.228030608</v>
@@ -4611,7 +4611,7 @@
         <v>44681</v>
       </c>
       <c r="B209" t="n">
-        <v>2295478179.5</v>
+        <v>2295.4781795</v>
       </c>
       <c r="C209" t="n">
         <v>206.5923030757</v>
@@ -4631,7 +4631,7 @@
         <v>44712</v>
       </c>
       <c r="B210" t="n">
-        <v>2114924077.1</v>
+        <v>2114.9240771</v>
       </c>
       <c r="C210" t="n">
         <v>209.2338967548</v>
@@ -4651,7 +4651,7 @@
         <v>44742</v>
       </c>
       <c r="B211" t="n">
-        <v>2035209385.3</v>
+        <v>2035.2093853</v>
       </c>
       <c r="C211" t="n">
         <v>212.8626334362</v>
@@ -4671,7 +4671,7 @@
         <v>44773</v>
       </c>
       <c r="B212" t="n">
-        <v>2431418408.1</v>
+        <v>2431.4184081</v>
       </c>
       <c r="C212" t="n">
         <v>208.8677346172</v>
@@ -4691,7 +4691,7 @@
         <v>44804</v>
       </c>
       <c r="B213" t="n">
-        <v>1988408045.9</v>
+        <v>1988.4080459</v>
       </c>
       <c r="C213" t="n">
         <v>200.9592956371</v>
@@ -4711,7 +4711,7 @@
         <v>44834</v>
       </c>
       <c r="B214" t="n">
-        <v>2071879244.6</v>
+        <v>2071.8792446</v>
       </c>
       <c r="C214" t="n">
         <v>204.8835771</v>
@@ -4731,7 +4731,7 @@
         <v>44865</v>
       </c>
       <c r="B215" t="n">
-        <v>2339045363.9</v>
+        <v>2339.0453639</v>
       </c>
       <c r="C215" t="n">
         <v>205.8768221955</v>
@@ -4751,7 +4751,7 @@
         <v>44895</v>
       </c>
       <c r="B216" t="n">
-        <v>1506227931</v>
+        <v>1506.227931</v>
       </c>
       <c r="C216" t="n">
         <v>203.93846421</v>
@@ -4771,7 +4771,7 @@
         <v>44926</v>
       </c>
       <c r="B217" t="n">
-        <v>1251006766.4</v>
+        <v>1251.0067664</v>
       </c>
       <c r="C217" t="n">
         <v>197.8467812295</v>
@@ -4791,7 +4791,7 @@
         <v>44957</v>
       </c>
       <c r="B218" t="n">
-        <v>1051380977.1</v>
+        <v>1051.3809771</v>
       </c>
       <c r="C218" t="n">
         <v>201.9736410755</v>
@@ -4811,7 +4811,7 @@
         <v>44985</v>
       </c>
       <c r="B219" t="n">
-        <v>1213906677.8</v>
+        <v>1213.9066778</v>
       </c>
       <c r="C219" t="n">
         <v>198.2450262127</v>
@@ -4831,7 +4831,7 @@
         <v>45016</v>
       </c>
       <c r="B220" t="n">
-        <v>1372822024.7</v>
+        <v>1372.8220247</v>
       </c>
       <c r="C220" t="n">
         <v>209.3447244532</v>
@@ -4851,7 +4851,7 @@
         <v>45046</v>
       </c>
       <c r="B221" t="n">
-        <v>1012381966.7</v>
+        <v>1012.3819667</v>
       </c>
       <c r="C221" t="n">
         <v>208.1155570891</v>
@@ -4871,7 +4871,7 @@
         <v>45077</v>
       </c>
       <c r="B222" t="n">
-        <v>1327915110.8</v>
+        <v>1327.9151108</v>
       </c>
       <c r="C222" t="n">
         <v>200.2367213736</v>
@@ -4891,7 +4891,7 @@
         <v>45107</v>
       </c>
       <c r="B223" t="n">
-        <v>1273885921.4</v>
+        <v>1273.8859214</v>
       </c>
       <c r="C223" t="n">
         <v>203.8257464652</v>
@@ -4911,7 +4911,7 @@
         <v>45138</v>
       </c>
       <c r="B224" t="n">
-        <v>1419644081.3</v>
+        <v>1419.6440813</v>
       </c>
       <c r="C224" t="n">
         <v>189.7389362718</v>
@@ -4931,7 +4931,7 @@
         <v>45169</v>
       </c>
       <c r="B225" t="n">
-        <v>1464106039.4</v>
+        <v>1464.1060394</v>
       </c>
       <c r="C225" t="n">
         <v>178.6060697243</v>
@@ -4951,7 +4951,7 @@
         <v>45199</v>
       </c>
       <c r="B226" t="n">
-        <v>1430146653</v>
+        <v>1430.146653</v>
       </c>
       <c r="C226" t="n">
         <v>178.3006951132</v>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://economicasuba-my.sharepoint.com/personal/94ba41666966_campus_economicas_uba_ar/Documents/Maestría UDESA/6- Técnicas de producción de conocimiento académico y profesional/TP4/Productos Primarios/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_74F1BF0F426A208E6E38F4F7495DCE3A87466DF2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32A7F8D6-30FE-443A-B39A-606130269AEA}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -40,11 +34,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,7 +49,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,7 +95,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -107,14 +104,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -402,17 +391,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F227"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,27 +415,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>38383</v>
       </c>
       <c r="B2">
-        <v>508.02073739999997</v>
+        <v>508.0207374</v>
       </c>
       <c r="C2">
-        <v>86.866026230900005</v>
+        <v>86.8660262309</v>
       </c>
       <c r="D2">
-        <v>1.1547166976706551</v>
+        <v>1.154716746962751</v>
       </c>
       <c r="E2">
-        <v>896.47809329268307</v>
+        <v>1011.32312432833</v>
       </c>
       <c r="F2">
         <v>1423.333333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>38411</v>
       </c>
@@ -457,219 +443,219 @@
         <v>500.53994136</v>
       </c>
       <c r="C3">
-        <v>87.907449219900002</v>
+        <v>87.9074492199</v>
       </c>
       <c r="D3">
-        <v>1.1604769628853491</v>
+        <v>1.160476982661733</v>
       </c>
       <c r="E3">
-        <v>872.65880781744352</v>
+        <v>984.4524239885028</v>
       </c>
       <c r="F3">
-        <v>969.66666666666663</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>969.6666666666666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>38442</v>
       </c>
       <c r="B4">
-        <v>656.18180228999995</v>
+        <v>656.18180229</v>
       </c>
       <c r="C4">
-        <v>86.226524549199993</v>
+        <v>86.22652454919999</v>
       </c>
       <c r="D4">
-        <v>1.1700615383951629</v>
+        <v>1.170061502882644</v>
       </c>
       <c r="E4">
-        <v>860.9070909634047</v>
+        <v>971.1952310978248</v>
       </c>
       <c r="F4">
         <v>1730</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>38472</v>
       </c>
       <c r="B5">
-        <v>939.06490688999997</v>
+        <v>939.06490689</v>
       </c>
       <c r="C5">
-        <v>87.964449517100007</v>
+        <v>87.96444951710001</v>
       </c>
       <c r="D5">
-        <v>1.149007866566784</v>
+        <v>1.149007840772287</v>
       </c>
       <c r="E5">
-        <v>863.17740419273582</v>
+        <v>973.7563871210111</v>
       </c>
       <c r="F5">
         <v>620</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>38503</v>
       </c>
       <c r="B6">
-        <v>1028.8238200999999</v>
+        <v>1028.8238201</v>
       </c>
       <c r="C6">
-        <v>89.117151551999996</v>
+        <v>89.117151552</v>
       </c>
       <c r="D6">
-        <v>1.1216085666526181</v>
+        <v>1.121608594912562</v>
       </c>
       <c r="E6">
-        <v>854.91819209693426</v>
+        <v>964.4391129525618</v>
       </c>
       <c r="F6">
-        <v>54.666666666666657</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>54.66666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>38533</v>
       </c>
       <c r="B7">
-        <v>789.54910830999995</v>
+        <v>789.54910831</v>
       </c>
       <c r="C7">
-        <v>94.718398930900008</v>
+        <v>94.71839893090001</v>
       </c>
       <c r="D7">
-        <v>1.109963566004309</v>
+        <v>1.109963587712496</v>
       </c>
       <c r="E7">
-        <v>843.40108634797923</v>
+        <v>951.4465864687605</v>
       </c>
       <c r="F7">
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>38564</v>
       </c>
       <c r="B8">
-        <v>831.76321801999995</v>
+        <v>831.76321802</v>
       </c>
       <c r="C8">
-        <v>92.284446326500003</v>
+        <v>92.2844463265</v>
       </c>
       <c r="D8">
-        <v>1.1041047241166571</v>
+        <v>1.104104699239149</v>
       </c>
       <c r="E8">
-        <v>832.67031250538071</v>
+        <v>939.341126435601</v>
       </c>
       <c r="F8">
-        <v>346.33333333333331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>346.3333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>38595</v>
       </c>
       <c r="B9">
-        <v>771.05281465999997</v>
+        <v>771.05281466</v>
       </c>
       <c r="C9">
-        <v>98.765482259199999</v>
+        <v>98.7654822592</v>
       </c>
       <c r="D9">
-        <v>1.108396253137764</v>
+        <v>1.10839627361993</v>
       </c>
       <c r="E9">
-        <v>832.76368385398632</v>
+        <v>939.4464592983907</v>
       </c>
       <c r="F9">
-        <v>516.66666666666663</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>516.6666666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>38625</v>
       </c>
       <c r="B10">
-        <v>577.04700692999995</v>
+        <v>577.04700693</v>
       </c>
       <c r="C10">
-        <v>97.550071414399994</v>
+        <v>97.55007141439999</v>
       </c>
       <c r="D10">
-        <v>1.112568400417228</v>
+        <v>1.112568426928449</v>
       </c>
       <c r="E10">
-        <v>829.74644244486353</v>
+        <v>936.0426884404557</v>
       </c>
       <c r="F10">
-        <v>493.33333333333331</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>493.3333333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>38656</v>
       </c>
       <c r="B11">
-        <v>433.10167653000002</v>
+        <v>433.10167653</v>
       </c>
       <c r="C11">
-        <v>100.21588082949999</v>
+        <v>100.2158808295</v>
       </c>
       <c r="D11">
-        <v>1.1143542222632841</v>
+        <v>1.114354236778151</v>
       </c>
       <c r="E11">
-        <v>841.01610711509693</v>
+        <v>948.7560749355699</v>
       </c>
       <c r="F11">
-        <v>527.66666666666663</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>527.6666666666666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>38686</v>
       </c>
       <c r="B12">
-        <v>363.84684386999999</v>
+        <v>363.84684387</v>
       </c>
       <c r="C12">
-        <v>98.576354959400007</v>
+        <v>98.57635495940001</v>
       </c>
       <c r="D12">
-        <v>1.1083917939621599</v>
+        <v>1.108391849915736</v>
       </c>
       <c r="E12">
-        <v>830.31226538336409</v>
+        <v>936.6809972025571</v>
       </c>
       <c r="F12">
-        <v>825.66666666666663</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>825.6666666666666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>38717</v>
       </c>
       <c r="B13">
-        <v>711.26092461999997</v>
+        <v>711.26092462</v>
       </c>
       <c r="C13">
         <v>118.9077642111</v>
       </c>
       <c r="D13">
-        <v>1.108932753226114</v>
+        <v>1.108932701162515</v>
       </c>
       <c r="E13">
-        <v>834.52017511232293</v>
+        <v>941.4279692098173</v>
       </c>
       <c r="F13">
-        <v>582.66666666666663</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>582.6666666666666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <v>38748</v>
       </c>
@@ -677,359 +663,359 @@
         <v>575.22207025</v>
       </c>
       <c r="C14">
-        <v>96.979225367400005</v>
+        <v>96.97922536740001</v>
       </c>
       <c r="D14">
-        <v>1.1126155372869719</v>
+        <v>1.112615554118765</v>
       </c>
       <c r="E14">
-        <v>833.54947503001381</v>
+        <v>940.3329157474166</v>
       </c>
       <c r="F14">
         <v>1680</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <v>38776</v>
       </c>
       <c r="B15">
-        <v>566.79433234999999</v>
+        <v>566.79433235</v>
       </c>
       <c r="C15">
         <v>111.7391453039</v>
       </c>
       <c r="D15">
-        <v>1.0967492767349869</v>
+        <v>1.096749305248833</v>
       </c>
       <c r="E15">
-        <v>836.34558301801337</v>
+        <v>943.4872244667707</v>
       </c>
       <c r="F15">
         <v>1110.666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>38807</v>
       </c>
       <c r="B16">
-        <v>704.60505074000002</v>
+        <v>704.60505074</v>
       </c>
       <c r="C16">
         <v>102.6816293286</v>
       </c>
       <c r="D16">
-        <v>1.093387933283368</v>
+        <v>1.093387992637562</v>
       </c>
       <c r="E16">
-        <v>824.8770824323874</v>
+        <v>930.5495298031824</v>
       </c>
       <c r="F16">
-        <v>884.66666666666663</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>884.6666666666666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="2">
         <v>38837</v>
       </c>
       <c r="B17">
-        <v>971.14094862000002</v>
+        <v>971.14094862</v>
       </c>
       <c r="C17">
-        <v>96.888350772799996</v>
+        <v>96.8883507728</v>
       </c>
       <c r="D17">
-        <v>1.1037523724123459</v>
+        <v>1.103752410618671</v>
       </c>
       <c r="E17">
-        <v>803.99208829298129</v>
+        <v>906.9890237711101</v>
       </c>
       <c r="F17">
         <v>1609.666666666667</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="2">
         <v>38868</v>
       </c>
       <c r="B18">
-        <v>919.80531145000009</v>
+        <v>919.8053114500001</v>
       </c>
       <c r="C18">
-        <v>105.61175736609999</v>
+        <v>105.6117573661</v>
       </c>
       <c r="D18">
-        <v>1.072605254467057</v>
+        <v>1.072605162661744</v>
       </c>
       <c r="E18">
-        <v>810.07512950203875</v>
+        <v>913.851344542794</v>
       </c>
       <c r="F18">
-        <v>29.666666666666671</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29.66666666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <v>38898</v>
       </c>
       <c r="B19">
-        <v>760.26669809999999</v>
+        <v>760.2666981</v>
       </c>
       <c r="C19">
         <v>106.1998918611</v>
       </c>
       <c r="D19">
-        <v>1.08667371501072</v>
+        <v>1.086673706500741</v>
       </c>
       <c r="E19">
-        <v>812.76250422289343</v>
+        <v>916.8829905130301</v>
       </c>
       <c r="F19">
         <v>450</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>38929</v>
       </c>
       <c r="B20">
-        <v>629.39593073000003</v>
+        <v>629.39593073</v>
       </c>
       <c r="C20">
         <v>110.733798123</v>
       </c>
       <c r="D20">
-        <v>1.071373288468155</v>
+        <v>1.071373218417746</v>
       </c>
       <c r="E20">
-        <v>808.06425608715983</v>
+        <v>911.5828643648849</v>
       </c>
       <c r="F20">
-        <v>90.666666666666671</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90.66666666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
         <v>38960</v>
       </c>
       <c r="B21">
-        <v>808.95868274999998</v>
+        <v>808.95868275</v>
       </c>
       <c r="C21">
-        <v>115.03431675900001</v>
+        <v>115.034316759</v>
       </c>
       <c r="D21">
-        <v>1.078135130212329</v>
+        <v>1.078135086992049</v>
       </c>
       <c r="E21">
-        <v>801.71315901117202</v>
+        <v>904.4181479196573</v>
       </c>
       <c r="F21">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <v>38990</v>
       </c>
       <c r="B22">
-        <v>606.15823907000004</v>
+        <v>606.15823907</v>
       </c>
       <c r="C22">
-        <v>108.73188511799999</v>
+        <v>108.731885118</v>
       </c>
       <c r="D22">
-        <v>1.0659430870473821</v>
+        <v>1.065943133317876</v>
       </c>
       <c r="E22">
-        <v>801.0348982204614</v>
+        <v>903.6529972404571</v>
       </c>
       <c r="F22">
-        <v>176.66666666666671</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>176.6666666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <v>39021</v>
       </c>
       <c r="B23">
-        <v>709.99661721000007</v>
+        <v>709.9966172100001</v>
       </c>
       <c r="C23">
         <v>114.3777850819</v>
       </c>
       <c r="D23">
-        <v>1.0694292261523359</v>
+        <v>1.069429215747073</v>
       </c>
       <c r="E23">
-        <v>793.93517821587773</v>
+        <v>895.6437541026578</v>
       </c>
       <c r="F23">
         <v>1593.333333333333</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
         <v>39051</v>
       </c>
       <c r="B24">
-        <v>685.78436665999993</v>
+        <v>685.7843666599999</v>
       </c>
       <c r="C24">
         <v>126.1586112487</v>
       </c>
       <c r="D24">
-        <v>1.0735219175452539</v>
+        <v>1.073521964715447</v>
       </c>
       <c r="E24">
-        <v>782.41535963445529</v>
+        <v>882.6481672538265</v>
       </c>
       <c r="F24">
         <v>915</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="2">
         <v>39082</v>
       </c>
       <c r="B25">
-        <v>686.99364233000006</v>
+        <v>686.9936423300001</v>
       </c>
       <c r="C25">
         <v>127.5636036694</v>
       </c>
       <c r="D25">
-        <v>1.055480805608078</v>
+        <v>1.055480778438325</v>
       </c>
       <c r="E25">
-        <v>770.52713397707726</v>
+        <v>869.2369778399491</v>
       </c>
       <c r="F25">
         <v>1975.666666666667</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>39113</v>
       </c>
       <c r="B26">
-        <v>608.58597238999994</v>
+        <v>608.5859723899999</v>
       </c>
       <c r="C26">
         <v>130.1704293814</v>
       </c>
       <c r="D26">
-        <v>1.059581947031883</v>
+        <v>1.059581930896432</v>
       </c>
       <c r="E26">
-        <v>766.99753352318453</v>
+        <v>865.2552112074253</v>
       </c>
       <c r="F26">
-        <v>813.33333333333337</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>813.3333333333334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2">
         <v>39141</v>
       </c>
       <c r="B27">
-        <v>640.86291505999998</v>
+        <v>640.86291506</v>
       </c>
       <c r="C27">
-        <v>131.13332760840001</v>
+        <v>131.1333276084</v>
       </c>
       <c r="D27">
-        <v>1.0632161627622461</v>
+        <v>1.063216191017406</v>
       </c>
       <c r="E27">
-        <v>764.43812232875359</v>
+        <v>862.3679217745225</v>
       </c>
       <c r="F27">
         <v>1903</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
         <v>39172</v>
       </c>
       <c r="B28">
-        <v>905.28961477999997</v>
+        <v>905.28961478</v>
       </c>
       <c r="C28">
         <v>122.0962430102</v>
       </c>
       <c r="D28">
-        <v>1.0581072457135059</v>
+        <v>1.058107212583475</v>
       </c>
       <c r="E28">
-        <v>755.16295111816601</v>
+        <v>851.9045371167681</v>
       </c>
       <c r="F28">
         <v>3448</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="2">
         <v>39202</v>
       </c>
       <c r="B29">
-        <v>1166.6365694000001</v>
+        <v>1166.6365694</v>
       </c>
       <c r="C29">
         <v>109.8044250782</v>
       </c>
       <c r="D29">
-        <v>1.041967880813256</v>
+        <v>1.041967963357626</v>
       </c>
       <c r="E29">
-        <v>740.02310197541135</v>
+        <v>834.8251688070826</v>
       </c>
       <c r="F29">
-        <v>471.33333333333331</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>471.3333333333333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="2">
         <v>39233</v>
       </c>
       <c r="B30">
-        <v>1261.2931281000001</v>
+        <v>1261.2931281</v>
       </c>
       <c r="C30">
         <v>114.6213866563</v>
       </c>
       <c r="D30">
-        <v>1.044372250929271</v>
+        <v>1.04437224628953</v>
       </c>
       <c r="E30">
-        <v>724.73932852379721</v>
+        <v>817.5834384912405</v>
       </c>
       <c r="F30">
         <v>461</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="2">
         <v>39263</v>
       </c>
       <c r="B31">
-        <v>1106.3062176999999</v>
+        <v>1106.3062177</v>
       </c>
       <c r="C31">
-        <v>125.67418826550001</v>
+        <v>125.6741882655</v>
       </c>
       <c r="D31">
-        <v>1.045901854198781</v>
+        <v>1.04590177128772</v>
       </c>
       <c r="E31">
-        <v>711.61110276625129</v>
+        <v>802.7733964061694</v>
       </c>
       <c r="F31">
-        <v>136.66666666666671</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>136.6666666666667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="2">
         <v>39294</v>
       </c>
@@ -1040,36 +1026,36 @@
         <v>126.854771419</v>
       </c>
       <c r="D32">
-        <v>1.057596607888466</v>
+        <v>1.057596615855156</v>
       </c>
       <c r="E32">
-        <v>704.78274620922764</v>
+        <v>795.0702802464504</v>
       </c>
       <c r="F32">
-        <v>16.666666666666671</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16.66666666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
         <v>39325</v>
       </c>
       <c r="B33">
-        <v>1156.1774416000001</v>
+        <v>1156.1774416</v>
       </c>
       <c r="C33">
-        <v>121.61104505599999</v>
+        <v>121.611045056</v>
       </c>
       <c r="D33">
-        <v>1.0630396646831419</v>
+        <v>1.06303958577078</v>
       </c>
       <c r="E33">
-        <v>699.15565022696603</v>
+        <v>788.7223144319435</v>
       </c>
       <c r="F33">
-        <v>56.666666666666657</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56.66666666666666</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
         <v>39355</v>
       </c>
@@ -1080,36 +1066,36 @@
         <v>123.5341835251</v>
       </c>
       <c r="D34">
-        <v>1.084317092894268</v>
+        <v>1.084317092981616</v>
       </c>
       <c r="E34">
-        <v>683.19418179461991</v>
+        <v>770.7160717310433</v>
       </c>
       <c r="F34">
         <v>764</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
         <v>39386</v>
       </c>
       <c r="B35">
-        <v>1196.7873910999999</v>
+        <v>1196.7873911</v>
       </c>
       <c r="C35">
-        <v>140.57754070409999</v>
+        <v>140.5775407041</v>
       </c>
       <c r="D35">
-        <v>1.059182134261885</v>
+        <v>1.059182077772251</v>
       </c>
       <c r="E35">
-        <v>675.98291909820193</v>
+        <v>762.5809965127438</v>
       </c>
       <c r="F35">
         <v>1136.666666666667</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="2">
         <v>39416</v>
       </c>
@@ -1117,59 +1103,59 @@
         <v>1002.3963884</v>
       </c>
       <c r="C36">
-        <v>142.29107621899999</v>
+        <v>142.291076219</v>
       </c>
       <c r="D36">
-        <v>1.064223496029524</v>
+        <v>1.064223470691403</v>
       </c>
       <c r="E36">
-        <v>669.59752476483391</v>
+        <v>755.3775890947536</v>
       </c>
       <c r="F36">
-        <v>448.66666666666669</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>448.6666666666667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
         <v>39447</v>
       </c>
       <c r="B37">
-        <v>1225.0728036999999</v>
+        <v>1225.0728037</v>
       </c>
       <c r="C37">
-        <v>181.83138307690001</v>
+        <v>181.8313830769</v>
       </c>
       <c r="D37">
-        <v>1.0566567736385399</v>
+        <v>1.056656755252476</v>
       </c>
       <c r="E37">
-        <v>659.72337574073629</v>
+        <v>744.2384934315719</v>
       </c>
       <c r="F37">
-        <v>951.66666666666663</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>951.6666666666666</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="2">
         <v>39478</v>
       </c>
       <c r="B38">
-        <v>1612.5940109000001</v>
+        <v>1612.5940109</v>
       </c>
       <c r="C38">
         <v>193.7594736742</v>
       </c>
       <c r="D38">
-        <v>1.063034709171409</v>
+        <v>1.063034651722973</v>
       </c>
       <c r="E38">
-        <v>651.77214414624996</v>
+        <v>735.2686541922667</v>
       </c>
       <c r="F38">
         <v>1094.666666666667</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="2">
         <v>39507</v>
       </c>
@@ -1177,19 +1163,19 @@
         <v>1181.7057172</v>
       </c>
       <c r="C39">
-        <v>186.32697925919999</v>
+        <v>186.3269792592</v>
       </c>
       <c r="D39">
-        <v>1.080684572615453</v>
+        <v>1.080684628783213</v>
       </c>
       <c r="E39">
-        <v>642.04236444725848</v>
+        <v>724.2924225611409</v>
       </c>
       <c r="F39">
         <v>1236.666666666667</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="2">
         <v>39538</v>
       </c>
@@ -1197,19 +1183,19 @@
         <v>1034.224825</v>
       </c>
       <c r="C40">
-        <v>186.31354706659999</v>
+        <v>186.3135470666</v>
       </c>
       <c r="D40">
-        <v>1.073551141820803</v>
+        <v>1.073551164352014</v>
       </c>
       <c r="E40">
-        <v>621.08497840628729</v>
+        <v>700.6502507252809</v>
       </c>
       <c r="F40">
-        <v>952.66666666666663</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>952.6666666666666</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="2">
         <v>39568</v>
       </c>
@@ -1220,16 +1206,16 @@
         <v>160.0936050048</v>
       </c>
       <c r="D41">
-        <v>1.065682851979727</v>
+        <v>1.065682914630776</v>
       </c>
       <c r="E41">
-        <v>604.69146508707149</v>
+        <v>682.1566152056289</v>
       </c>
       <c r="F41">
-        <v>243.33333333333329</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>243.3333333333333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="2">
         <v>39599</v>
       </c>
@@ -1237,19 +1223,19 @@
         <v>1652.4066699</v>
       </c>
       <c r="C42">
-        <v>162.09119784800001</v>
+        <v>162.091197848</v>
       </c>
       <c r="D42">
-        <v>1.0845848056955749</v>
+        <v>1.084584769666608</v>
       </c>
       <c r="E42">
-        <v>593.25789853239576</v>
+        <v>669.2583298634622</v>
       </c>
       <c r="F42">
-        <v>-0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="2">
         <v>39629</v>
       </c>
@@ -1257,19 +1243,19 @@
         <v>1443.3519443</v>
       </c>
       <c r="C43">
-        <v>163.81519714730001</v>
+        <v>163.8151971473</v>
       </c>
       <c r="D43">
-        <v>1.106238473053633</v>
+        <v>1.106238441840953</v>
       </c>
       <c r="E43">
-        <v>561.73382629329342</v>
+        <v>633.6958063986613</v>
       </c>
       <c r="F43">
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="2">
         <v>39660</v>
       </c>
@@ -1277,139 +1263,139 @@
         <v>2096.3136175</v>
       </c>
       <c r="C44">
-        <v>170.90342337320001</v>
+        <v>170.9034233732</v>
       </c>
       <c r="D44">
-        <v>1.089097402809474</v>
+        <v>1.089097252624813</v>
       </c>
       <c r="E44">
-        <v>548.45075217024441</v>
+        <v>618.7110788037385</v>
       </c>
       <c r="F44">
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" s="2">
         <v>39691</v>
       </c>
       <c r="B45">
-        <v>1723.1674579999999</v>
+        <v>1723.167458</v>
       </c>
       <c r="C45">
         <v>172.0475861919</v>
       </c>
       <c r="D45">
-        <v>1.09658440832471</v>
+        <v>1.09658425196178</v>
       </c>
       <c r="E45">
-        <v>543.82031474614803</v>
+        <v>613.4874503874051</v>
       </c>
       <c r="F45">
-        <v>20.666666666666671</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20.66666666666667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="2">
         <v>39721</v>
       </c>
       <c r="B46">
-        <v>1434.8757568999999</v>
+        <v>1434.8757569</v>
       </c>
       <c r="C46">
-        <v>182.34899043499999</v>
+        <v>182.348990435</v>
       </c>
       <c r="D46">
-        <v>1.0592456805000421</v>
+        <v>1.059245698901127</v>
       </c>
       <c r="E46">
-        <v>543.36678031758663</v>
+        <v>612.975815068355</v>
       </c>
       <c r="F46">
-        <v>324.33333333333331</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>324.3333333333333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="2">
         <v>39752</v>
       </c>
       <c r="B47">
-        <v>1114.9878556000001</v>
+        <v>1114.9878556</v>
       </c>
       <c r="C47">
-        <v>180.26310787599999</v>
+        <v>180.263107876</v>
       </c>
       <c r="D47">
-        <v>1.098891559827289</v>
+        <v>1.098891527829328</v>
       </c>
       <c r="E47">
-        <v>566.55300018013645</v>
+        <v>639.1323497212346</v>
       </c>
       <c r="F47">
-        <v>673.33333333333337</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>673.3333333333334</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="2">
         <v>39782</v>
       </c>
       <c r="B48">
-        <v>700.75604153999996</v>
+        <v>700.75604154</v>
       </c>
       <c r="C48">
-        <v>161.64634390079999</v>
+        <v>161.6463439008</v>
       </c>
       <c r="D48">
-        <v>1.160269245828125</v>
+        <v>1.160269208174237</v>
       </c>
       <c r="E48">
-        <v>577.85833797571877</v>
+        <v>651.8859793152627</v>
       </c>
       <c r="F48">
         <v>1310</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" s="2">
         <v>39813</v>
       </c>
       <c r="B49">
-        <v>653.16189008000003</v>
+        <v>653.16189008</v>
       </c>
       <c r="C49">
-        <v>140.19054822320001</v>
+        <v>140.1905482232</v>
       </c>
       <c r="D49">
-        <v>1.0715207773595741</v>
+        <v>1.071520776399496</v>
       </c>
       <c r="E49">
-        <v>589.43710798720156</v>
+        <v>664.9480696792142</v>
       </c>
       <c r="F49">
-        <v>421.66666666666669</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>421.6666666666667</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="2">
         <v>39844</v>
       </c>
       <c r="B50">
-        <v>708.21389421000003</v>
+        <v>708.21389421</v>
       </c>
       <c r="C50">
         <v>135.7287678555</v>
       </c>
       <c r="D50">
-        <v>1.0740793483961311</v>
+        <v>1.074079331251062</v>
       </c>
       <c r="E50">
-        <v>590.64736163871669</v>
+        <v>666.3133651763798</v>
       </c>
       <c r="F50">
-        <v>874.33333333333337</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>874.3333333333334</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="2">
         <v>39872</v>
       </c>
@@ -1417,39 +1403,39 @@
         <v>687.53960852</v>
       </c>
       <c r="C51">
-        <v>139.36167015550001</v>
+        <v>139.3616701555</v>
       </c>
       <c r="D51">
-        <v>1.093387207747182</v>
+        <v>1.093387183319229</v>
       </c>
       <c r="E51">
-        <v>596.73298697490975</v>
+        <v>673.1786011197204</v>
       </c>
       <c r="F51">
         <v>1680</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="2">
         <v>39903</v>
       </c>
       <c r="B52">
-        <v>842.27950778999991</v>
+        <v>842.2795077899999</v>
       </c>
       <c r="C52">
-        <v>139.20956198900001</v>
+        <v>139.209561989</v>
       </c>
       <c r="D52">
-        <v>1.079955472943769</v>
+        <v>1.079955442001201</v>
       </c>
       <c r="E52">
-        <v>611.85557026164872</v>
+        <v>690.2384916980695</v>
       </c>
       <c r="F52">
-        <v>936.66666666666663</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>936.6666666666666</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="2">
         <v>39933</v>
       </c>
@@ -1457,39 +1443,39 @@
         <v>1170.9814162</v>
       </c>
       <c r="C53">
-        <v>137.28595066669999</v>
+        <v>137.2859506667</v>
       </c>
       <c r="D53">
-        <v>1.0541324468391879</v>
+        <v>1.054132471808641</v>
       </c>
       <c r="E53">
-        <v>609.12041994544359</v>
+        <v>687.1529497489826</v>
       </c>
       <c r="F53">
-        <v>602.66666666666663</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>602.6666666666666</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="2">
         <v>39964</v>
       </c>
       <c r="B54">
-        <v>1047.2259839000001</v>
+        <v>1047.2259839</v>
       </c>
       <c r="C54">
-        <v>140.91237684980001</v>
+        <v>140.9123768498</v>
       </c>
       <c r="D54">
-        <v>1.037250819018561</v>
+        <v>1.037250810802511</v>
       </c>
       <c r="E54">
-        <v>608.67812570660669</v>
+        <v>686.6539945655378</v>
       </c>
       <c r="F54">
-        <v>171.33333333333329</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>171.3333333333333</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="2">
         <v>39994</v>
       </c>
@@ -1497,79 +1483,79 @@
         <v>810.9426949299999</v>
       </c>
       <c r="C55">
-        <v>152.00167248349999</v>
+        <v>152.0016724835</v>
       </c>
       <c r="D55">
-        <v>1.05144093273036</v>
+        <v>1.051440902549897</v>
       </c>
       <c r="E55">
-        <v>612.77277858531852</v>
+        <v>691.2732007383618</v>
       </c>
       <c r="F55">
-        <v>8.6666666666666661</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.666666666666666</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="2">
         <v>40025</v>
       </c>
       <c r="B56">
-        <v>804.42778227999997</v>
+        <v>804.42778228</v>
       </c>
       <c r="C56">
-        <v>151.32484274890001</v>
+        <v>151.3248427489</v>
       </c>
       <c r="D56">
-        <v>1.048700342815196</v>
+        <v>1.048700317610234</v>
       </c>
       <c r="E56">
-        <v>615.20790720002401</v>
+        <v>694.0202861353064</v>
       </c>
       <c r="F56">
         <v>706</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" s="2">
         <v>40056</v>
       </c>
       <c r="B57">
-        <v>832.28266754999993</v>
+        <v>832.2826675499999</v>
       </c>
       <c r="C57">
-        <v>157.08834250979999</v>
+        <v>157.0883425098</v>
       </c>
       <c r="D57">
-        <v>1.023084325147892</v>
+        <v>1.023084330058815</v>
       </c>
       <c r="E57">
-        <v>610.61454785963303</v>
+        <v>688.8384857611056</v>
       </c>
       <c r="F57">
-        <v>75.333333333333329</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75.33333333333333</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="2">
         <v>40086</v>
       </c>
       <c r="B58">
-        <v>553.96352340999999</v>
+        <v>553.96352341</v>
       </c>
       <c r="C58">
-        <v>153.58681474139999</v>
+        <v>153.5868147414</v>
       </c>
       <c r="D58">
-        <v>1.0263950988013351</v>
+        <v>1.026395061310164</v>
       </c>
       <c r="E58">
-        <v>602.11641913441815</v>
+        <v>679.251688094068</v>
       </c>
       <c r="F58">
         <v>1230.666666666667</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="2">
         <v>40117</v>
       </c>
@@ -1577,99 +1563,99 @@
         <v>497.73933087</v>
       </c>
       <c r="C59">
-        <v>155.92156427520001</v>
+        <v>155.9215642752</v>
       </c>
       <c r="D59">
-        <v>1.010279904050948</v>
+        <v>1.010279869086176</v>
       </c>
       <c r="E59">
-        <v>592.88366865235628</v>
+        <v>668.8361585529415</v>
       </c>
       <c r="F59">
         <v>776</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" s="2">
         <v>40147</v>
       </c>
       <c r="B60">
-        <v>545.17300964999993</v>
+        <v>545.1730096499999</v>
       </c>
       <c r="C60">
-        <v>150.72880207750001</v>
+        <v>150.7288020775</v>
       </c>
       <c r="D60">
-        <v>1.013453364648973</v>
+        <v>1.013453352440374</v>
       </c>
       <c r="E60">
-        <v>583.47677713979931</v>
+        <v>658.2241793134322</v>
       </c>
       <c r="F60">
         <v>1781.333333333333</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" s="2">
         <v>40178</v>
       </c>
       <c r="B61">
-        <v>756.10166460000005</v>
+        <v>756.1016646</v>
       </c>
       <c r="C61">
         <v>173.9496336473</v>
       </c>
       <c r="D61">
-        <v>1.0124152814409759</v>
+        <v>1.012415203755716</v>
       </c>
       <c r="E61">
-        <v>569.61409139717546</v>
+        <v>642.5855878501213</v>
       </c>
       <c r="F61">
         <v>2542.666666666667</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" s="2">
         <v>40209</v>
       </c>
       <c r="B62">
-        <v>799.50821035000001</v>
+        <v>799.50821035</v>
       </c>
       <c r="C62">
-        <v>170.57913165350001</v>
+        <v>170.5791316535</v>
       </c>
       <c r="D62">
-        <v>1.022767954849372</v>
+        <v>1.022768011896067</v>
       </c>
       <c r="E62">
-        <v>557.4710387904737</v>
+        <v>628.8869263959551</v>
       </c>
       <c r="F62">
         <v>1805.666666666667</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" s="2">
         <v>40237</v>
       </c>
       <c r="B63">
-        <v>544.72625041999993</v>
+        <v>544.7262504199999</v>
       </c>
       <c r="C63">
-        <v>165.69380728780001</v>
+        <v>165.6938072878</v>
       </c>
       <c r="D63">
-        <v>1.02345278021021</v>
+        <v>1.023452746802233</v>
       </c>
       <c r="E63">
-        <v>546.45381539867537</v>
+        <v>616.4583206493348</v>
       </c>
       <c r="F63">
         <v>2460.333333333333</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" s="2">
         <v>40268</v>
       </c>
@@ -1677,39 +1663,39 @@
         <v>920.2400075700001</v>
       </c>
       <c r="C64">
-        <v>171.88973106879999</v>
+        <v>171.8897310688</v>
       </c>
       <c r="D64">
-        <v>1.024214124956319</v>
+        <v>1.024214141522039</v>
       </c>
       <c r="E64">
-        <v>533.90473722898264</v>
+        <v>602.3016189552638</v>
       </c>
       <c r="F64">
         <v>723</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" s="2">
         <v>40298</v>
       </c>
       <c r="B65">
-        <v>1781.8858471999999</v>
+        <v>1781.8858472</v>
       </c>
       <c r="C65">
         <v>148.918618936</v>
       </c>
       <c r="D65">
-        <v>1.021786096932932</v>
+        <v>1.021786127740594</v>
       </c>
       <c r="E65">
-        <v>525.48030229530093</v>
+        <v>592.7979557630723</v>
       </c>
       <c r="F65">
-        <v>815.66666666666663</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>815.6666666666666</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="2">
         <v>40329</v>
       </c>
@@ -1717,79 +1703,79 @@
         <v>2042.0306773</v>
       </c>
       <c r="C66">
-        <v>149.51745828840001</v>
+        <v>149.5174582884</v>
       </c>
       <c r="D66">
-        <v>1.0278262174984669</v>
+        <v>1.027826236305976</v>
       </c>
       <c r="E66">
-        <v>521.2040604653921</v>
+        <v>587.9738978411181</v>
       </c>
       <c r="F66">
-        <v>743.33333333333337</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>743.3333333333334</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="2">
         <v>40359</v>
       </c>
       <c r="B67">
-        <v>1901.6325102000001</v>
+        <v>1901.6325102</v>
       </c>
       <c r="C67">
-        <v>145.76983529890001</v>
+        <v>145.7698352989</v>
       </c>
       <c r="D67">
-        <v>1.0321633214651571</v>
+        <v>1.032163341103641</v>
       </c>
       <c r="E67">
-        <v>519.70789910067776</v>
+        <v>586.2860678794235</v>
       </c>
       <c r="F67">
-        <v>158.66666666666671</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>158.6666666666667</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="2">
         <v>40390</v>
       </c>
       <c r="B68">
-        <v>1489.7682844999999</v>
+        <v>1489.7682845</v>
       </c>
       <c r="C68">
         <v>146.1466382102</v>
       </c>
       <c r="D68">
-        <v>1.021732086084554</v>
+        <v>1.021732089229585</v>
       </c>
       <c r="E68">
-        <v>511.81403946408801</v>
+        <v>577.3809503417896</v>
       </c>
       <c r="F68">
-        <v>203.33333333333329</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>203.3333333333333</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="2">
         <v>40421</v>
       </c>
       <c r="B69">
-        <v>1844.0300142000001</v>
+        <v>1844.0300142</v>
       </c>
       <c r="C69">
-        <v>153.50474544010001</v>
+        <v>153.5047454401</v>
       </c>
       <c r="D69">
-        <v>1.0183288022314401</v>
+        <v>1.018328858511245</v>
       </c>
       <c r="E69">
-        <v>506.56356538681172</v>
+        <v>571.4578542976542</v>
       </c>
       <c r="F69">
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70" s="2">
         <v>40451</v>
       </c>
@@ -1797,119 +1783,119 @@
         <v>1256.4180033</v>
       </c>
       <c r="C70">
-        <v>155.55454649040001</v>
+        <v>155.5545464904</v>
       </c>
       <c r="D70">
-        <v>1.0207893588794741</v>
+        <v>1.020789404075074</v>
       </c>
       <c r="E70">
-        <v>501.68557739652312</v>
+        <v>565.9549623790625</v>
       </c>
       <c r="F70">
         <v>1018.333333333333</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71" s="2">
         <v>40482</v>
       </c>
       <c r="B71">
-        <v>903.99296692999997</v>
+        <v>903.99296693</v>
       </c>
       <c r="C71">
-        <v>166.74404287830001</v>
+        <v>166.7440428783</v>
       </c>
       <c r="D71">
-        <v>1.010748580232705</v>
+        <v>1.010748562382503</v>
       </c>
       <c r="E71">
-        <v>489.41827515653438</v>
+        <v>552.1161340560431</v>
       </c>
       <c r="F71">
-        <v>498.33333333333331</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>498.3333333333333</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="2">
         <v>40512</v>
       </c>
       <c r="B72">
-        <v>777.80134587999999</v>
+        <v>777.80134588</v>
       </c>
       <c r="C72">
-        <v>181.82029646999999</v>
+        <v>181.82029647</v>
       </c>
       <c r="D72">
-        <v>1.018925308297399</v>
+        <v>1.018925285271101</v>
       </c>
       <c r="E72">
-        <v>481.64565601363847</v>
+        <v>543.3477887561191</v>
       </c>
       <c r="F72">
-        <v>338.33333333333331</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>338.3333333333333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="2">
         <v>40543</v>
       </c>
       <c r="B73">
-        <v>886.52598283999998</v>
+        <v>886.52598284</v>
       </c>
       <c r="C73">
         <v>197.4006931978</v>
       </c>
       <c r="D73">
-        <v>1.0320539849017589</v>
+        <v>1.032053976025498</v>
       </c>
       <c r="E73">
-        <v>475.34261576929123</v>
+        <v>536.2372855543422</v>
       </c>
       <c r="F73">
-        <v>990.66666666666663</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>990.6666666666666</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="2">
         <v>40574</v>
       </c>
       <c r="B74">
-        <v>1039.3343807000001</v>
+        <v>1039.3343807</v>
       </c>
       <c r="C74">
         <v>206.4129766154</v>
       </c>
       <c r="D74">
-        <v>1.0427706871363209</v>
+        <v>1.042770691899214</v>
       </c>
       <c r="E74">
-        <v>467.71351930502942</v>
+        <v>527.6308491787457</v>
       </c>
       <c r="F74">
         <v>1615.666666666667</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75" s="2">
         <v>40602</v>
       </c>
       <c r="B75">
-        <v>1080.5782031000001</v>
+        <v>1080.5782031</v>
       </c>
       <c r="C75">
         <v>202.3160778605</v>
       </c>
       <c r="D75">
-        <v>1.0550369348753019</v>
+        <v>1.055036917844764</v>
       </c>
       <c r="E75">
-        <v>467.80762632964911</v>
+        <v>527.7370119627242</v>
       </c>
       <c r="F75">
         <v>1497</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76" s="2">
         <v>40633</v>
       </c>
@@ -1920,16 +1906,16 @@
         <v>214.2470565257</v>
       </c>
       <c r="D76">
-        <v>1.070818891748776</v>
+        <v>1.070818913930399</v>
       </c>
       <c r="E76">
-        <v>459.04255594361092</v>
+        <v>517.8490755657421</v>
       </c>
       <c r="F76">
         <v>1014</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77" s="2">
         <v>40663</v>
       </c>
@@ -1940,36 +1926,36 @@
         <v>210.1541345613</v>
       </c>
       <c r="D77">
-        <v>1.071047777787461</v>
+        <v>1.071047757138038</v>
       </c>
       <c r="E77">
-        <v>451.33957029752662</v>
+        <v>509.1592842941657</v>
       </c>
       <c r="F77">
         <v>1227</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78" s="2">
         <v>40694</v>
       </c>
       <c r="B78">
-        <v>2238.1284664999998</v>
+        <v>2238.1284665</v>
       </c>
       <c r="C78">
-        <v>210.12852957039999</v>
+        <v>210.1285295704</v>
       </c>
       <c r="D78">
-        <v>1.0794870916813331</v>
+        <v>1.079487079679903</v>
       </c>
       <c r="E78">
-        <v>447.1016987456303</v>
+        <v>504.3785121476603</v>
       </c>
       <c r="F78">
         <v>706</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79" s="2">
         <v>40724</v>
       </c>
@@ -1980,116 +1966,116 @@
         <v>215.6139099863</v>
       </c>
       <c r="D79">
-        <v>1.063861882678681</v>
+        <v>1.063861897337715</v>
       </c>
       <c r="E79">
-        <v>441.98501917299382</v>
+        <v>498.6063506076277</v>
       </c>
       <c r="F79">
-        <v>278.33333333333331</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>278.3333333333333</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="2">
         <v>40755</v>
       </c>
       <c r="B80">
-        <v>1903.2324983000001</v>
+        <v>1903.2324983</v>
       </c>
       <c r="C80">
-        <v>205.38315951920001</v>
+        <v>205.3831595192</v>
       </c>
       <c r="D80">
-        <v>1.0379551730269869</v>
+        <v>1.037955172998707</v>
       </c>
       <c r="E80">
-        <v>437.64335166793148</v>
+        <v>493.7084855299801</v>
       </c>
       <c r="F80">
-        <v>153.33333333333329</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153.3333333333333</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="2">
         <v>40786</v>
       </c>
       <c r="B81">
-        <v>2241.6778248999999</v>
+        <v>2241.6778249</v>
       </c>
       <c r="C81">
         <v>207.8154605439</v>
       </c>
       <c r="D81">
-        <v>1.0598502275589119</v>
+        <v>1.059850216978603</v>
       </c>
       <c r="E81">
-        <v>433.17188700854928</v>
+        <v>488.6641953867142</v>
       </c>
       <c r="F81">
-        <v>46.666666666666657</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46.66666666666666</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="2">
         <v>40816</v>
       </c>
       <c r="B82">
-        <v>2049.4837584000002</v>
+        <v>2049.4837584</v>
       </c>
       <c r="C82">
-        <v>201.31178868999999</v>
+        <v>201.31178869</v>
       </c>
       <c r="D82">
-        <v>1.1009287547778659</v>
+        <v>1.100928752222257</v>
       </c>
       <c r="E82">
-        <v>430.78720784283809</v>
+        <v>485.9740223613703</v>
       </c>
       <c r="F82">
-        <v>236.66666666666671</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>236.6666666666667</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="2">
         <v>40847</v>
       </c>
       <c r="B83">
-        <v>1591.7984647999999</v>
+        <v>1591.7984648</v>
       </c>
       <c r="C83">
         <v>195.0626635955</v>
       </c>
       <c r="D83">
-        <v>1.125739437868839</v>
+        <v>1.12573942376125</v>
       </c>
       <c r="E83">
-        <v>425.40054279726058</v>
+        <v>479.8972883459356</v>
       </c>
       <c r="F83">
         <v>1406.666666666667</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="A84" s="2">
         <v>40877</v>
       </c>
       <c r="B84">
-        <v>1186.2552522000001</v>
+        <v>1186.2552522</v>
       </c>
       <c r="C84">
-        <v>201.36763766359999</v>
+        <v>201.3676376636</v>
       </c>
       <c r="D84">
-        <v>1.120103209147806</v>
+        <v>1.120103174919842</v>
       </c>
       <c r="E84">
-        <v>424.67767912952348</v>
+        <v>479.0818208533232</v>
       </c>
       <c r="F84">
         <v>1060.666666666667</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85" s="2">
         <v>40908</v>
       </c>
@@ -2097,39 +2083,39 @@
         <v>1120.6652614</v>
       </c>
       <c r="C85">
-        <v>198.25652212360001</v>
+        <v>198.2565221236</v>
       </c>
       <c r="D85">
-        <v>1.1087199298722861</v>
+        <v>1.108719853111688</v>
       </c>
       <c r="E85">
-        <v>419.72483927995501</v>
+        <v>473.4944880356677</v>
       </c>
       <c r="F85">
-        <v>276.33333333333331</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>276.3333333333333</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="2">
         <v>40939</v>
       </c>
       <c r="B86">
-        <v>1113.0360035000001</v>
+        <v>1113.0360035</v>
       </c>
       <c r="C86">
-        <v>186.67693496679999</v>
+        <v>186.6769349668</v>
       </c>
       <c r="D86">
-        <v>1.0851778477771841</v>
+        <v>1.085177845168128</v>
       </c>
       <c r="E86">
-        <v>416.3092490040666</v>
+        <v>469.6413370718224</v>
       </c>
       <c r="F86">
         <v>1246</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6">
       <c r="A87" s="2">
         <v>40968</v>
       </c>
@@ -2137,39 +2123,39 @@
         <v>1490.5841765</v>
       </c>
       <c r="C87">
-        <v>195.14471753340001</v>
+        <v>195.1447175334</v>
       </c>
       <c r="D87">
-        <v>1.098405963473728</v>
+        <v>1.098405959625512</v>
       </c>
       <c r="E87">
-        <v>413.00139764631501</v>
+        <v>465.9097271251162</v>
       </c>
       <c r="F87">
         <v>1918.666666666667</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="A88" s="2">
         <v>40999</v>
       </c>
       <c r="B88">
-        <v>1505.3315316000001</v>
+        <v>1505.3315316</v>
       </c>
       <c r="C88">
-        <v>205.22592774699999</v>
+        <v>205.225927747</v>
       </c>
       <c r="D88">
-        <v>1.1533415120923509</v>
+        <v>1.153341530386675</v>
       </c>
       <c r="E88">
-        <v>401.9338130193745</v>
+        <v>453.4243085215504</v>
       </c>
       <c r="F88">
         <v>1236.333333333333</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="A89" s="2">
         <v>41029</v>
       </c>
@@ -2177,79 +2163,79 @@
         <v>1692.1786714</v>
       </c>
       <c r="C89">
-        <v>199.72283560790001</v>
+        <v>199.7228356079</v>
       </c>
       <c r="D89">
-        <v>1.246216541873266</v>
+        <v>1.24621655066432</v>
       </c>
       <c r="E89">
-        <v>396.35325472030638</v>
+        <v>447.1288421886466</v>
       </c>
       <c r="F89">
         <v>328</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
       <c r="A90" s="2">
         <v>41060</v>
       </c>
       <c r="B90">
-        <v>1891.8419868000001</v>
+        <v>1891.8419868</v>
       </c>
       <c r="C90">
         <v>192.5124765237</v>
       </c>
       <c r="D90">
-        <v>1.316152932267115</v>
+        <v>1.316152971393867</v>
       </c>
       <c r="E90">
-        <v>394.89933089363211</v>
+        <v>445.4886606851286</v>
       </c>
       <c r="F90">
-        <v>911.66666666666663</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>911.6666666666666</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="2">
         <v>41090</v>
       </c>
       <c r="B91">
-        <v>1789.0723046999999</v>
+        <v>1789.0723047</v>
       </c>
       <c r="C91">
         <v>196.989803776</v>
       </c>
       <c r="D91">
-        <v>1.4546091569027719</v>
+        <v>1.454609178868028</v>
       </c>
       <c r="E91">
-        <v>393.11454559037242</v>
+        <v>443.4752320663452</v>
       </c>
       <c r="F91">
         <v>51</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="A92" s="2">
         <v>41121</v>
       </c>
       <c r="B92">
-        <v>2259.9961904000002</v>
+        <v>2259.9961904</v>
       </c>
       <c r="C92">
         <v>203.3923255862</v>
       </c>
       <c r="D92">
-        <v>1.494916666103725</v>
+        <v>1.494916635686888</v>
       </c>
       <c r="E92">
-        <v>391.7800200907775</v>
+        <v>441.9697446396653</v>
       </c>
       <c r="F92">
         <v>59</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="A93" s="2">
         <v>41152</v>
       </c>
@@ -2257,19 +2243,19 @@
         <v>1952.7856826</v>
       </c>
       <c r="C93">
-        <v>205.75336640169999</v>
+        <v>205.7533664017</v>
       </c>
       <c r="D93">
-        <v>1.427120868588843</v>
+        <v>1.42712091070155</v>
       </c>
       <c r="E93">
-        <v>391.14099111836748</v>
+        <v>441.2488516454592</v>
       </c>
       <c r="F93">
         <v>1329.666666666667</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="A94" s="2">
         <v>41182</v>
       </c>
@@ -2280,16 +2266,16 @@
         <v>199.634599845</v>
       </c>
       <c r="D94">
-        <v>1.361939379070608</v>
+        <v>1.361939342101638</v>
       </c>
       <c r="E94">
-        <v>390.23219802904691</v>
+        <v>440.2236358891163</v>
       </c>
       <c r="F94">
         <v>1256</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="A95" s="2">
         <v>41213</v>
       </c>
@@ -2297,19 +2283,19 @@
         <v>1339.2626206</v>
       </c>
       <c r="C95">
-        <v>204.03377721850001</v>
+        <v>204.0337772185</v>
       </c>
       <c r="D95">
-        <v>1.3508100769847211</v>
+        <v>1.350810098902289</v>
       </c>
       <c r="E95">
-        <v>388.79004115464431</v>
+        <v>438.5967287656691</v>
       </c>
       <c r="F95">
         <v>3063.333333333333</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6">
       <c r="A96" s="2">
         <v>41243</v>
       </c>
@@ -2320,16 +2306,16 @@
         <v>217.4668054759</v>
       </c>
       <c r="D96">
-        <v>1.435442211399528</v>
+        <v>1.435442233136357</v>
       </c>
       <c r="E96">
-        <v>386.56691940312498</v>
+        <v>436.0888097743069</v>
       </c>
       <c r="F96">
         <v>1191.333333333333</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="A97" s="2">
         <v>41274</v>
       </c>
@@ -2337,39 +2323,39 @@
         <v>1275.8562861</v>
       </c>
       <c r="C97">
-        <v>208.39375097019999</v>
+        <v>208.3937509702</v>
       </c>
       <c r="D97">
-        <v>1.371101322980016</v>
+        <v>1.371101355535014</v>
       </c>
       <c r="E97">
-        <v>386.85816369369752</v>
+        <v>436.4173644686027</v>
       </c>
       <c r="F97">
         <v>2283</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="A98" s="2">
         <v>41305</v>
       </c>
       <c r="B98">
-        <v>1243.0118993999999</v>
+        <v>1243.0118994</v>
       </c>
       <c r="C98">
         <v>202.2938870138</v>
       </c>
       <c r="D98">
-        <v>1.466709614681293</v>
+        <v>1.466709610165601</v>
       </c>
       <c r="E98">
-        <v>384.04368151628768</v>
+        <v>433.2423276993604</v>
       </c>
       <c r="F98">
         <v>472</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6">
       <c r="A99" s="2">
         <v>41333</v>
       </c>
@@ -2380,16 +2366,16 @@
         <v>209.8478633025</v>
       </c>
       <c r="D99">
-        <v>1.553735711521228</v>
+        <v>1.55373573026516</v>
       </c>
       <c r="E99">
-        <v>382.35548783395637</v>
+        <v>431.3378647547993</v>
       </c>
       <c r="F99">
-        <v>973.66666666666663</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <v>973.6666666666666</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="2">
         <v>41364</v>
       </c>
@@ -2397,99 +2383,99 @@
         <v>1702.1321713</v>
       </c>
       <c r="C100">
-        <v>223.25102579080001</v>
+        <v>223.2510257908</v>
       </c>
       <c r="D100">
-        <v>1.617659029441735</v>
+        <v>1.617659032553287</v>
       </c>
       <c r="E100">
-        <v>381.72477298011268</v>
+        <v>430.62635097513</v>
       </c>
       <c r="F100">
         <v>1739.333333333333</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6">
       <c r="A101" s="2">
         <v>41394</v>
       </c>
       <c r="B101">
-        <v>2172.4070283000001</v>
+        <v>2172.4070283</v>
       </c>
       <c r="C101">
-        <v>217.11887345509999</v>
+        <v>217.1188734551</v>
       </c>
       <c r="D101">
-        <v>1.696742270264807</v>
+        <v>1.696742225234112</v>
       </c>
       <c r="E101">
-        <v>379.20409204353717</v>
+        <v>427.7827534134212</v>
       </c>
       <c r="F101">
-        <v>487.66666666666669</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+        <v>487.6666666666667</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="2">
         <v>41425</v>
       </c>
       <c r="B102">
-        <v>2394.8628527000001</v>
+        <v>2394.8628527</v>
       </c>
       <c r="C102">
-        <v>214.94180458470001</v>
+        <v>214.9418045847</v>
       </c>
       <c r="D102">
-        <v>1.6997824128077881</v>
+        <v>1.699782359023682</v>
       </c>
       <c r="E102">
-        <v>379.17514534283572</v>
+        <v>427.7500984405764</v>
       </c>
       <c r="F102">
-        <v>939.33333333333337</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+        <v>939.3333333333334</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="2">
         <v>41455</v>
       </c>
       <c r="B103">
-        <v>2090.2209231000002</v>
+        <v>2090.2209231</v>
       </c>
       <c r="C103">
-        <v>216.71539178890001</v>
+        <v>216.7153917889</v>
       </c>
       <c r="D103">
-        <v>1.5209511102479469</v>
+        <v>1.520951125114051</v>
       </c>
       <c r="E103">
-        <v>378.58214263494</v>
+        <v>427.0811279930314</v>
       </c>
       <c r="F103">
         <v>183</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6">
       <c r="A104" s="2">
         <v>41486</v>
       </c>
       <c r="B104">
-        <v>1875.6800121000001</v>
+        <v>1875.6800121</v>
       </c>
       <c r="C104">
-        <v>208.62588783210001</v>
+        <v>208.6258878321</v>
       </c>
       <c r="D104">
-        <v>1.501902000763162</v>
+        <v>1.501901985851254</v>
       </c>
       <c r="E104">
-        <v>376.51291904403968</v>
+        <v>424.7468225788333</v>
       </c>
       <c r="F104">
-        <v>240.33333333333329</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+        <v>240.3333333333333</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="2">
         <v>41517</v>
       </c>
@@ -2500,16 +2486,16 @@
         <v>193.9720525022</v>
       </c>
       <c r="D105">
-        <v>1.5314674047230921</v>
+        <v>1.53146739343396</v>
       </c>
       <c r="E105">
-        <v>379.09426159205879</v>
+        <v>427.6588529230839</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6">
       <c r="A106" s="2">
         <v>41547</v>
       </c>
@@ -2517,119 +2503,119 @@
         <v>1296.777135</v>
       </c>
       <c r="C106">
-        <v>186.18400160990001</v>
+        <v>186.1840016099</v>
       </c>
       <c r="D106">
-        <v>1.5813782834540271</v>
+        <v>1.581378257890339</v>
       </c>
       <c r="E106">
-        <v>382.00012868731949</v>
+        <v>430.9369816488714</v>
       </c>
       <c r="F106">
-        <v>249.33333333333329</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+        <v>249.3333333333333</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="2">
         <v>41578</v>
       </c>
       <c r="B107">
-        <v>883.58192214999997</v>
+        <v>883.58192215</v>
       </c>
       <c r="C107">
-        <v>177.86760056439999</v>
+        <v>177.8676005644</v>
       </c>
       <c r="D107">
-        <v>1.568470255823704</v>
+        <v>1.568470261951235</v>
       </c>
       <c r="E107">
-        <v>379.6359172269747</v>
+        <v>428.2698983832148</v>
       </c>
       <c r="F107">
         <v>1614</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6">
       <c r="A108" s="2">
         <v>41608</v>
       </c>
       <c r="B108">
-        <v>439.56847062000003</v>
+        <v>439.56847062</v>
       </c>
       <c r="C108">
-        <v>181.62028116350001</v>
+        <v>181.6202811635</v>
       </c>
       <c r="D108">
-        <v>1.5101485260426131</v>
+        <v>1.510148529020277</v>
       </c>
       <c r="E108">
-        <v>380.96733761290841</v>
+        <v>429.7718829097427</v>
       </c>
       <c r="F108">
         <v>1580.666666666667</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6">
       <c r="A109" s="2">
         <v>41639</v>
       </c>
       <c r="B109">
-        <v>621.53481439999996</v>
+        <v>621.5348144</v>
       </c>
       <c r="C109">
-        <v>184.80074310520001</v>
+        <v>184.8007431052</v>
       </c>
       <c r="D109">
-        <v>1.3453485704527011</v>
+        <v>1.345348598511717</v>
       </c>
       <c r="E109">
-        <v>388.91421055345029</v>
+        <v>438.7368051214506</v>
       </c>
       <c r="F109">
         <v>716</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6">
       <c r="A110" s="2">
         <v>41670</v>
       </c>
       <c r="B110">
-        <v>643.87031373000002</v>
+        <v>643.87031373</v>
       </c>
       <c r="C110">
-        <v>179.47113523260001</v>
+        <v>179.4711352326</v>
       </c>
       <c r="D110">
-        <v>1.4459285942529021</v>
+        <v>1.4459285579841</v>
       </c>
       <c r="E110">
-        <v>412.91402938770619</v>
+        <v>465.8111663895841</v>
       </c>
       <c r="F110">
         <v>1158.666666666667</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6">
       <c r="A111" s="2">
         <v>41698</v>
       </c>
       <c r="B111">
-        <v>797.99147460000006</v>
+        <v>797.9914746000001</v>
       </c>
       <c r="C111">
-        <v>192.69272512239999</v>
+        <v>192.6927251224</v>
       </c>
       <c r="D111">
-        <v>1.400354869020886</v>
+        <v>1.400354852273893</v>
       </c>
       <c r="E111">
-        <v>439.4738740856651</v>
+        <v>495.7735105032685</v>
       </c>
       <c r="F111">
         <v>2211.666666666667</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6">
       <c r="A112" s="2">
         <v>41729</v>
       </c>
@@ -2637,19 +2623,19 @@
         <v>902.2366830499999</v>
       </c>
       <c r="C112">
-        <v>182.37462059859999</v>
+        <v>182.3746205986</v>
       </c>
       <c r="D112">
-        <v>1.2971515758179899</v>
+        <v>1.297151603771001</v>
       </c>
       <c r="E112">
-        <v>427.32872892915668</v>
+        <v>482.0724884292231</v>
       </c>
       <c r="F112">
         <v>1320.666666666667</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6">
       <c r="A113" s="2">
         <v>41759</v>
       </c>
@@ -2657,59 +2643,59 @@
         <v>1581.2448141</v>
       </c>
       <c r="C113">
-        <v>190.95243038390001</v>
+        <v>190.9524303839</v>
       </c>
       <c r="D113">
-        <v>1.22579190329581</v>
+        <v>1.225791891810966</v>
       </c>
       <c r="E113">
-        <v>420.72935093104923</v>
+        <v>474.6276845621746</v>
       </c>
       <c r="F113">
         <v>1242.333333333333</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6">
       <c r="A114" s="2">
         <v>41790</v>
       </c>
       <c r="B114">
-        <v>1672.2316175000001</v>
+        <v>1672.2316175</v>
       </c>
       <c r="C114">
-        <v>190.36098356369999</v>
+        <v>190.3609835637</v>
       </c>
       <c r="D114">
-        <v>1.291950902266958</v>
+        <v>1.291950897514798</v>
       </c>
       <c r="E114">
-        <v>412.51302090143668</v>
+        <v>465.3587859485555</v>
       </c>
       <c r="F114">
         <v>564</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6">
       <c r="A115" s="2">
         <v>41820</v>
       </c>
       <c r="B115">
-        <v>1743.3798280000001</v>
+        <v>1743.379828</v>
       </c>
       <c r="C115">
-        <v>192.03429651179999</v>
+        <v>192.0342965118</v>
       </c>
       <c r="D115">
-        <v>1.283811867702761</v>
+        <v>1.28381188258004</v>
       </c>
       <c r="E115">
-        <v>408.39582378819262</v>
+        <v>460.7141474691608</v>
       </c>
       <c r="F115">
         <v>312</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6">
       <c r="A116" s="2">
         <v>41851</v>
       </c>
@@ -2717,19 +2703,19 @@
         <v>1837.5110342</v>
       </c>
       <c r="C116">
-        <v>189.34835720909999</v>
+        <v>189.3483572091</v>
       </c>
       <c r="D116">
-        <v>1.223521846827947</v>
+        <v>1.223521857007503</v>
       </c>
       <c r="E116">
-        <v>400.78885833975431</v>
+        <v>452.132677245258</v>
       </c>
       <c r="F116">
-        <v>334.66666666666669</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+        <v>334.6666666666667</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" s="2">
         <v>41882</v>
       </c>
@@ -2737,39 +2723,39 @@
         <v>1719.9469225</v>
       </c>
       <c r="C117">
-        <v>179.03547744720001</v>
+        <v>179.0354774472</v>
       </c>
       <c r="D117">
-        <v>1.3821466834306639</v>
+        <v>1.382146644072432</v>
       </c>
       <c r="E117">
-        <v>398.62523767559043</v>
+        <v>449.6918818412043</v>
       </c>
       <c r="F117">
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6">
       <c r="A118" s="2">
         <v>41912</v>
       </c>
       <c r="B118">
-        <v>983.78974427000003</v>
+        <v>983.78974427</v>
       </c>
       <c r="C118">
-        <v>168.33217483269999</v>
+        <v>168.3321748327</v>
       </c>
       <c r="D118">
-        <v>1.6328495531337679</v>
+        <v>1.632849604792721</v>
       </c>
       <c r="E118">
-        <v>393.29287098253832</v>
+        <v>443.6764021720083</v>
       </c>
       <c r="F118">
-        <v>680.33333333333337</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+        <v>680.3333333333334</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" s="2">
         <v>41943</v>
       </c>
@@ -2777,139 +2763,139 @@
         <v>1021.3906709</v>
       </c>
       <c r="C119">
-        <v>155.64998150010001</v>
+        <v>155.6499815001</v>
       </c>
       <c r="D119">
-        <v>1.607906860072249</v>
+        <v>1.607906853562316</v>
       </c>
       <c r="E119">
-        <v>389.34845707379122</v>
+        <v>439.2266816181164</v>
       </c>
       <c r="F119">
         <v>1220.333333333333</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6">
       <c r="A120" s="2">
         <v>41973</v>
       </c>
       <c r="B120">
-        <v>680.29884822999998</v>
+        <v>680.29884823</v>
       </c>
       <c r="C120">
-        <v>159.17926168669999</v>
+        <v>159.1792616867</v>
       </c>
       <c r="D120">
-        <v>1.4492484829766219</v>
+        <v>1.449248404724664</v>
       </c>
       <c r="E120">
-        <v>384.21595262915639</v>
+        <v>433.4366679307631</v>
       </c>
       <c r="F120">
         <v>1697.333333333333</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6">
       <c r="A121" s="2">
         <v>42004</v>
       </c>
       <c r="B121">
-        <v>633.94666770000003</v>
+        <v>633.9466677</v>
       </c>
       <c r="C121">
-        <v>173.84194943529999</v>
+        <v>173.8419494353</v>
       </c>
       <c r="D121">
-        <v>1.3442118223802491</v>
+        <v>1.34421175124871</v>
       </c>
       <c r="E121">
-        <v>380.00092110272118</v>
+        <v>428.6816617746169</v>
       </c>
       <c r="F121">
         <v>1282.333333333333</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6">
       <c r="A122" s="2">
         <v>42035</v>
       </c>
       <c r="B122">
-        <v>798.42795827999998</v>
+        <v>798.42795828</v>
       </c>
       <c r="C122">
-        <v>164.42917976699999</v>
+        <v>164.429179767</v>
       </c>
       <c r="D122">
-        <v>1.420238841987558</v>
+        <v>1.420238839789539</v>
       </c>
       <c r="E122">
-        <v>375.19296847410868</v>
+        <v>423.2577772308999</v>
       </c>
       <c r="F122">
         <v>1696.666666666667</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6">
       <c r="A123" s="2">
         <v>42063</v>
       </c>
       <c r="B123">
-        <v>685.30714398999999</v>
+        <v>685.30714399</v>
       </c>
       <c r="C123">
-        <v>166.49278513620001</v>
+        <v>166.4927851362</v>
       </c>
       <c r="D123">
-        <v>1.39371760548803</v>
+        <v>1.39371763315927</v>
       </c>
       <c r="E123">
-        <v>372.80651186810638</v>
+        <v>420.5655990628963</v>
       </c>
       <c r="F123">
         <v>1144.666666666667</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6">
       <c r="A124" s="2">
         <v>42094</v>
       </c>
       <c r="B124">
-        <v>891.39004236000005</v>
+        <v>891.3900423600001</v>
       </c>
       <c r="C124">
-        <v>160.91035339699999</v>
+        <v>160.910353397</v>
       </c>
       <c r="D124">
-        <v>1.3578571140730411</v>
+        <v>1.357857141087638</v>
       </c>
       <c r="E124">
-        <v>369.94911203768822</v>
+        <v>417.3421465930874</v>
       </c>
       <c r="F124">
         <v>1142.333333333333</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6">
       <c r="A125" s="2">
         <v>42124</v>
       </c>
       <c r="B125">
-        <v>1409.1021826000001</v>
+        <v>1409.1021826</v>
       </c>
       <c r="C125">
         <v>150.7878201931</v>
       </c>
       <c r="D125">
-        <v>1.346757308139459</v>
+        <v>1.346757313714969</v>
       </c>
       <c r="E125">
-        <v>365.70440659244628</v>
+        <v>412.5536650843327</v>
       </c>
       <c r="F125">
-        <v>806.66666666666663</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+        <v>806.6666666666666</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="2">
         <v>42155</v>
       </c>
@@ -2917,19 +2903,19 @@
         <v>1640.2594076</v>
       </c>
       <c r="C126">
-        <v>144.59398971600001</v>
+        <v>144.593989716</v>
       </c>
       <c r="D126">
-        <v>1.3256315385939601</v>
+        <v>1.325631555793402</v>
       </c>
       <c r="E126">
-        <v>362.29153477367652</v>
+        <v>408.7035808307252</v>
       </c>
       <c r="F126">
         <v>918</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6">
       <c r="A127" s="2">
         <v>42185</v>
       </c>
@@ -2937,59 +2923,59 @@
         <v>1765.764635</v>
       </c>
       <c r="C127">
-        <v>147.22752637779999</v>
+        <v>147.2275263778</v>
       </c>
       <c r="D127">
-        <v>1.334619058353973</v>
+        <v>1.334619089936802</v>
       </c>
       <c r="E127">
-        <v>361.65696578301311</v>
+        <v>407.9877191727091</v>
       </c>
       <c r="F127">
-        <v>97.666666666666671</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+        <v>97.66666666666667</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" s="2">
         <v>42216</v>
       </c>
       <c r="B128">
-        <v>1412.4015798999999</v>
+        <v>1412.4015799</v>
       </c>
       <c r="C128">
-        <v>146.18748203769999</v>
+        <v>146.1874820377</v>
       </c>
       <c r="D128">
-        <v>1.4540579093141881</v>
+        <v>1.454057902470999</v>
       </c>
       <c r="E128">
-        <v>357.8056305736913</v>
+        <v>403.6430013420466</v>
       </c>
       <c r="F128">
-        <v>661.33333333333337</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+        <v>661.3333333333334</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" s="2">
         <v>42247</v>
       </c>
       <c r="B129">
-        <v>1270.4719394000001</v>
+        <v>1270.4719394</v>
       </c>
       <c r="C129">
-        <v>145.43364055340001</v>
+        <v>145.4336405534</v>
       </c>
       <c r="D129">
-        <v>1.461033503262875</v>
+        <v>1.461033495917755</v>
       </c>
       <c r="E129">
-        <v>354.63513499427557</v>
+        <v>400.0663433968792</v>
       </c>
       <c r="F129">
         <v>1395</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6">
       <c r="A130" s="2">
         <v>42277</v>
       </c>
@@ -3000,56 +2986,56 @@
         <v>141.9609696684</v>
       </c>
       <c r="D130">
-        <v>1.4883731055105369</v>
+        <v>1.488373114578159</v>
       </c>
       <c r="E130">
-        <v>352.07673923183017</v>
+        <v>397.1801994798075</v>
       </c>
       <c r="F130">
-        <v>323.33333333333331</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+        <v>323.3333333333333</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="2">
         <v>42308</v>
       </c>
       <c r="B131">
-        <v>1093.1703646999999</v>
+        <v>1093.1703647</v>
       </c>
       <c r="C131">
-        <v>135.05824790529999</v>
+        <v>135.0582479053</v>
       </c>
       <c r="D131">
-        <v>1.4560609650866609</v>
+        <v>1.456060939943465</v>
       </c>
       <c r="E131">
-        <v>350.66663426467329</v>
+        <v>395.5894503341389</v>
       </c>
       <c r="F131">
         <v>1031</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6">
       <c r="A132" s="2">
         <v>42338</v>
       </c>
       <c r="B132">
-        <v>616.33520277999992</v>
+        <v>616.3352027799999</v>
       </c>
       <c r="C132">
-        <v>134.50395155979999</v>
+        <v>134.5039515598</v>
       </c>
       <c r="D132">
-        <v>1.4935752023960689</v>
+        <v>1.493575285813723</v>
       </c>
       <c r="E132">
-        <v>347.06988771007508</v>
+        <v>391.5319357219822</v>
       </c>
       <c r="F132">
         <v>1511.666666666667</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6">
       <c r="A133" s="2">
         <v>42369</v>
       </c>
@@ -3057,39 +3043,39 @@
         <v>452.49041445</v>
       </c>
       <c r="C133">
-        <v>143.24645920379999</v>
+        <v>143.2464592038</v>
       </c>
       <c r="D133">
-        <v>1.325777150446666</v>
+        <v>1.325777150615924</v>
       </c>
       <c r="E133">
-        <v>384.51973111807717</v>
+        <v>433.7793625407236</v>
       </c>
       <c r="F133">
-        <v>926.66666666666663</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+        <v>926.6666666666666</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" s="2">
         <v>42400</v>
       </c>
       <c r="B134">
-        <v>915.48282677999998</v>
+        <v>915.48282678</v>
       </c>
       <c r="C134">
-        <v>135.38476527899999</v>
+        <v>135.384765279</v>
       </c>
       <c r="D134">
-        <v>1.0347956014865991</v>
+        <v>1.034795586939365</v>
       </c>
       <c r="E134">
-        <v>448.95958833205327</v>
+        <v>506.4744102128292</v>
       </c>
       <c r="F134">
         <v>1000</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6">
       <c r="A135" s="2">
         <v>42429</v>
       </c>
@@ -3097,59 +3083,59 @@
         <v>1104.0544659</v>
       </c>
       <c r="C135">
-        <v>141.05847767879999</v>
+        <v>141.0584776788</v>
       </c>
       <c r="D135">
-        <v>1.0186339348092051</v>
+        <v>1.018633944178905</v>
       </c>
       <c r="E135">
-        <v>469.39342445410142</v>
+        <v>529.5259617717314</v>
       </c>
       <c r="F135">
         <v>2699.333333333333</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6">
       <c r="A136" s="2">
         <v>42460</v>
       </c>
       <c r="B136">
-        <v>1293.5744890999999</v>
+        <v>1293.5744891</v>
       </c>
       <c r="C136">
-        <v>139.19124519299999</v>
+        <v>139.191245193</v>
       </c>
       <c r="D136">
-        <v>0.99571916976446417</v>
+        <v>0.995719162458453</v>
       </c>
       <c r="E136">
-        <v>463.85139170130219</v>
+        <v>523.273956373468</v>
       </c>
       <c r="F136">
-        <v>347.33333333333331</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+        <v>347.3333333333333</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" s="2">
         <v>42490</v>
       </c>
       <c r="B137">
-        <v>1343.0688972999999</v>
+        <v>1343.0688973</v>
       </c>
       <c r="C137">
-        <v>135.76399070849999</v>
+        <v>135.7639907085</v>
       </c>
       <c r="D137">
-        <v>0.99792496738373759</v>
+        <v>0.9979249808173523</v>
       </c>
       <c r="E137">
-        <v>423.35181033622149</v>
+        <v>477.5860991167588</v>
       </c>
       <c r="F137">
         <v>2075.333333333333</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6">
       <c r="A138" s="2">
         <v>42521</v>
       </c>
@@ -3157,99 +3143,99 @@
         <v>1669.7283138</v>
       </c>
       <c r="C138">
-        <v>135.91120651119999</v>
+        <v>135.9112065112</v>
       </c>
       <c r="D138">
-        <v>0.99277111924114836</v>
+        <v>0.9927711366671613</v>
       </c>
       <c r="E138">
-        <v>398.20525550196629</v>
+        <v>449.218097052519</v>
       </c>
       <c r="F138">
         <v>126</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6">
       <c r="A139" s="2">
         <v>42551</v>
       </c>
       <c r="B139">
-        <v>1617.6095448999999</v>
+        <v>1617.6095449</v>
       </c>
       <c r="C139">
         <v>140.9096978835</v>
       </c>
       <c r="D139">
-        <v>1.003430202704289</v>
+        <v>1.003430201318604</v>
       </c>
       <c r="E139">
-        <v>387.79257918786169</v>
+        <v>437.4714850366893</v>
       </c>
       <c r="F139">
-        <v>651.66666666666663</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+        <v>651.6666666666666</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" s="2">
         <v>42582</v>
       </c>
       <c r="B140">
-        <v>1552.7741863000001</v>
+        <v>1552.7741863</v>
       </c>
       <c r="C140">
-        <v>146.51011383630001</v>
+        <v>146.5101138363</v>
       </c>
       <c r="D140">
-        <v>1.005425849701856</v>
+        <v>1.005425853534594</v>
       </c>
       <c r="E140">
-        <v>399.91406415878077</v>
+        <v>451.1458158920743</v>
       </c>
       <c r="F140">
-        <v>209.33333333333329</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+        <v>209.3333333333333</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" s="2">
         <v>42613</v>
       </c>
       <c r="B141">
-        <v>1920.8426314999999</v>
+        <v>1920.8426315</v>
       </c>
       <c r="C141">
-        <v>144.82829050410001</v>
+        <v>144.8282905041</v>
       </c>
       <c r="D141">
-        <v>1.002527963700945</v>
+        <v>1.002527961068395</v>
       </c>
       <c r="E141">
-        <v>396.2013718920503</v>
+        <v>446.9575021218307</v>
       </c>
       <c r="F141">
-        <v>144.66666666666671</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+        <v>144.6666666666667</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" s="2">
         <v>42643</v>
       </c>
       <c r="B142">
-        <v>1291.4284339999999</v>
+        <v>1291.428434</v>
       </c>
       <c r="C142">
         <v>145.4147278355</v>
       </c>
       <c r="D142">
-        <v>0.99937286911012879</v>
+        <v>0.9993728517048733</v>
       </c>
       <c r="E142">
-        <v>398.04031602236643</v>
+        <v>449.0320276872081</v>
       </c>
       <c r="F142">
         <v>276</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6">
       <c r="A143" s="2">
         <v>42674</v>
       </c>
@@ -3260,96 +3246,96 @@
         <v>145.1147911978</v>
       </c>
       <c r="D143">
-        <v>0.99831074609685799</v>
+        <v>0.998310732713882</v>
       </c>
       <c r="E143">
-        <v>389.87185792786818</v>
+        <v>439.8171337339925</v>
       </c>
       <c r="F143">
         <v>1333</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6">
       <c r="A144" s="2">
         <v>42704</v>
       </c>
       <c r="B144">
-        <v>891.45658929000001</v>
+        <v>891.45658929</v>
       </c>
       <c r="C144">
-        <v>145.27588282470001</v>
+        <v>145.2758828247</v>
       </c>
       <c r="D144">
-        <v>1.0028387392586411</v>
+        <v>1.002838742740644</v>
       </c>
       <c r="E144">
-        <v>386.98915957210829</v>
+        <v>436.5651418231412</v>
       </c>
       <c r="F144">
-        <v>524.33333333333337</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+        <v>524.3333333333334</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" s="2">
         <v>42735</v>
       </c>
       <c r="B145">
-        <v>989.15174309999998</v>
+        <v>989.1517431</v>
       </c>
       <c r="C145">
-        <v>146.95396220340001</v>
+        <v>146.9539622034</v>
       </c>
       <c r="D145">
-        <v>1.002743473611476</v>
+        <v>1.002743445710014</v>
       </c>
       <c r="E145">
-        <v>395.49973551348461</v>
+        <v>446.1659812806383</v>
       </c>
       <c r="F145">
         <v>2232.333333333333</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6">
       <c r="A146" s="2">
         <v>42766</v>
       </c>
       <c r="B146">
-        <v>1072.9435751999999</v>
+        <v>1072.9435752</v>
       </c>
       <c r="C146">
-        <v>138.64352120679999</v>
+        <v>138.6435212068</v>
       </c>
       <c r="D146">
-        <v>0.99451842841181182</v>
+        <v>0.9945184502553022</v>
       </c>
       <c r="E146">
-        <v>390.6653261070083</v>
+        <v>440.7122506632147</v>
       </c>
       <c r="F146">
         <v>1750</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6">
       <c r="A147" s="2">
         <v>42794</v>
       </c>
       <c r="B147">
-        <v>944.76739540999995</v>
+        <v>944.7673954099999</v>
       </c>
       <c r="C147">
         <v>142.1039497685</v>
       </c>
       <c r="D147">
-        <v>1.0003790154817389</v>
+        <v>1.000379014282113</v>
       </c>
       <c r="E147">
-        <v>375.22135359656829</v>
+        <v>423.2897986834543</v>
       </c>
       <c r="F147">
         <v>980</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6">
       <c r="A148" s="2">
         <v>42825</v>
       </c>
@@ -3360,16 +3346,16 @@
         <v>144.5186187189</v>
       </c>
       <c r="D148">
-        <v>0.99809310320179045</v>
+        <v>0.9980930971275166</v>
       </c>
       <c r="E148">
-        <v>364.92441834734018</v>
+        <v>411.6737549617299</v>
       </c>
       <c r="F148">
         <v>1150</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6">
       <c r="A149" s="2">
         <v>42855</v>
       </c>
@@ -3377,119 +3363,119 @@
         <v>1342.2253154</v>
       </c>
       <c r="C149">
-        <v>148.43421718959999</v>
+        <v>148.4342171896</v>
       </c>
       <c r="D149">
-        <v>1.002453216385039</v>
+        <v>1.002453197271431</v>
       </c>
       <c r="E149">
-        <v>350.92414186575809</v>
+        <v>395.8799464361807</v>
       </c>
       <c r="F149">
         <v>2020</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6">
       <c r="A150" s="2">
         <v>42886</v>
       </c>
       <c r="B150">
-        <v>1575.7712727000001</v>
+        <v>1575.7712727</v>
       </c>
       <c r="C150">
-        <v>146.85214514949999</v>
+        <v>146.8521451495</v>
       </c>
       <c r="D150">
-        <v>1.004218905792589</v>
+        <v>1.004218882449936</v>
       </c>
       <c r="E150">
-        <v>353.9564196541275</v>
+        <v>399.3006799373215</v>
       </c>
       <c r="F150">
-        <v>556.66666666666663</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+        <v>556.6666666666666</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151" s="2">
         <v>42916</v>
       </c>
       <c r="B151">
-        <v>1538.7743975000001</v>
+        <v>1538.7743975</v>
       </c>
       <c r="C151">
         <v>145.8596257195</v>
       </c>
       <c r="D151">
-        <v>1.002279415435515</v>
+        <v>1.002279397572973</v>
       </c>
       <c r="E151">
-        <v>359.03924636750469</v>
+        <v>405.034651833179</v>
       </c>
       <c r="F151">
         <v>240</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6">
       <c r="A152" s="2">
         <v>42947</v>
       </c>
       <c r="B152">
-        <v>1400.4968085999999</v>
+        <v>1400.4968086</v>
       </c>
       <c r="C152">
         <v>138.3825487929</v>
       </c>
       <c r="D152">
-        <v>1.0006603506889979</v>
+        <v>1.000660336950457</v>
       </c>
       <c r="E152">
-        <v>375.83020022941292</v>
+        <v>423.9766427720851</v>
       </c>
       <c r="F152">
-        <v>253.33333333333329</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+        <v>253.3333333333333</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" s="2">
         <v>42978</v>
       </c>
       <c r="B153">
-        <v>1368.8231588000001</v>
+        <v>1368.8231588</v>
       </c>
       <c r="C153">
         <v>134.8387506883</v>
       </c>
       <c r="D153">
-        <v>0.99963855442141358</v>
+        <v>0.9996385492237955</v>
       </c>
       <c r="E153">
-        <v>376.57786327497018</v>
+        <v>424.820086613976</v>
       </c>
       <c r="F153">
-        <v>416.66666666666669</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+        <v>416.6666666666667</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" s="2">
         <v>43008</v>
       </c>
       <c r="B154">
-        <v>1384.2418869999999</v>
+        <v>1384.241887</v>
       </c>
       <c r="C154">
-        <v>136.74358992609999</v>
+        <v>136.7435899261</v>
       </c>
       <c r="D154">
-        <v>0.99778160906378133</v>
+        <v>0.9977816174532946</v>
       </c>
       <c r="E154">
-        <v>366.15244147670592</v>
+        <v>413.0590963294994</v>
       </c>
       <c r="F154">
         <v>1376.666666666667</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6">
       <c r="A155" s="2">
         <v>43039</v>
       </c>
@@ -3497,59 +3483,59 @@
         <v>1150.9024542</v>
       </c>
       <c r="C155">
-        <v>131.66033503700001</v>
+        <v>131.660335037</v>
       </c>
       <c r="D155">
-        <v>0.99920043925978275</v>
+        <v>0.9992004472004453</v>
       </c>
       <c r="E155">
-        <v>364.69239698488508</v>
+        <v>411.4120100613864</v>
       </c>
       <c r="F155">
         <v>590</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6">
       <c r="A156" s="2">
         <v>43069</v>
       </c>
       <c r="B156">
-        <v>892.03159970000002</v>
+        <v>892.0315997</v>
       </c>
       <c r="C156">
-        <v>136.40209159380001</v>
+        <v>136.4020915938</v>
       </c>
       <c r="D156">
-        <v>0.99853256363323328</v>
+        <v>0.9985325929211687</v>
       </c>
       <c r="E156">
-        <v>360.92012518621522</v>
+        <v>407.1564842099577</v>
       </c>
       <c r="F156">
-        <v>526.66666666666663</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+        <v>526.6666666666666</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" s="2">
         <v>43100</v>
       </c>
       <c r="B157">
-        <v>1079.6798524999999</v>
+        <v>1079.6798525</v>
       </c>
       <c r="C157">
         <v>143.081828575</v>
       </c>
       <c r="D157">
-        <v>1.0001567689775479</v>
+        <v>1.000156779198264</v>
       </c>
       <c r="E157">
-        <v>352.64433261220751</v>
+        <v>397.8205054896097</v>
       </c>
       <c r="F157">
         <v>1190</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6">
       <c r="A158" s="2">
         <v>43131</v>
       </c>
@@ -3560,36 +3546,36 @@
         <v>138.0737630058</v>
       </c>
       <c r="D158">
-        <v>1.0076750235051779</v>
+        <v>1.007675003702908</v>
       </c>
       <c r="E158">
-        <v>372.87645666286562</v>
+        <v>420.6445042686069</v>
       </c>
       <c r="F158">
         <v>360</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6">
       <c r="A159" s="2">
         <v>43159</v>
       </c>
       <c r="B159">
-        <v>1069.5417887999999</v>
+        <v>1069.5417888</v>
       </c>
       <c r="C159">
         <v>142.8112412456</v>
       </c>
       <c r="D159">
-        <v>1.0060766342122229</v>
+        <v>1.006076631555935</v>
       </c>
       <c r="E159">
-        <v>380.26626099381753</v>
+        <v>428.9809935370772</v>
       </c>
       <c r="F159">
         <v>250</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6">
       <c r="A160" s="2">
         <v>43190</v>
       </c>
@@ -3597,179 +3583,179 @@
         <v>1369.41597</v>
       </c>
       <c r="C160">
-        <v>154.45347557549999</v>
+        <v>154.4534755755</v>
       </c>
       <c r="D160">
-        <v>1.0005448658607221</v>
+        <v>1.000544852520202</v>
       </c>
       <c r="E160">
-        <v>379.13687971967659</v>
+        <v>427.70693072699</v>
       </c>
       <c r="F160">
-        <v>413.33333333333331</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+        <v>413.3333333333333</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161" s="2">
         <v>43220</v>
       </c>
       <c r="B161">
-        <v>1188.5858565999999</v>
+        <v>1188.5858566</v>
       </c>
       <c r="C161">
-        <v>161.05609327580001</v>
+        <v>161.0560932758</v>
       </c>
       <c r="D161">
-        <v>1.0028593398010031</v>
+        <v>1.002859345803572</v>
       </c>
       <c r="E161">
-        <v>368.92665862777278</v>
+        <v>416.1887098446244</v>
       </c>
       <c r="F161">
         <v>2130</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6">
       <c r="A162" s="2">
         <v>43251</v>
       </c>
       <c r="B162">
-        <v>1142.6461575999999</v>
+        <v>1142.6461576</v>
       </c>
       <c r="C162">
         <v>168.3956005254</v>
       </c>
       <c r="D162">
-        <v>1.016139038530266</v>
+        <v>1.016139027285662</v>
       </c>
       <c r="E162">
-        <v>418.18607844424918</v>
+        <v>471.7586013167358</v>
       </c>
       <c r="F162">
         <v>1456.666666666667</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6">
       <c r="A163" s="2">
         <v>43281</v>
       </c>
       <c r="B163">
-        <v>1170.9008467000001</v>
+        <v>1170.9008467</v>
       </c>
       <c r="C163">
-        <v>160.40109013509999</v>
+        <v>160.4010901351</v>
       </c>
       <c r="D163">
-        <v>1.01344920629864</v>
+        <v>1.013449207165738</v>
       </c>
       <c r="E163">
-        <v>456.37239831285223</v>
+        <v>514.8368523136716</v>
       </c>
       <c r="F163">
         <v>70</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6">
       <c r="A164" s="2">
         <v>43312</v>
       </c>
       <c r="B164">
-        <v>1106.0181422000001</v>
+        <v>1106.0181422</v>
       </c>
       <c r="C164">
-        <v>160.96458395350001</v>
+        <v>160.9645839535</v>
       </c>
       <c r="D164">
-        <v>0.99787905602809202</v>
+        <v>0.9978790826125958</v>
       </c>
       <c r="E164">
-        <v>462.54151394903568</v>
+        <v>521.7962742406622</v>
       </c>
       <c r="F164">
-        <v>176.66666666666671</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+        <v>176.6666666666667</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165" s="2">
         <v>43343</v>
       </c>
       <c r="B165">
-        <v>1095.8674719000001</v>
+        <v>1095.8674719</v>
       </c>
       <c r="C165">
         <v>152.7292424133</v>
       </c>
       <c r="D165">
-        <v>1.0169754969492839</v>
+        <v>1.016975513688993</v>
       </c>
       <c r="E165">
-        <v>479.20876480328832</v>
+        <v>540.5987149628625</v>
       </c>
       <c r="F165">
         <v>210</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6">
       <c r="A166" s="2">
         <v>43373</v>
       </c>
       <c r="B166">
-        <v>942.74022476999994</v>
+        <v>942.7402247699999</v>
       </c>
       <c r="C166">
-        <v>142.46625164069999</v>
+        <v>142.4662516407</v>
       </c>
       <c r="D166">
-        <v>1.010134002453815</v>
+        <v>1.010133997189507</v>
       </c>
       <c r="E166">
-        <v>580.20937383543594</v>
+        <v>654.5381990949165</v>
       </c>
       <c r="F166">
-        <v>483.33333333333331</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+        <v>483.3333333333333</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167" s="2">
         <v>43404</v>
       </c>
       <c r="B167">
-        <v>1107.7278696999999</v>
+        <v>1107.7278697</v>
       </c>
       <c r="C167">
         <v>135.3153848131</v>
       </c>
       <c r="D167">
-        <v>0.99726174575958793</v>
+        <v>0.9972617723453882</v>
       </c>
       <c r="E167">
-        <v>534.32600359251319</v>
+        <v>602.7768524474458</v>
       </c>
       <c r="F167">
         <v>1010</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6">
       <c r="A168" s="2">
         <v>43434</v>
       </c>
       <c r="B168">
-        <v>1151.9469151999999</v>
+        <v>1151.9469152</v>
       </c>
       <c r="C168">
         <v>144.3228187149</v>
       </c>
       <c r="D168">
-        <v>1.0024268574561841</v>
+        <v>1.002426876499161</v>
       </c>
       <c r="E168">
-        <v>505.39911489357257</v>
+        <v>570.1442296594627</v>
       </c>
       <c r="F168">
         <v>2053.333333333333</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6">
       <c r="A169" s="2">
         <v>43465</v>
       </c>
@@ -3780,36 +3766,36 @@
         <v>146.6972182925</v>
       </c>
       <c r="D169">
-        <v>0.99961736161153558</v>
+        <v>0.9996174048886407</v>
       </c>
       <c r="E169">
-        <v>512.14405652403968</v>
+        <v>577.7532448648227</v>
       </c>
       <c r="F169">
         <v>1680</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6">
       <c r="A170" s="2">
         <v>43496</v>
       </c>
       <c r="B170">
-        <v>1335.5686026999999</v>
+        <v>1335.5686027</v>
       </c>
       <c r="C170">
         <v>147.5788426014</v>
       </c>
       <c r="D170">
-        <v>0.99666339236307322</v>
+        <v>0.9966633828950165</v>
       </c>
       <c r="E170">
-        <v>492.59326752152589</v>
+        <v>555.6978648560544</v>
       </c>
       <c r="F170">
         <v>2053.333333333333</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6">
       <c r="A171" s="2">
         <v>43524</v>
       </c>
@@ -3817,19 +3803,19 @@
         <v>1082.2475319</v>
       </c>
       <c r="C171">
-        <v>157.63766911420001</v>
+        <v>157.6376691142</v>
       </c>
       <c r="D171">
-        <v>1.0046072871440319</v>
+        <v>1.004607277854921</v>
       </c>
       <c r="E171">
-        <v>485.97697066470067</v>
+        <v>548.2339747077162</v>
       </c>
       <c r="F171">
         <v>920</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6">
       <c r="A172" s="2">
         <v>43555</v>
       </c>
@@ -3837,79 +3823,79 @@
         <v>1348.3627718</v>
       </c>
       <c r="C172">
-        <v>151.55660618690001</v>
+        <v>151.5566061869</v>
       </c>
       <c r="D172">
-        <v>1.007429702476905</v>
+        <v>1.007429703784876</v>
       </c>
       <c r="E172">
-        <v>498.19844135679898</v>
+        <v>562.0211001452419</v>
       </c>
       <c r="F172">
         <v>1170</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6">
       <c r="A173" s="2">
         <v>43585</v>
       </c>
       <c r="B173">
-        <v>1411.9067580999999</v>
+        <v>1411.9067581</v>
       </c>
       <c r="C173">
         <v>147.4577264255</v>
       </c>
       <c r="D173">
-        <v>1.007527446668222</v>
+        <v>1.007527432689305</v>
       </c>
       <c r="E173">
-        <v>503.3730512775299</v>
+        <v>567.8586133107816</v>
       </c>
       <c r="F173">
-        <v>823.33333333333337</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+        <v>823.3333333333334</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174" s="2">
         <v>43616</v>
       </c>
       <c r="B174">
-        <v>1830.1093215999999</v>
+        <v>1830.1093216</v>
       </c>
       <c r="C174">
-        <v>137.95523418490001</v>
+        <v>137.9552341849</v>
       </c>
       <c r="D174">
-        <v>1.00476617599045</v>
+        <v>1.004766187786804</v>
       </c>
       <c r="E174">
-        <v>509.77263183778513</v>
+        <v>575.0780243092332</v>
       </c>
       <c r="F174">
-        <v>493.33333333333331</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+        <v>493.3333333333333</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175" s="2">
         <v>43646</v>
       </c>
       <c r="B175">
-        <v>1168.5215264999999</v>
+        <v>1168.5215265</v>
       </c>
       <c r="C175">
-        <v>144.61370472429999</v>
+        <v>144.6137047243</v>
       </c>
       <c r="D175">
-        <v>0.99698798015033407</v>
+        <v>0.9969879703198427</v>
       </c>
       <c r="E175">
-        <v>484.76358931553148</v>
+        <v>546.8651508332405</v>
       </c>
       <c r="F175">
-        <v>416.66666666666669</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+        <v>416.6666666666667</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176" s="2">
         <v>43677</v>
       </c>
@@ -3917,59 +3903,59 @@
         <v>1702.5730065</v>
       </c>
       <c r="C176">
-        <v>137.89844236639999</v>
+        <v>137.8984423664</v>
       </c>
       <c r="D176">
-        <v>1.0025840455024859</v>
+        <v>1.002584044249803</v>
       </c>
       <c r="E176">
-        <v>459.4603810538249</v>
+        <v>518.320426956307</v>
       </c>
       <c r="F176">
         <v>170</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6">
       <c r="A177" s="2">
         <v>43708</v>
       </c>
       <c r="B177">
-        <v>1504.9099544000001</v>
+        <v>1504.9099544</v>
       </c>
       <c r="C177">
-        <v>135.91018780100001</v>
+        <v>135.910187801</v>
       </c>
       <c r="D177">
-        <v>1.03292578504633</v>
+        <v>1.032925787365745</v>
       </c>
       <c r="E177">
-        <v>541.46466264445041</v>
+        <v>610.830022993313</v>
       </c>
       <c r="F177">
-        <v>23.333333333333329</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23.33333333333333</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178" s="2">
         <v>43738</v>
       </c>
       <c r="B178">
-        <v>1584.0032521000001</v>
+        <v>1584.0032521</v>
       </c>
       <c r="C178">
-        <v>136.39409168629999</v>
+        <v>136.3940916863</v>
       </c>
       <c r="D178">
-        <v>1.167496828927221</v>
+        <v>1.167496834141375</v>
       </c>
       <c r="E178">
-        <v>557.18047809132281</v>
+        <v>628.5591428658601</v>
       </c>
       <c r="F178">
         <v>250</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6">
       <c r="A179" s="2">
         <v>43769</v>
       </c>
@@ -3977,19 +3963,19 @@
         <v>1606.5931294</v>
       </c>
       <c r="C179">
-        <v>132.14304454590001</v>
+        <v>132.1430445459</v>
       </c>
       <c r="D179">
-        <v>1.2373049805591649</v>
+        <v>1.237304997391847</v>
       </c>
       <c r="E179">
-        <v>555.71705653358697</v>
+        <v>626.9082469063804</v>
       </c>
       <c r="F179">
         <v>1386.666666666667</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6">
       <c r="A180" s="2">
         <v>43799</v>
       </c>
@@ -3997,79 +3983,79 @@
         <v>1573.3702163</v>
       </c>
       <c r="C180">
-        <v>133.94972050019999</v>
+        <v>133.9497205002</v>
       </c>
       <c r="D180">
-        <v>1.2827649774134779</v>
+        <v>1.282764965202252</v>
       </c>
       <c r="E180">
-        <v>544.93898377552989</v>
+        <v>614.7494286402462</v>
       </c>
       <c r="F180">
         <v>820</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6">
       <c r="A181" s="2">
         <v>43830</v>
       </c>
       <c r="B181">
-        <v>1372.2591993999999</v>
+        <v>1372.2591994</v>
       </c>
       <c r="C181">
-        <v>137.81128590930001</v>
+        <v>137.8112859093</v>
       </c>
       <c r="D181">
-        <v>1.25025256262455</v>
+        <v>1.250252555950112</v>
       </c>
       <c r="E181">
-        <v>526.51855585406179</v>
+        <v>593.9692167684967</v>
       </c>
       <c r="F181">
         <v>1426.666666666667</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6">
       <c r="A182" s="2">
         <v>43861</v>
       </c>
       <c r="B182">
-        <v>1541.3879844000001</v>
+        <v>1541.3879844</v>
       </c>
       <c r="C182">
-        <v>141.06904532679999</v>
+        <v>141.0690453268</v>
       </c>
       <c r="D182">
-        <v>1.350418574664294</v>
+        <v>1.350418583994119</v>
       </c>
       <c r="E182">
-        <v>516.01032534835133</v>
+        <v>582.1148094096236</v>
       </c>
       <c r="F182">
         <v>1226.666666666667</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6">
       <c r="A183" s="2">
         <v>43890</v>
       </c>
       <c r="B183">
-        <v>1209.3578394000001</v>
+        <v>1209.3578394</v>
       </c>
       <c r="C183">
-        <v>145.34923435339999</v>
+        <v>145.3492343534</v>
       </c>
       <c r="D183">
-        <v>1.3510502239680799</v>
+        <v>1.351050230655744</v>
       </c>
       <c r="E183">
-        <v>516.97134541984349</v>
+        <v>583.1989427850126</v>
       </c>
       <c r="F183">
         <v>980</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6">
       <c r="A184" s="2">
         <v>43921</v>
       </c>
@@ -4080,16 +4066,16 @@
         <v>147.7953486541</v>
       </c>
       <c r="D184">
-        <v>1.380389022268619</v>
+        <v>1.380389006746953</v>
       </c>
       <c r="E184">
-        <v>514.8813199689414</v>
+        <v>580.8411706489768</v>
       </c>
       <c r="F184">
         <v>1640</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6">
       <c r="A185" s="2">
         <v>43951</v>
       </c>
@@ -4100,16 +4086,16 @@
         <v>143.3339504532</v>
       </c>
       <c r="D185">
-        <v>1.57750310924839</v>
+        <v>1.577503142115195</v>
       </c>
       <c r="E185">
-        <v>526.95716733007191</v>
+        <v>594.4640174017791</v>
       </c>
       <c r="F185">
         <v>1010</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6">
       <c r="A186" s="2">
         <v>43982</v>
       </c>
@@ -4117,79 +4103,79 @@
         <v>1997.7985048</v>
       </c>
       <c r="C186">
-        <v>139.84466632510001</v>
+        <v>139.8446663251</v>
       </c>
       <c r="D186">
-        <v>1.7494467346694149</v>
+        <v>1.749446725982872</v>
       </c>
       <c r="E186">
-        <v>535.53365880565445</v>
+        <v>604.139216628348</v>
       </c>
       <c r="F186">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6">
       <c r="A187" s="2">
         <v>44012</v>
       </c>
       <c r="B187">
-        <v>1706.3680363000001</v>
+        <v>1706.3680363</v>
       </c>
       <c r="C187">
-        <v>139.96561514250001</v>
+        <v>139.9656151425</v>
       </c>
       <c r="D187">
-        <v>1.619996906972077</v>
+        <v>1.619996861870583</v>
       </c>
       <c r="E187">
-        <v>537.98708279664925</v>
+        <v>606.9069411655553</v>
       </c>
       <c r="F187">
-        <v>143.33333333333329</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+        <v>143.3333333333333</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188" s="2">
         <v>44043</v>
       </c>
       <c r="B188">
-        <v>1537.9887948000001</v>
+        <v>1537.9887948</v>
       </c>
       <c r="C188">
         <v>140.0184415818</v>
       </c>
       <c r="D188">
-        <v>1.598982845560609</v>
+        <v>1.598982820966657</v>
       </c>
       <c r="E188">
-        <v>542.26712547297814</v>
+        <v>611.7352868485884</v>
       </c>
       <c r="F188">
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6">
       <c r="A189" s="2">
         <v>44074</v>
       </c>
       <c r="B189">
-        <v>1641.9667870999999</v>
+        <v>1641.9667871</v>
       </c>
       <c r="C189">
         <v>137.8217048395</v>
       </c>
       <c r="D189">
-        <v>1.749410639978529</v>
+        <v>1.749410624962543</v>
       </c>
       <c r="E189">
-        <v>541.82019113732133</v>
+        <v>611.2310971398964</v>
       </c>
       <c r="F189">
-        <v>136.66666666666671</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+        <v>136.6666666666667</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190" s="2">
         <v>44104</v>
       </c>
@@ -4197,19 +4183,19 @@
         <v>1113.7152715</v>
       </c>
       <c r="C190">
-        <v>137.37669680740001</v>
+        <v>137.3766968074</v>
       </c>
       <c r="D190">
-        <v>1.7832899440106671</v>
+        <v>1.783289928696925</v>
       </c>
       <c r="E190">
-        <v>540.5982706340194</v>
+        <v>609.8526401867081</v>
       </c>
       <c r="F190">
         <v>760</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6">
       <c r="A191" s="2">
         <v>44135</v>
       </c>
@@ -4217,99 +4203,99 @@
         <v>1055.0865939</v>
       </c>
       <c r="C191">
-        <v>135.56223857399999</v>
+        <v>135.562238574</v>
       </c>
       <c r="D191">
-        <v>2.0827318335885652</v>
+        <v>2.082731829156065</v>
       </c>
       <c r="E191">
-        <v>537.46793494702365</v>
+        <v>606.3212868933539</v>
       </c>
       <c r="F191">
-        <v>876.66666666666663</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+        <v>876.6666666666666</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192" s="2">
         <v>44165</v>
       </c>
       <c r="B192">
-        <v>755.10821666999993</v>
+        <v>755.1082166699999</v>
       </c>
       <c r="C192">
         <v>148.0460658394</v>
       </c>
       <c r="D192">
-        <v>1.8753737957957</v>
+        <v>1.875373818341669</v>
       </c>
       <c r="E192">
-        <v>536.43768080089399</v>
+        <v>605.1590500805288</v>
       </c>
       <c r="F192">
-        <v>666.66666666666663</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+        <v>666.6666666666666</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193" s="2">
         <v>44196</v>
       </c>
       <c r="B193">
-        <v>741.31978288000005</v>
+        <v>741.31978288</v>
       </c>
       <c r="C193">
         <v>142.0730640543</v>
       </c>
       <c r="D193">
-        <v>1.7273691345812081</v>
+        <v>1.727369098225593</v>
       </c>
       <c r="E193">
-        <v>533.76852662150998</v>
+        <v>602.1479588288797</v>
       </c>
       <c r="F193">
         <v>620</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6">
       <c r="A194" s="2">
         <v>44227</v>
       </c>
       <c r="B194">
-        <v>1072.5741032999999</v>
+        <v>1072.5741033</v>
       </c>
       <c r="C194">
-        <v>155.64739412789999</v>
+        <v>155.6473941279</v>
       </c>
       <c r="D194">
-        <v>1.758838309980872</v>
+        <v>1.758838306701644</v>
       </c>
       <c r="E194">
-        <v>533.02469738210641</v>
+        <v>601.3088399301708</v>
       </c>
       <c r="F194">
         <v>1576.666666666667</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6">
       <c r="A195" s="2">
         <v>44255</v>
       </c>
       <c r="B195">
-        <v>1079.0497261999999</v>
+        <v>1079.0497262</v>
       </c>
       <c r="C195">
         <v>156.7003385134</v>
       </c>
       <c r="D195">
-        <v>1.683175197734611</v>
+        <v>1.683175164860101</v>
       </c>
       <c r="E195">
-        <v>531.18374443944208</v>
+        <v>599.232048209719</v>
       </c>
       <c r="F195">
         <v>220</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6">
       <c r="A196" s="2">
         <v>44286</v>
       </c>
@@ -4317,19 +4303,19 @@
         <v>1538.5440346</v>
       </c>
       <c r="C196">
-        <v>164.10888844740001</v>
+        <v>164.1088884474</v>
       </c>
       <c r="D196">
-        <v>1.635245343770042</v>
+        <v>1.635245321764784</v>
       </c>
       <c r="E196">
-        <v>520.84128584906057</v>
+        <v>587.5646492926478</v>
       </c>
       <c r="F196">
         <v>1173.333333333333</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6">
       <c r="A197" s="2">
         <v>44316</v>
       </c>
@@ -4337,19 +4323,19 @@
         <v>1823.5109075</v>
       </c>
       <c r="C197">
-        <v>174.96773907260001</v>
+        <v>174.9677390726</v>
       </c>
       <c r="D197">
-        <v>1.626348438838735</v>
+        <v>1.626348407643438</v>
       </c>
       <c r="E197">
-        <v>509.67051423859698</v>
+        <v>574.9628247407969</v>
       </c>
       <c r="F197">
         <v>1600</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6">
       <c r="A198" s="2">
         <v>44347</v>
       </c>
@@ -4357,139 +4343,139 @@
         <v>1961.3735333</v>
       </c>
       <c r="C198">
-        <v>185.36447187729999</v>
+        <v>185.3644718773</v>
       </c>
       <c r="D198">
-        <v>1.701072949138589</v>
+        <v>1.7010729185221</v>
       </c>
       <c r="E198">
-        <v>500.60302492359682</v>
+        <v>564.7337274628271</v>
       </c>
       <c r="F198">
-        <v>566.66666666666663</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+        <v>566.6666666666666</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199" s="2">
         <v>44377</v>
       </c>
       <c r="B199">
-        <v>2020.0149842999999</v>
+        <v>2020.0149843</v>
       </c>
       <c r="C199">
-        <v>184.65406132050001</v>
+        <v>184.6540613205</v>
       </c>
       <c r="D199">
-        <v>1.7456819133852031</v>
+        <v>1.74568192221144</v>
       </c>
       <c r="E199">
-        <v>491.1557083752939</v>
+        <v>554.0761444614886</v>
       </c>
       <c r="F199">
         <v>13.33333333333333</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6">
       <c r="A200" s="2">
         <v>44408</v>
       </c>
       <c r="B200">
-        <v>2360.2837528999999</v>
+        <v>2360.2837529</v>
       </c>
       <c r="C200">
-        <v>185.78368706820001</v>
+        <v>185.7836870682</v>
       </c>
       <c r="D200">
-        <v>1.831654588202055</v>
+        <v>1.831654572599168</v>
       </c>
       <c r="E200">
-        <v>481.7996863834245</v>
+        <v>543.5215514793567</v>
       </c>
       <c r="F200">
-        <v>233.33333333333329</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+        <v>233.3333333333333</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201" s="2">
         <v>44439</v>
       </c>
       <c r="B201">
-        <v>2766.3522978999999</v>
+        <v>2766.3522979</v>
       </c>
       <c r="C201">
-        <v>187.18275942119999</v>
+        <v>187.1827594212</v>
       </c>
       <c r="D201">
-        <v>1.822719141522338</v>
+        <v>1.822719126515523</v>
       </c>
       <c r="E201">
-        <v>475.02173404268962</v>
+        <v>535.8752966639114</v>
       </c>
       <c r="F201">
-        <v>193.33333333333329</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+        <v>193.3333333333333</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202" s="2">
         <v>44469</v>
       </c>
       <c r="B202">
-        <v>2289.9117931999999</v>
+        <v>2289.9117932</v>
       </c>
       <c r="C202">
         <v>188.1599264358</v>
       </c>
       <c r="D202">
-        <v>1.864076956994059</v>
+        <v>1.864076968030484</v>
       </c>
       <c r="E202">
-        <v>463.7169781991002</v>
+        <v>523.1223235739428</v>
       </c>
       <c r="F202">
         <v>590</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6">
       <c r="A203" s="2">
         <v>44500</v>
       </c>
       <c r="B203">
-        <v>1826.1937333000001</v>
+        <v>1826.1937333</v>
       </c>
       <c r="C203">
         <v>188.1761753641</v>
       </c>
       <c r="D203">
-        <v>1.978365895389524</v>
+        <v>1.978365918135261</v>
       </c>
       <c r="E203">
-        <v>452.26875997364039</v>
+        <v>510.2075095808422</v>
       </c>
       <c r="F203">
         <v>530</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6">
       <c r="A204" s="2">
         <v>44530</v>
       </c>
       <c r="B204">
-        <v>1318.2909288000001</v>
+        <v>1318.2909288</v>
       </c>
       <c r="C204">
-        <v>190.52565234279999</v>
+        <v>190.5256523428</v>
       </c>
       <c r="D204">
-        <v>2.1478960398664442</v>
+        <v>2.147896041504355</v>
       </c>
       <c r="E204">
-        <v>446.16246774876811</v>
+        <v>503.3189591777444</v>
       </c>
       <c r="F204">
         <v>1256.666666666667</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6">
       <c r="A205" s="2">
         <v>44561</v>
       </c>
@@ -4497,19 +4483,19 @@
         <v>1752.4241775</v>
       </c>
       <c r="C205">
-        <v>187.41008329479999</v>
+        <v>187.4100832948</v>
       </c>
       <c r="D205">
-        <v>2.0485251681874321</v>
+        <v>2.048525181644928</v>
       </c>
       <c r="E205">
-        <v>436.32884247050953</v>
+        <v>492.2255786319293</v>
       </c>
       <c r="F205">
-        <v>256.66666666666669</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256.6666666666667</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206" s="2">
         <v>44592</v>
       </c>
@@ -4520,36 +4506,36 @@
         <v>194.3915969711</v>
       </c>
       <c r="D206">
-        <v>2.0638747748714641</v>
+        <v>2.063874796351775</v>
       </c>
       <c r="E206">
-        <v>428.32394350769988</v>
+        <v>483.1951968640191</v>
       </c>
       <c r="F206">
-        <v>876.66666666666663</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+        <v>876.6666666666666</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
       <c r="A207" s="2">
         <v>44620</v>
       </c>
       <c r="B207">
-        <v>1831.7090072000001</v>
+        <v>1831.7090072</v>
       </c>
       <c r="C207">
-        <v>193.13834971489999</v>
+        <v>193.1383497149</v>
       </c>
       <c r="D207">
-        <v>1.99477070434251</v>
+        <v>1.994770725079725</v>
       </c>
       <c r="E207">
-        <v>418.6431452012776</v>
+        <v>472.2742214799088</v>
       </c>
       <c r="F207">
-        <v>946.66666666666663</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+        <v>946.6666666666666</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
       <c r="A208" s="2">
         <v>44651</v>
       </c>
@@ -4557,39 +4543,39 @@
         <v>2082.7858222</v>
       </c>
       <c r="C208">
-        <v>199.22803060800001</v>
+        <v>199.228030608</v>
       </c>
       <c r="D208">
-        <v>1.7939901322936931</v>
+        <v>1.793990146081311</v>
       </c>
       <c r="E208">
-        <v>403.61096650369291</v>
+        <v>455.3163169425362</v>
       </c>
       <c r="F208">
         <v>1330</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6">
       <c r="A209" s="2">
         <v>44681</v>
       </c>
       <c r="B209">
-        <v>2295.4781794999999</v>
+        <v>2295.4781795</v>
       </c>
       <c r="C209">
-        <v>206.59230307569999</v>
+        <v>206.5923030757</v>
       </c>
       <c r="D209">
-        <v>1.727361288075139</v>
+        <v>1.727361338547752</v>
       </c>
       <c r="E209">
-        <v>393.97224249588419</v>
+        <v>444.4428058650792</v>
       </c>
       <c r="F209">
-        <v>606.66666666666663</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+        <v>606.6666666666666</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210" s="2">
         <v>44712</v>
       </c>
@@ -4597,219 +4583,219 @@
         <v>2114.9240771</v>
       </c>
       <c r="C210">
-        <v>209.23389675480001</v>
+        <v>209.2338967548</v>
       </c>
       <c r="D210">
-        <v>1.779156402481896</v>
+        <v>1.779156446068332</v>
       </c>
       <c r="E210">
-        <v>389.86503791084488</v>
+        <v>439.8094400257183</v>
       </c>
       <c r="F210">
-        <v>53.333333333333343</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+        <v>53.33333333333334</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
       <c r="A211" s="2">
         <v>44742</v>
       </c>
       <c r="B211">
-        <v>2035.2093852999999</v>
+        <v>2035.2093853</v>
       </c>
       <c r="C211">
-        <v>212.86263343620001</v>
+        <v>212.8626334362</v>
       </c>
       <c r="D211">
-        <v>1.885824349074571</v>
+        <v>1.885824340144931</v>
       </c>
       <c r="E211">
-        <v>385.78710474791609</v>
+        <v>435.2090954796651</v>
       </c>
       <c r="F211">
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6">
       <c r="A212" s="2">
         <v>44773</v>
       </c>
       <c r="B212">
-        <v>2431.4184080999999</v>
+        <v>2431.4184081</v>
       </c>
       <c r="C212">
         <v>208.8677346172</v>
       </c>
       <c r="D212">
-        <v>2.3552759540325798</v>
+        <v>2.355275971503455</v>
       </c>
       <c r="E212">
-        <v>375.29111803941049</v>
+        <v>423.3685004329226</v>
       </c>
       <c r="F212">
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6">
       <c r="A213" s="2">
         <v>44804</v>
       </c>
       <c r="B213">
-        <v>1988.4080458999999</v>
+        <v>1988.4080459</v>
       </c>
       <c r="C213">
-        <v>200.95929563710001</v>
+        <v>200.9592956371</v>
       </c>
       <c r="D213">
-        <v>2.1490034085126539</v>
+        <v>2.149003381442477</v>
       </c>
       <c r="E213">
-        <v>369.79610296201309</v>
+        <v>417.169535998785</v>
       </c>
       <c r="F213">
-        <v>146.66666666666671</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+        <v>146.6666666666667</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
       <c r="A214" s="2">
         <v>44834</v>
       </c>
       <c r="B214">
-        <v>2071.8792446000002</v>
+        <v>2071.8792446</v>
       </c>
       <c r="C214">
         <v>204.8835771</v>
       </c>
       <c r="D214">
-        <v>2.0710325308553288</v>
+        <v>2.071032542159581</v>
       </c>
       <c r="E214">
-        <v>368.75112936382561</v>
+        <v>415.990694070503</v>
       </c>
       <c r="F214">
         <v>106.6666666666667</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6">
       <c r="A215" s="2">
         <v>44865</v>
       </c>
       <c r="B215">
-        <v>2339.0453639000002</v>
+        <v>2339.0453639</v>
       </c>
       <c r="C215">
-        <v>205.87682219550001</v>
+        <v>205.8768221955</v>
       </c>
       <c r="D215">
-        <v>2.0225837646377549</v>
+        <v>2.02258372005153</v>
       </c>
       <c r="E215">
-        <v>368.46074204346661</v>
+        <v>415.6631061302199</v>
       </c>
       <c r="F215">
-        <v>543.33333333333337</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+        <v>543.3333333333334</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
       <c r="A216" s="2">
         <v>44895</v>
       </c>
       <c r="B216">
-        <v>1506.2279309999999</v>
+        <v>1506.227931</v>
       </c>
       <c r="C216">
-        <v>203.93846421000001</v>
+        <v>203.93846421</v>
       </c>
       <c r="D216">
-        <v>1.958167546259888</v>
+        <v>1.95816750158758</v>
       </c>
       <c r="E216">
-        <v>373.95331417194973</v>
+        <v>421.8593146568266</v>
       </c>
       <c r="F216">
         <v>670</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6">
       <c r="A217" s="2">
         <v>44926</v>
       </c>
       <c r="B217">
-        <v>1251.0067664000001</v>
+        <v>1251.0067664</v>
       </c>
       <c r="C217">
-        <v>197.84678122950001</v>
+        <v>197.8467812295</v>
       </c>
       <c r="D217">
-        <v>1.9379347687465429</v>
+        <v>1.937934734181157</v>
       </c>
       <c r="E217">
-        <v>378.59367929081748</v>
+        <v>427.0941425741502</v>
       </c>
       <c r="F217">
-        <v>356.66666666666669</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+        <v>356.6666666666667</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
       <c r="A218" s="2">
         <v>44957</v>
       </c>
       <c r="B218">
-        <v>1051.3809771000001</v>
+        <v>1051.3809771</v>
       </c>
       <c r="C218">
-        <v>201.97364107550001</v>
+        <v>201.9736410755</v>
       </c>
       <c r="D218">
-        <v>1.93674945549998</v>
+        <v>1.936749468615939</v>
       </c>
       <c r="E218">
-        <v>377.14164424178222</v>
+        <v>425.4560918137227</v>
       </c>
       <c r="F218">
         <v>1106.666666666667</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6">
       <c r="A219" s="2">
         <v>44985</v>
       </c>
       <c r="B219">
-        <v>1213.9066777999999</v>
+        <v>1213.9066778</v>
       </c>
       <c r="C219">
         <v>198.2450262127</v>
       </c>
       <c r="D219">
-        <v>1.9169966511849299</v>
+        <v>1.916996643510472</v>
       </c>
       <c r="E219">
-        <v>372.53299779312329</v>
+        <v>420.2570459471767</v>
       </c>
       <c r="F219">
-        <v>263.33333333333331</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+        <v>263.3333333333333</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
       <c r="A220" s="2">
         <v>45016</v>
       </c>
       <c r="B220">
-        <v>1372.8220246999999</v>
+        <v>1372.8220247</v>
       </c>
       <c r="C220">
         <v>209.3447244532</v>
       </c>
       <c r="D220">
-        <v>1.922943229978501</v>
+        <v>1.922943218020818</v>
       </c>
       <c r="E220">
-        <v>365.9641204043387</v>
+        <v>412.8466500280134</v>
       </c>
       <c r="F220">
         <v>920</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6">
       <c r="A221" s="2">
         <v>45046</v>
       </c>
@@ -4817,84 +4803,84 @@
         <v>1012.3819667</v>
       </c>
       <c r="C221">
-        <v>208.11555708910001</v>
+        <v>208.1155570891</v>
       </c>
       <c r="D221">
-        <v>1.9717639314615261</v>
+        <v>1.971763933957898</v>
       </c>
       <c r="E221">
-        <v>359.00380410644959</v>
+        <v>404.9946691738684</v>
       </c>
       <c r="F221">
-        <v>286.66666666666669</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+        <v>286.6666666666667</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
       <c r="A222" s="2">
         <v>45077</v>
       </c>
       <c r="B222">
-        <v>1327.9151108000001</v>
+        <v>1327.9151108</v>
       </c>
       <c r="C222">
-        <v>200.23672137360001</v>
+        <v>200.2367213736</v>
       </c>
       <c r="D222">
-        <v>2.0567238732492279</v>
+        <v>2.056723878362895</v>
       </c>
       <c r="E222">
-        <v>356.46078998053753</v>
+        <v>402.1258773871306</v>
       </c>
       <c r="F222">
         <v>1063.333333333333</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6">
       <c r="A223" s="2">
         <v>45107</v>
       </c>
       <c r="B223">
-        <v>1273.8859213999999</v>
+        <v>1273.8859214</v>
       </c>
       <c r="C223">
-        <v>203.82574646520001</v>
+        <v>203.8257464652</v>
       </c>
       <c r="D223">
-        <v>2.0345061588441</v>
+        <v>2.034506188448841</v>
       </c>
       <c r="E223">
-        <v>362.09156382814302</v>
+        <v>408.4779922269155</v>
       </c>
       <c r="F223">
-        <v>23.333333333333329</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23.33333333333333</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
       <c r="A224" s="2">
         <v>45138</v>
       </c>
       <c r="B224">
-        <v>1419.6440812999999</v>
+        <v>1419.6440813</v>
       </c>
       <c r="C224">
-        <v>189.73893627179999</v>
+        <v>189.7389362718</v>
       </c>
       <c r="D224">
-        <v>2.0082567124080741</v>
+        <v>2.008256719784216</v>
       </c>
       <c r="E224">
-        <v>364.14825525177889</v>
+        <v>410.7981600167287</v>
       </c>
       <c r="F224">
         <v>320</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6">
       <c r="A225" s="2">
         <v>45169</v>
       </c>
       <c r="B225">
-        <v>1464.1060394000001</v>
+        <v>1464.1060394</v>
       </c>
       <c r="C225">
         <v>178.6060697243</v>
@@ -4903,38 +4889,38 @@
         <v>2.136984881735879</v>
       </c>
       <c r="E225">
-        <v>390.67081020924712</v>
+        <v>440.7184373168004</v>
       </c>
       <c r="F225">
         <v>35</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6">
       <c r="A226" s="2">
         <v>45199</v>
       </c>
       <c r="B226">
-        <v>1427.2569610999999</v>
+        <v>1427.2569611</v>
       </c>
       <c r="C226">
-        <v>178.30069511319999</v>
+        <v>178.3006951132</v>
       </c>
       <c r="D226">
-        <v>2.1614931168748912</v>
+        <v>2.161493116874891</v>
       </c>
       <c r="E226">
-        <v>379.08515545874587</v>
+        <v>427.6485802312452</v>
       </c>
       <c r="F226">
         <v>450</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6">
       <c r="A227" s="2">
         <v>45230</v>
       </c>
       <c r="B227">
-        <v>1139.9375594999999</v>
+        <v>1138.6493471</v>
       </c>
       <c r="C227">
         <v>173.2687957558</v>
@@ -4943,13 +4929,33 @@
         <v>2.634150865004143</v>
       </c>
       <c r="E227">
-        <v>350.03074368563563</v>
+        <v>394.8720977831566</v>
       </c>
       <c r="F227">
-        <v>806.66666666666663</v>
+        <v>806.6666666666666</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B228">
+        <v>689.33412177</v>
+      </c>
+      <c r="C228">
+        <v>178.1799999486</v>
+      </c>
+      <c r="D228">
+        <v>2.543659231659749</v>
+      </c>
+      <c r="E228">
+        <v>352.8595428466797</v>
+      </c>
+      <c r="F228">
+        <v>910</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>